--- a/raw_data/pv_curves.xlsx
+++ b/raw_data/pv_curves.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="11">
   <si>
     <t>species</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>psi_bars</t>
+  </si>
+  <si>
+    <t>dry_mass_g</t>
   </si>
 </sst>
 </file>
@@ -96,10 +99,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,7 +431,7 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -449,8 +453,11 @@
       <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -473,7 +480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -496,7 +503,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -519,7 +526,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -542,7 +549,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -565,7 +572,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -588,7 +595,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -611,7 +618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -634,7 +641,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -657,7 +664,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -680,7 +687,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -703,7 +710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -726,7 +733,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -749,7 +756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -772,7 +779,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>

--- a/raw_data/pv_curves.xlsx
+++ b/raw_data/pv_curves.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="17">
   <si>
     <t>species</t>
   </si>
@@ -44,9 +44,6 @@
     <t>laselva</t>
   </si>
   <si>
-    <t>phlebodium</t>
-  </si>
-  <si>
     <t>epiphyte</t>
   </si>
   <si>
@@ -57,6 +54,27 @@
   </si>
   <si>
     <t>dry_mass_g</t>
+  </si>
+  <si>
+    <t>phlebodium_aurem</t>
+  </si>
+  <si>
+    <t>thelypteris_curta</t>
+  </si>
+  <si>
+    <t>terrestrial</t>
+  </si>
+  <si>
+    <t>qc</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>init</t>
   </si>
 </sst>
 </file>
@@ -418,20 +436,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:I126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="L124" sqref="L124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -448,27 +468,30 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2">
         <v>42832</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -479,19 +502,22 @@
       <c r="G2" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2">
         <v>42832</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -502,19 +528,22 @@
       <c r="G3" s="1">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2">
         <v>42832</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -525,19 +554,22 @@
       <c r="G4" s="1">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2">
         <v>42832</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -548,19 +580,22 @@
       <c r="G5" s="1">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>42832</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -571,19 +606,22 @@
       <c r="G6" s="1">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>42832</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -594,19 +632,22 @@
       <c r="G7" s="1">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="2">
         <v>42832</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -617,19 +658,22 @@
       <c r="G8" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="2">
         <v>42832</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
@@ -640,19 +684,22 @@
       <c r="G9" s="1">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="2">
         <v>42832</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
+      <c r="C10" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" s="1">
         <v>2</v>
@@ -663,19 +710,22 @@
       <c r="G10" s="1">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="2">
         <v>42832</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>6</v>
+      <c r="C11" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
@@ -686,19 +736,22 @@
       <c r="G11" s="1">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="2">
         <v>42832</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>6</v>
+      <c r="C12" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
@@ -709,19 +762,22 @@
       <c r="G12" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="2">
         <v>42832</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>6</v>
+      <c r="C13" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
@@ -732,19 +788,22 @@
       <c r="G13" s="1">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="2">
         <v>42832</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>6</v>
+      <c r="C14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14" s="1">
         <v>2</v>
@@ -755,19 +814,22 @@
       <c r="G14" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="2">
         <v>42832</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>6</v>
+      <c r="C15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
@@ -778,19 +840,22 @@
       <c r="G15" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="2">
         <v>42832</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>6</v>
+      <c r="C16" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
@@ -801,19 +866,22 @@
       <c r="G16" s="1">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I16" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="2">
         <v>42832</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>6</v>
+      <c r="C17" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E17" s="1">
         <v>2</v>
@@ -824,19 +892,22 @@
       <c r="G17" s="1">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I17" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="2">
         <v>42832</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>6</v>
+      <c r="C18" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18" s="1">
         <v>2</v>
@@ -847,19 +918,22 @@
       <c r="G18" s="1">
         <v>12.9</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I18" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="2">
         <v>42832</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>6</v>
+      <c r="C19" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E19" s="1">
         <v>3</v>
@@ -870,19 +944,22 @@
       <c r="G19" s="1">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I19" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="2">
         <v>42832</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>6</v>
+      <c r="C20" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E20" s="1">
         <v>3</v>
@@ -893,19 +970,22 @@
       <c r="G20" s="1">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I20" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="2">
         <v>42832</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>6</v>
+      <c r="C21" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E21" s="1">
         <v>3</v>
@@ -916,19 +996,22 @@
       <c r="G21" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I21" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="2">
         <v>42832</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>6</v>
+      <c r="C22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E22" s="1">
         <v>3</v>
@@ -939,19 +1022,22 @@
       <c r="G22" s="1">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I22" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="2">
         <v>42832</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>6</v>
+      <c r="C23" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E23" s="1">
         <v>3</v>
@@ -962,19 +1048,22 @@
       <c r="G23" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I23" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="2">
         <v>42832</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>6</v>
+      <c r="C24" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E24" s="1">
         <v>3</v>
@@ -985,19 +1074,22 @@
       <c r="G24" s="1">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I24" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="2">
         <v>42832</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>6</v>
+      <c r="C25" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E25" s="1">
         <v>3</v>
@@ -1008,19 +1100,22 @@
       <c r="G25" s="1">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I25" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="2">
         <v>42832</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>6</v>
+      <c r="C26" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E26" s="1">
         <v>3</v>
@@ -1031,19 +1126,22 @@
       <c r="G26" s="1">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I26" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="2">
         <v>42832</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>6</v>
+      <c r="C27" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E27" s="1">
         <v>3</v>
@@ -1054,19 +1152,22 @@
       <c r="G27" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I27" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="2">
         <v>42832</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>6</v>
+      <c r="C28" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E28" s="1">
         <v>4</v>
@@ -1077,19 +1178,22 @@
       <c r="G28" s="1">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I28" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B29" s="2">
         <v>42832</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>6</v>
+      <c r="C29" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E29" s="1">
         <v>4</v>
@@ -1100,19 +1204,22 @@
       <c r="G29" s="1">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I29" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B30" s="2">
         <v>42832</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>6</v>
+      <c r="C30" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E30" s="1">
         <v>4</v>
@@ -1123,19 +1230,22 @@
       <c r="G30" s="1">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I30" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B31" s="2">
         <v>42832</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>6</v>
+      <c r="C31" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E31" s="1">
         <v>4</v>
@@ -1146,19 +1256,22 @@
       <c r="G31" s="1">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I31" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="2">
         <v>42832</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>6</v>
+      <c r="C32" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E32" s="1">
         <v>4</v>
@@ -1169,19 +1282,22 @@
       <c r="G32" s="1">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I32" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="2">
         <v>42832</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>6</v>
+      <c r="C33" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E33" s="1">
         <v>4</v>
@@ -1192,19 +1308,22 @@
       <c r="G33" s="1">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I33" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="2">
         <v>42832</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>6</v>
+      <c r="C34" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E34" s="1">
         <v>4</v>
@@ -1215,19 +1334,22 @@
       <c r="G34" s="1">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I34" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="2">
         <v>42832</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>6</v>
+      <c r="C35" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E35" s="1">
         <v>4</v>
@@ -1238,19 +1360,22 @@
       <c r="G35" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I35" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B36" s="2">
         <v>42832</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>6</v>
+      <c r="C36" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E36" s="1">
         <v>5</v>
@@ -1261,19 +1386,22 @@
       <c r="G36" s="1">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I36" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B37" s="2">
         <v>42832</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>6</v>
+      <c r="C37" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E37" s="1">
         <v>5</v>
@@ -1284,19 +1412,22 @@
       <c r="G37" s="1">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I37" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B38" s="2">
         <v>42832</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>6</v>
+      <c r="C38" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E38" s="1">
         <v>5</v>
@@ -1307,19 +1438,22 @@
       <c r="G38" s="1">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I38" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B39" s="2">
         <v>42832</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>6</v>
+      <c r="C39" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E39" s="1">
         <v>5</v>
@@ -1330,19 +1464,22 @@
       <c r="G39" s="1">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I39" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B40" s="2">
         <v>42832</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>6</v>
+      <c r="C40" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E40" s="1">
         <v>5</v>
@@ -1353,19 +1490,22 @@
       <c r="G40" s="1">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I40" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B41" s="2">
         <v>42832</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>6</v>
+      <c r="C41" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E41" s="1">
         <v>5</v>
@@ -1376,19 +1516,22 @@
       <c r="G41" s="1">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I41" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B42" s="2">
         <v>42832</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>6</v>
+      <c r="C42" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E42" s="1">
         <v>5</v>
@@ -1399,19 +1542,22 @@
       <c r="G42" s="1">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I42" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B43" s="2">
         <v>42832</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>6</v>
+      <c r="C43" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E43" s="1">
         <v>5</v>
@@ -1422,19 +1568,22 @@
       <c r="G43" s="1">
         <v>13.9</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I43" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B44" s="2">
         <v>42832</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>6</v>
+      <c r="C44" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E44" s="1">
         <v>6</v>
@@ -1445,19 +1594,22 @@
       <c r="G44" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I44" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B45" s="2">
         <v>42832</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>6</v>
+      <c r="C45" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E45" s="1">
         <v>6</v>
@@ -1468,19 +1620,22 @@
       <c r="G45" s="1">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I45" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B46" s="2">
         <v>42832</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>6</v>
+      <c r="C46" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E46" s="1">
         <v>6</v>
@@ -1491,19 +1646,22 @@
       <c r="G46" s="1">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I46" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B47" s="2">
         <v>42832</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>6</v>
+      <c r="C47" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E47" s="1">
         <v>6</v>
@@ -1514,19 +1672,22 @@
       <c r="G47" s="1">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I47" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B48" s="2">
         <v>42832</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>6</v>
+      <c r="C48" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E48" s="1">
         <v>6</v>
@@ -1537,19 +1698,22 @@
       <c r="G48" s="1">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I48" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B49" s="2">
         <v>42832</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>6</v>
+      <c r="C49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E49" s="1">
         <v>6</v>
@@ -1560,19 +1724,22 @@
       <c r="G49" s="1">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I49" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B50" s="2">
         <v>42832</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>6</v>
+      <c r="C50" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E50" s="1">
         <v>6</v>
@@ -1583,19 +1750,22 @@
       <c r="G50" s="1">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I50" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B51" s="2">
         <v>42832</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>6</v>
+      <c r="C51" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E51" s="1">
         <v>6</v>
@@ -1606,19 +1776,22 @@
       <c r="G51" s="1">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I51" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B52" s="2">
         <v>42832</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>6</v>
+      <c r="C52" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E52" s="1">
         <v>6</v>
@@ -1629,19 +1802,22 @@
       <c r="G52" s="1">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I52" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B53" s="2">
         <v>42832</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>6</v>
+      <c r="C53" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E53" s="1">
         <v>6</v>
@@ -1652,19 +1828,22 @@
       <c r="G53" s="1">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I53" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B54" s="2">
         <v>42832</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>6</v>
+      <c r="C54" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E54" s="1">
         <v>6</v>
@@ -1675,19 +1854,22 @@
       <c r="G54" s="1">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I54" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B55" s="2">
         <v>42832</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>6</v>
+      <c r="C55" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E55" s="1">
         <v>7</v>
@@ -1698,19 +1880,22 @@
       <c r="G55" s="1">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I55" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B56" s="2">
         <v>42832</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>6</v>
+      <c r="C56" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E56" s="1">
         <v>7</v>
@@ -1721,19 +1906,22 @@
       <c r="G56" s="1">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I56" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B57" s="2">
         <v>42832</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>6</v>
+      <c r="C57" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E57" s="1">
         <v>7</v>
@@ -1744,19 +1932,22 @@
       <c r="G57" s="1">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I57" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B58" s="2">
         <v>42832</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>6</v>
+      <c r="C58" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E58" s="1">
         <v>7</v>
@@ -1767,19 +1958,22 @@
       <c r="G58" s="1">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I58" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B59" s="2">
         <v>42832</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>6</v>
+      <c r="C59" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E59" s="1">
         <v>7</v>
@@ -1790,19 +1984,22 @@
       <c r="G59" s="1">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I59" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B60" s="2">
         <v>42832</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>6</v>
+      <c r="C60" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E60" s="1">
         <v>7</v>
@@ -1813,19 +2010,22 @@
       <c r="G60" s="1">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I60" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B61" s="2">
         <v>42832</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>6</v>
+      <c r="C61" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E61" s="1">
         <v>7</v>
@@ -1836,19 +2036,22 @@
       <c r="G61" s="1">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I61" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B62" s="2">
         <v>42832</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>6</v>
+      <c r="C62" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E62" s="1">
         <v>7</v>
@@ -1859,19 +2062,22 @@
       <c r="G62" s="1">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I62" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B63" s="2">
         <v>42832</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>6</v>
+      <c r="C63" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E63" s="1">
         <v>7</v>
@@ -1882,19 +2088,22 @@
       <c r="G63" s="1">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I63" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B64" s="2">
         <v>42832</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>6</v>
+      <c r="C64" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E64" s="1">
         <v>8</v>
@@ -1905,19 +2114,22 @@
       <c r="G64" s="1">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I64" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B65" s="2">
         <v>42832</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>6</v>
+      <c r="C65" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E65" s="1">
         <v>8</v>
@@ -1928,19 +2140,22 @@
       <c r="G65" s="1">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I65" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B66" s="2">
         <v>42832</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>6</v>
+      <c r="C66" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E66" s="1">
         <v>8</v>
@@ -1951,19 +2166,22 @@
       <c r="G66" s="1">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I66" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B67" s="2">
         <v>42832</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>6</v>
+      <c r="C67" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E67" s="1">
         <v>8</v>
@@ -1974,19 +2192,22 @@
       <c r="G67" s="1">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I67" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B68" s="2">
         <v>42832</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>6</v>
+      <c r="C68" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E68" s="1">
         <v>8</v>
@@ -1997,19 +2218,22 @@
       <c r="G68" s="1">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I68" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B69" s="2">
         <v>42832</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>6</v>
+      <c r="C69" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E69" s="1">
         <v>8</v>
@@ -2020,19 +2244,22 @@
       <c r="G69" s="1">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I69" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B70" s="2">
         <v>42832</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>6</v>
+      <c r="C70" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E70" s="1">
         <v>8</v>
@@ -2043,19 +2270,22 @@
       <c r="G70" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I70" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B71" s="2">
         <v>42832</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>6</v>
+      <c r="C71" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E71" s="1">
         <v>8</v>
@@ -2066,19 +2296,22 @@
       <c r="G71" s="1">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I71" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B72" s="2">
         <v>42832</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>6</v>
+      <c r="C72" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E72" s="1">
         <v>8</v>
@@ -2088,6 +2321,1413 @@
       </c>
       <c r="G72" s="1">
         <v>10.8</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" s="2">
+        <v>42893</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" s="3">
+        <v>1</v>
+      </c>
+      <c r="F73" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="2">
+        <v>42893</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" s="3">
+        <v>1</v>
+      </c>
+      <c r="F74" s="3">
+        <v>1.3617999999999999</v>
+      </c>
+      <c r="G74" s="3">
+        <v>2</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" s="2">
+        <v>42893</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" s="3">
+        <v>1</v>
+      </c>
+      <c r="F75" s="3">
+        <v>1.3169999999999999</v>
+      </c>
+      <c r="G75" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" s="2">
+        <v>42893</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1</v>
+      </c>
+      <c r="F76" s="3">
+        <v>1.3081</v>
+      </c>
+      <c r="G76" s="3">
+        <v>6.1</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" s="2">
+        <v>42893</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" s="3">
+        <v>1</v>
+      </c>
+      <c r="F77" s="3">
+        <v>1.2939000000000001</v>
+      </c>
+      <c r="G77" s="3">
+        <v>9</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" s="2">
+        <v>42893</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" s="3">
+        <v>1</v>
+      </c>
+      <c r="F78" s="3">
+        <v>1.2675000000000001</v>
+      </c>
+      <c r="G78" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="2">
+        <v>42893</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" s="3">
+        <v>1</v>
+      </c>
+      <c r="F79" s="3">
+        <v>1.2148000000000001</v>
+      </c>
+      <c r="G79" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" s="2">
+        <v>42893</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" s="3">
+        <v>1</v>
+      </c>
+      <c r="F80" s="3">
+        <v>1.1744000000000001</v>
+      </c>
+      <c r="G80" s="3">
+        <v>14</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" s="2">
+        <v>42893</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1</v>
+      </c>
+      <c r="F81" s="3">
+        <v>1.1021000000000001</v>
+      </c>
+      <c r="G81" s="3">
+        <v>15.8</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" s="2">
+        <v>42893</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" s="3">
+        <v>2</v>
+      </c>
+      <c r="F82" s="3">
+        <v>1.4400999999999999</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="2">
+        <v>42893</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" s="3">
+        <v>2</v>
+      </c>
+      <c r="F83" s="3">
+        <v>1.4008</v>
+      </c>
+      <c r="G83" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="2">
+        <v>42893</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" s="3">
+        <v>2</v>
+      </c>
+      <c r="F84" s="3">
+        <v>1.3717999999999999</v>
+      </c>
+      <c r="G84" s="3">
+        <v>6</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="2">
+        <v>42893</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" s="3">
+        <v>2</v>
+      </c>
+      <c r="F85" s="3">
+        <v>1.3625</v>
+      </c>
+      <c r="G85" s="3">
+        <v>9</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="2">
+        <v>42893</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" s="3">
+        <v>2</v>
+      </c>
+      <c r="F86" s="3">
+        <v>1.35</v>
+      </c>
+      <c r="G86" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="2">
+        <v>42893</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" s="3">
+        <v>2</v>
+      </c>
+      <c r="F87" s="3">
+        <v>1.3230999999999999</v>
+      </c>
+      <c r="G87" s="3">
+        <v>11.8</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="2">
+        <v>42893</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" s="3">
+        <v>2</v>
+      </c>
+      <c r="F88" s="3">
+        <v>1.274</v>
+      </c>
+      <c r="G88" s="3">
+        <v>13</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="2">
+        <v>42893</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" s="3">
+        <v>2</v>
+      </c>
+      <c r="F89" s="3">
+        <v>1.2194</v>
+      </c>
+      <c r="G89" s="3">
+        <v>14</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="2">
+        <v>42893</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" s="3">
+        <v>2</v>
+      </c>
+      <c r="F90" s="3">
+        <v>1.1798999999999999</v>
+      </c>
+      <c r="G90" s="3">
+        <v>14.8</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="2">
+        <v>42893</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" s="3">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0.98370000000000002</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="2">
+        <v>42893</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92" s="3">
+        <v>3</v>
+      </c>
+      <c r="F92" s="3">
+        <v>0.9617</v>
+      </c>
+      <c r="G92" s="3">
+        <v>3</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="2">
+        <v>42893</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" s="3">
+        <v>3</v>
+      </c>
+      <c r="F93" s="3">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="G93" s="3">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="2">
+        <v>42893</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" s="3">
+        <v>3</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0.93340000000000001</v>
+      </c>
+      <c r="G94" s="3">
+        <v>11.1</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="2">
+        <v>42893</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" s="3">
+        <v>3</v>
+      </c>
+      <c r="F95" s="3">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="G95" s="3">
+        <v>12.4</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="2">
+        <v>42893</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" s="3">
+        <v>3</v>
+      </c>
+      <c r="F96" s="3">
+        <v>0.90710000000000002</v>
+      </c>
+      <c r="G96" s="3">
+        <v>14.1</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="2">
+        <v>42893</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97" s="3">
+        <v>3</v>
+      </c>
+      <c r="F97" s="3">
+        <v>0.87460000000000004</v>
+      </c>
+      <c r="G97" s="3">
+        <v>14.2</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="2">
+        <v>42893</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" s="3">
+        <v>3</v>
+      </c>
+      <c r="F98" s="3">
+        <v>0.8488</v>
+      </c>
+      <c r="G98" s="3">
+        <v>14.9</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="2">
+        <v>42893</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" s="3">
+        <v>4</v>
+      </c>
+      <c r="F99" s="3">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="2">
+        <v>42893</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100" s="3">
+        <v>4</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="G100" s="3">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="2">
+        <v>42893</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101" s="3">
+        <v>4</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0.92090000000000005</v>
+      </c>
+      <c r="G101" s="3">
+        <v>6</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="2">
+        <v>42893</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" s="3">
+        <v>4</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0.88539999999999996</v>
+      </c>
+      <c r="G102" s="3">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="2">
+        <v>42893</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103" s="3">
+        <v>4</v>
+      </c>
+      <c r="F103" s="3">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="G103" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="2">
+        <v>42893</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" s="3">
+        <v>4</v>
+      </c>
+      <c r="F104" s="3">
+        <v>0.75319999999999998</v>
+      </c>
+      <c r="G104" s="3">
+        <v>14.1</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="2">
+        <v>42893</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105" s="3">
+        <v>4</v>
+      </c>
+      <c r="F105" s="3">
+        <v>0.71179999999999999</v>
+      </c>
+      <c r="G105" s="3">
+        <v>15.9</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="2">
+        <v>42893</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E106" s="3">
+        <v>4</v>
+      </c>
+      <c r="F106" s="3">
+        <v>0.68689999999999996</v>
+      </c>
+      <c r="G106" s="3">
+        <v>17</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="2">
+        <v>42893</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E107" s="3">
+        <v>5</v>
+      </c>
+      <c r="F107" s="3">
+        <v>1.0720000000000001</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108" s="2">
+        <v>42893</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108" s="3">
+        <v>5</v>
+      </c>
+      <c r="F108" s="3">
+        <v>1.0527</v>
+      </c>
+      <c r="G108" s="3">
+        <v>3.8</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" s="2">
+        <v>42893</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E109" s="3">
+        <v>5</v>
+      </c>
+      <c r="F109" s="3">
+        <v>1.0401</v>
+      </c>
+      <c r="G109" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" s="2">
+        <v>42893</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" s="3">
+        <v>5</v>
+      </c>
+      <c r="F110" s="3">
+        <v>1.0263</v>
+      </c>
+      <c r="G110" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B111" s="2">
+        <v>42893</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111" s="3">
+        <v>5</v>
+      </c>
+      <c r="F111" s="3">
+        <v>1.0129999999999999</v>
+      </c>
+      <c r="G111" s="3">
+        <v>9.6</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112" s="2">
+        <v>42893</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E112" s="3">
+        <v>5</v>
+      </c>
+      <c r="F112" s="3">
+        <v>1.0016</v>
+      </c>
+      <c r="G112" s="3">
+        <v>10.4</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B113" s="2">
+        <v>42893</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E113" s="3">
+        <v>5</v>
+      </c>
+      <c r="F113" s="3">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="G113" s="3">
+        <v>11</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B114" s="2">
+        <v>42893</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E114" s="3">
+        <v>5</v>
+      </c>
+      <c r="F114" s="3">
+        <v>0.94530000000000003</v>
+      </c>
+      <c r="G114" s="3">
+        <v>11.8</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B115" s="2">
+        <v>42893</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" s="3">
+        <v>5</v>
+      </c>
+      <c r="F115" s="3">
+        <v>0.92830000000000001</v>
+      </c>
+      <c r="G115" s="3">
+        <v>12.7</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116" s="2">
+        <v>42893</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116" s="3">
+        <v>5</v>
+      </c>
+      <c r="F116" s="3">
+        <v>0.67859999999999998</v>
+      </c>
+      <c r="G116" s="3">
+        <v>18</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B117" s="2">
+        <v>42893</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E117" s="3">
+        <v>6</v>
+      </c>
+      <c r="F117" s="3">
+        <v>1.3303</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B118" s="2">
+        <v>42893</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118" s="3">
+        <v>6</v>
+      </c>
+      <c r="F118" s="3">
+        <v>1.3078000000000001</v>
+      </c>
+      <c r="G118" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119" s="2">
+        <v>42893</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119" s="3">
+        <v>6</v>
+      </c>
+      <c r="F119" s="3">
+        <v>1.2905</v>
+      </c>
+      <c r="G119" s="3">
+        <v>11</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120" s="2">
+        <v>42893</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E120" s="3">
+        <v>6</v>
+      </c>
+      <c r="F120" s="3">
+        <v>1.2769999999999999</v>
+      </c>
+      <c r="G120" s="3">
+        <v>9.9</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121" s="2">
+        <v>42893</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E121" s="3">
+        <v>6</v>
+      </c>
+      <c r="F121" s="3">
+        <v>1.2632000000000001</v>
+      </c>
+      <c r="G121" s="3">
+        <v>12.1</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" s="2">
+        <v>42893</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E122" s="3">
+        <v>6</v>
+      </c>
+      <c r="F122" s="3">
+        <v>1.2184999999999999</v>
+      </c>
+      <c r="G122" s="3">
+        <v>12.4</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123" s="2">
+        <v>42893</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E123" s="3">
+        <v>6</v>
+      </c>
+      <c r="F123" s="3">
+        <v>1.1572</v>
+      </c>
+      <c r="G123" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B124" s="2">
+        <v>42893</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E124" s="3">
+        <v>6</v>
+      </c>
+      <c r="F124" s="3">
+        <v>1.0678000000000001</v>
+      </c>
+      <c r="G124" s="3">
+        <v>14.2</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B125" s="2">
+        <v>42893</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E125" s="3">
+        <v>6</v>
+      </c>
+      <c r="F125" s="3">
+        <v>1.0306</v>
+      </c>
+      <c r="G125" s="3">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B126" s="2">
+        <v>42893</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E126" s="3">
+        <v>6</v>
+      </c>
+      <c r="F126" s="3">
+        <v>0.77110000000000001</v>
+      </c>
+      <c r="G126" s="3">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/raw_data/pv_curves.xlsx
+++ b/raw_data/pv_curves.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2384" uniqueCount="31">
   <si>
     <t>species</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>diplazium_straitastrum</t>
+  </si>
+  <si>
+    <t>campylonerum_brevifolia</t>
+  </si>
+  <si>
+    <t>salpichlaena_volubilis</t>
   </si>
 </sst>
 </file>
@@ -473,11 +479,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O570"/>
+  <dimension ref="A1:O684"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A550" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B569" sqref="B569"/>
+      <pane ySplit="1" topLeftCell="A655" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L673" sqref="L673"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14403,19 +14409,2519 @@
       </c>
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B568" s="2"/>
-      <c r="C568" s="3"/>
-      <c r="D568" s="3"/>
+      <c r="A568" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B568" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C568" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D568" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E568" s="3">
+        <v>1</v>
+      </c>
+      <c r="F568" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="G568" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B569" s="2"/>
-      <c r="C569" s="3"/>
-      <c r="D569" s="3"/>
+      <c r="A569" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B569" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C569" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D569" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E569" s="3">
+        <v>1</v>
+      </c>
+      <c r="F569" s="3">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="G569" s="3">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B570" s="2"/>
-      <c r="C570" s="3"/>
-      <c r="D570" s="3"/>
+      <c r="A570" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B570" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C570" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D570" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E570" s="3">
+        <v>1</v>
+      </c>
+      <c r="F570" s="3">
+        <v>0.55259999999999998</v>
+      </c>
+      <c r="G570" s="3">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A571" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B571" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C571" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D571" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E571" s="3">
+        <v>1</v>
+      </c>
+      <c r="F571" s="3">
+        <v>0.54579999999999995</v>
+      </c>
+      <c r="G571" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A572" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B572" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C572" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D572" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E572" s="3">
+        <v>1</v>
+      </c>
+      <c r="F572" s="3">
+        <v>0.54069999999999996</v>
+      </c>
+      <c r="G572" s="3">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A573" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B573" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C573" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D573" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E573" s="3">
+        <v>1</v>
+      </c>
+      <c r="F573" s="3">
+        <v>0.53879999999999995</v>
+      </c>
+      <c r="G573" s="3">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A574" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B574" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C574" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D574" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E574" s="3">
+        <v>1</v>
+      </c>
+      <c r="F574" s="3">
+        <v>0.52890000000000004</v>
+      </c>
+      <c r="G574" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A575" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B575" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C575" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D575" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E575" s="3">
+        <v>1</v>
+      </c>
+      <c r="F575" s="3">
+        <v>0.52170000000000005</v>
+      </c>
+      <c r="G575" s="3">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A576" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B576" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C576" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D576" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E576" s="3">
+        <v>1</v>
+      </c>
+      <c r="F576" s="3">
+        <v>0.51259999999999994</v>
+      </c>
+      <c r="G576" s="3">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A577" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B577" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C577" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D577" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E577" s="3">
+        <v>1</v>
+      </c>
+      <c r="F577" s="3">
+        <v>0.50290000000000001</v>
+      </c>
+      <c r="G577" s="3">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A578" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B578" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C578" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D578" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E578" s="3">
+        <v>1</v>
+      </c>
+      <c r="F578" s="3">
+        <v>0.48449999999999999</v>
+      </c>
+      <c r="G578" s="3">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A579" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B579" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C579" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D579" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E579" s="3">
+        <v>2</v>
+      </c>
+      <c r="F579" s="3">
+        <v>0.86829999999999996</v>
+      </c>
+      <c r="G579" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A580" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B580" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C580" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D580" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E580" s="3">
+        <v>2</v>
+      </c>
+      <c r="F580" s="3">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="G580" s="3">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A581" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B581" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C581" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D581" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E581" s="3">
+        <v>2</v>
+      </c>
+      <c r="F581" s="3">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="G581" s="3">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A582" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B582" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C582" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D582" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E582" s="3">
+        <v>2</v>
+      </c>
+      <c r="F582" s="3">
+        <v>0.84719999999999995</v>
+      </c>
+      <c r="G582" s="3">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A583" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B583" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C583" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D583" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E583" s="3">
+        <v>2</v>
+      </c>
+      <c r="F583" s="3">
+        <v>0.84370000000000001</v>
+      </c>
+      <c r="G583" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A584" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B584" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C584" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D584" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E584" s="3">
+        <v>2</v>
+      </c>
+      <c r="F584" s="3">
+        <v>0.84179999999999999</v>
+      </c>
+      <c r="G584" s="3">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A585" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B585" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C585" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D585" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E585" s="3">
+        <v>2</v>
+      </c>
+      <c r="F585" s="3">
+        <v>0.83579999999999999</v>
+      </c>
+      <c r="G585" s="3">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A586" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B586" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C586" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D586" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E586" s="3">
+        <v>2</v>
+      </c>
+      <c r="F586" s="3">
+        <v>0.82520000000000004</v>
+      </c>
+      <c r="G586" s="3">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A587" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B587" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C587" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D587" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E587" s="3">
+        <v>2</v>
+      </c>
+      <c r="F587" s="3">
+        <v>0.81669999999999998</v>
+      </c>
+      <c r="G587" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A588" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B588" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C588" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D588" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E588" s="3">
+        <v>2</v>
+      </c>
+      <c r="F588" s="3">
+        <v>0.80549999999999999</v>
+      </c>
+      <c r="G588" s="3">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A589" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B589" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C589" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D589" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E589" s="3">
+        <v>3</v>
+      </c>
+      <c r="F589" s="3">
+        <v>1.7697000000000001</v>
+      </c>
+      <c r="G589" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A590" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B590" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C590" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D590" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E590" s="3">
+        <v>3</v>
+      </c>
+      <c r="F590" s="3">
+        <v>1.7621</v>
+      </c>
+      <c r="G590" s="3">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A591" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B591" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C591" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D591" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E591" s="3">
+        <v>3</v>
+      </c>
+      <c r="F591" s="3">
+        <v>1.7588999999999999</v>
+      </c>
+      <c r="G591" s="3">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A592" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B592" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C592" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D592" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E592" s="3">
+        <v>3</v>
+      </c>
+      <c r="F592" s="3">
+        <v>1.7554000000000001</v>
+      </c>
+      <c r="G592" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A593" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B593" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C593" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D593" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E593" s="3">
+        <v>3</v>
+      </c>
+      <c r="F593" s="3">
+        <v>1.7522</v>
+      </c>
+      <c r="G593" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A594" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B594" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C594" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D594" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E594" s="3">
+        <v>3</v>
+      </c>
+      <c r="F594" s="3">
+        <v>1.7481</v>
+      </c>
+      <c r="G594" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A595" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B595" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C595" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D595" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E595" s="3">
+        <v>3</v>
+      </c>
+      <c r="F595" s="3">
+        <v>1.7422</v>
+      </c>
+      <c r="G595" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A596" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B596" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C596" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D596" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E596" s="3">
+        <v>3</v>
+      </c>
+      <c r="F596" s="3">
+        <v>1.7279</v>
+      </c>
+      <c r="G596" s="3">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A597" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B597" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C597" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D597" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E597" s="3">
+        <v>3</v>
+      </c>
+      <c r="F597" s="3">
+        <v>1.7199</v>
+      </c>
+      <c r="G597" s="3">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A598" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B598" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C598" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D598" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E598" s="3">
+        <v>3</v>
+      </c>
+      <c r="F598" s="3">
+        <v>1.7116</v>
+      </c>
+      <c r="G598" s="3">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A599" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B599" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C599" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D599" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E599" s="3">
+        <v>3</v>
+      </c>
+      <c r="F599" s="3">
+        <v>1.004</v>
+      </c>
+      <c r="G599" s="3">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A600" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B600" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C600" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D600" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E600" s="3">
+        <v>4</v>
+      </c>
+      <c r="F600" s="3">
+        <v>1.6106</v>
+      </c>
+      <c r="G600" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A601" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B601" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C601" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D601" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E601" s="3">
+        <v>4</v>
+      </c>
+      <c r="F601" s="3">
+        <v>1.5827</v>
+      </c>
+      <c r="G601" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A602" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B602" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C602" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D602" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E602" s="3">
+        <v>4</v>
+      </c>
+      <c r="F602" s="3">
+        <v>1.5651999999999999</v>
+      </c>
+      <c r="G602" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A603" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B603" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C603" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D603" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E603" s="3">
+        <v>4</v>
+      </c>
+      <c r="F603" s="3">
+        <v>1.5504</v>
+      </c>
+      <c r="G603" s="3">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A604" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B604" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C604" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D604" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E604" s="3">
+        <v>4</v>
+      </c>
+      <c r="F604" s="3">
+        <v>1.5455000000000001</v>
+      </c>
+      <c r="G604" s="3">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A605" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B605" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C605" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D605" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E605" s="3">
+        <v>4</v>
+      </c>
+      <c r="F605" s="3">
+        <v>1.5335000000000001</v>
+      </c>
+      <c r="G605" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A606" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B606" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C606" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D606" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E606" s="3">
+        <v>4</v>
+      </c>
+      <c r="F606" s="3">
+        <v>1.5281</v>
+      </c>
+      <c r="G606" s="3">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A607" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B607" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C607" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D607" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E607" s="3">
+        <v>4</v>
+      </c>
+      <c r="F607" s="3">
+        <v>1.5199</v>
+      </c>
+      <c r="G607" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A608" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B608" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C608" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D608" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E608" s="3">
+        <v>4</v>
+      </c>
+      <c r="F608" s="3">
+        <v>1.5029999999999999</v>
+      </c>
+      <c r="G608" s="3">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A609" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B609" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C609" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D609" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E609" s="3">
+        <v>4</v>
+      </c>
+      <c r="F609" s="3">
+        <v>1.4869000000000001</v>
+      </c>
+      <c r="G609" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A610" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B610" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C610" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D610" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E610" s="3">
+        <v>5</v>
+      </c>
+      <c r="F610" s="3">
+        <v>1.4628000000000001</v>
+      </c>
+      <c r="G610" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A611" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B611" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C611" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D611" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E611" s="3">
+        <v>5</v>
+      </c>
+      <c r="F611" s="3">
+        <v>1.4538</v>
+      </c>
+      <c r="G611" s="3">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A612" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B612" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C612" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D612" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E612" s="3">
+        <v>5</v>
+      </c>
+      <c r="F612" s="3">
+        <v>1.4456</v>
+      </c>
+      <c r="G612" s="3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A613" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B613" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C613" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D613" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E613" s="3">
+        <v>5</v>
+      </c>
+      <c r="F613" s="3">
+        <v>1.4399</v>
+      </c>
+      <c r="G613" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A614" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B614" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C614" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D614" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E614" s="3">
+        <v>5</v>
+      </c>
+      <c r="F614" s="3">
+        <v>1.4365000000000001</v>
+      </c>
+      <c r="G614" s="3">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A615" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B615" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C615" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D615" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E615" s="3">
+        <v>5</v>
+      </c>
+      <c r="F615" s="3">
+        <v>1.4307000000000001</v>
+      </c>
+      <c r="G615" s="3">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A616" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B616" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C616" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D616" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E616" s="3">
+        <v>5</v>
+      </c>
+      <c r="F616" s="3">
+        <v>1.4200999999999999</v>
+      </c>
+      <c r="G616" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A617" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B617" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C617" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D617" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E617" s="3">
+        <v>5</v>
+      </c>
+      <c r="F617" s="3">
+        <v>1.4169</v>
+      </c>
+      <c r="G617" s="3">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A618" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B618" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C618" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D618" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E618" s="3">
+        <v>5</v>
+      </c>
+      <c r="F618" s="3">
+        <v>1.4058999999999999</v>
+      </c>
+      <c r="G618" s="3">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A619" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B619" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C619" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D619" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E619" s="3">
+        <v>5</v>
+      </c>
+      <c r="F619" s="3">
+        <v>1.3757999999999999</v>
+      </c>
+      <c r="G619" s="3">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A620" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B620" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C620" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D620" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E620" s="3">
+        <v>5</v>
+      </c>
+      <c r="F620" s="3">
+        <v>1.3393999999999999</v>
+      </c>
+      <c r="G620" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A621" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B621" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C621" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D621" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E621" s="3">
+        <v>6</v>
+      </c>
+      <c r="F621" s="3">
+        <v>1.4336</v>
+      </c>
+      <c r="G621" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A622" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B622" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C622" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D622" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E622" s="3">
+        <v>6</v>
+      </c>
+      <c r="F622" s="3">
+        <v>1.4077999999999999</v>
+      </c>
+      <c r="G622" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A623" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B623" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C623" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D623" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E623" s="3">
+        <v>6</v>
+      </c>
+      <c r="F623" s="3">
+        <v>1.3835999999999999</v>
+      </c>
+      <c r="G623" s="3">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A624" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B624" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C624" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D624" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E624" s="3">
+        <v>6</v>
+      </c>
+      <c r="F624" s="3">
+        <v>1.3612</v>
+      </c>
+      <c r="G624" s="3">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A625" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B625" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C625" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D625" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E625" s="3">
+        <v>6</v>
+      </c>
+      <c r="F625" s="3">
+        <v>1.3405</v>
+      </c>
+      <c r="G625" s="3">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A626" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B626" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C626" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D626" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E626" s="3">
+        <v>6</v>
+      </c>
+      <c r="F626" s="3">
+        <v>1.3260000000000001</v>
+      </c>
+      <c r="G626" s="3">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A627" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B627" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C627" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D627" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E627" s="3">
+        <v>6</v>
+      </c>
+      <c r="F627" s="3">
+        <v>1.3151999999999999</v>
+      </c>
+      <c r="G627" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A628" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B628" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C628" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D628" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E628" s="3">
+        <v>2</v>
+      </c>
+      <c r="F628" s="3">
+        <v>3.5585</v>
+      </c>
+      <c r="G628" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A629" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B629" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C629" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D629" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E629" s="3">
+        <v>2</v>
+      </c>
+      <c r="F629" s="3">
+        <v>3.5407999999999999</v>
+      </c>
+      <c r="G629" s="3">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A630" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B630" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C630" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D630" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E630" s="3">
+        <v>2</v>
+      </c>
+      <c r="F630" s="3">
+        <v>3.5259</v>
+      </c>
+      <c r="G630" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A631" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B631" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C631" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D631" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E631" s="3">
+        <v>2</v>
+      </c>
+      <c r="F631" s="3">
+        <v>3.4859</v>
+      </c>
+      <c r="G631" s="3">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A632" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B632" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C632" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D632" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E632" s="3">
+        <v>2</v>
+      </c>
+      <c r="F632" s="3">
+        <v>3.4491000000000001</v>
+      </c>
+      <c r="G632" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A633" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B633" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C633" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D633" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E633" s="3">
+        <v>2</v>
+      </c>
+      <c r="F633" s="3">
+        <v>3.4148000000000001</v>
+      </c>
+      <c r="G633" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A634" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B634" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C634" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D634" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E634" s="3">
+        <v>2</v>
+      </c>
+      <c r="F634" s="3">
+        <v>3.3637999999999999</v>
+      </c>
+      <c r="G634" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A635" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B635" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C635" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D635" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E635" s="3">
+        <v>2</v>
+      </c>
+      <c r="F635" s="3">
+        <v>3.3083</v>
+      </c>
+      <c r="G635" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A636" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B636" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C636" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D636" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E636" s="3">
+        <v>2</v>
+      </c>
+      <c r="F636" s="3">
+        <v>3.2644000000000002</v>
+      </c>
+      <c r="G636" s="3">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A637" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B637" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C637" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D637" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E637" s="3">
+        <v>3</v>
+      </c>
+      <c r="F637" s="3">
+        <v>2.5474999999999999</v>
+      </c>
+      <c r="G637" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A638" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B638" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C638" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D638" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E638" s="3">
+        <v>3</v>
+      </c>
+      <c r="F638" s="3">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="G638" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A639" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B639" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C639" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D639" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E639" s="3">
+        <v>3</v>
+      </c>
+      <c r="F639" s="3">
+        <v>2.4834999999999998</v>
+      </c>
+      <c r="G639" s="3">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A640" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B640" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C640" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D640" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E640" s="3">
+        <v>3</v>
+      </c>
+      <c r="F640" s="3">
+        <v>2.4581</v>
+      </c>
+      <c r="G640" s="3">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A641" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B641" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C641" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D641" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E641" s="3">
+        <v>3</v>
+      </c>
+      <c r="F641" s="3">
+        <v>2.4327000000000001</v>
+      </c>
+      <c r="G641" s="3">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A642" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B642" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C642" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D642" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E642" s="3">
+        <v>3</v>
+      </c>
+      <c r="F642" s="3">
+        <v>2.4043999999999999</v>
+      </c>
+      <c r="G642" s="3">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A643" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B643" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C643" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D643" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E643" s="3">
+        <v>3</v>
+      </c>
+      <c r="F643" s="3">
+        <v>2.3738000000000001</v>
+      </c>
+      <c r="G643" s="3">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A644" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B644" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C644" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D644" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E644" s="3">
+        <v>4</v>
+      </c>
+      <c r="F644" s="3">
+        <v>1.6365000000000001</v>
+      </c>
+      <c r="G644" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A645" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B645" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C645" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D645" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E645" s="3">
+        <v>4</v>
+      </c>
+      <c r="F645" s="3">
+        <v>1.6363000000000001</v>
+      </c>
+      <c r="G645" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A646" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B646" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C646" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D646" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E646" s="3">
+        <v>4</v>
+      </c>
+      <c r="F646" s="3">
+        <v>1.5924</v>
+      </c>
+      <c r="G646" s="3">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A647" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B647" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C647" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D647" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E647" s="3">
+        <v>4</v>
+      </c>
+      <c r="F647" s="3">
+        <v>1.5725</v>
+      </c>
+      <c r="G647" s="3">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A648" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B648" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C648" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D648" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E648" s="3">
+        <v>4</v>
+      </c>
+      <c r="F648" s="3">
+        <v>1.5501</v>
+      </c>
+      <c r="G648" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A649" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B649" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C649" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D649" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E649" s="3">
+        <v>4</v>
+      </c>
+      <c r="F649" s="3">
+        <v>1.5233000000000001</v>
+      </c>
+      <c r="G649" s="3">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A650" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B650" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C650" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D650" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E650" s="3">
+        <v>4</v>
+      </c>
+      <c r="F650" s="3">
+        <v>1.4955000000000001</v>
+      </c>
+      <c r="G650" s="3">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="651" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A651" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B651" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C651" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D651" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E651" s="3">
+        <v>4</v>
+      </c>
+      <c r="F651" s="3">
+        <v>1.4502999999999999</v>
+      </c>
+      <c r="G651" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="652" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A652" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B652" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C652" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D652" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E652" s="3">
+        <v>6</v>
+      </c>
+      <c r="F652" s="3">
+        <v>3.0339999999999998</v>
+      </c>
+      <c r="G652" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A653" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B653" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C653" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D653" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E653" s="3">
+        <v>6</v>
+      </c>
+      <c r="F653" s="3">
+        <v>2.9375</v>
+      </c>
+      <c r="G653" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A654" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B654" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C654" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D654" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E654" s="3">
+        <v>6</v>
+      </c>
+      <c r="F654" s="3">
+        <v>2.8984000000000001</v>
+      </c>
+      <c r="G654" s="3">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="655" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A655" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B655" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C655" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D655" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E655" s="3">
+        <v>6</v>
+      </c>
+      <c r="F655" s="3">
+        <v>2.8929999999999998</v>
+      </c>
+      <c r="G655" s="3">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A656" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B656" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C656" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D656" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E656" s="3">
+        <v>6</v>
+      </c>
+      <c r="F656" s="3">
+        <v>2.8691</v>
+      </c>
+      <c r="G656" s="3">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A657" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B657" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C657" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D657" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E657" s="3">
+        <v>6</v>
+      </c>
+      <c r="F657" s="3">
+        <v>2.7831000000000001</v>
+      </c>
+      <c r="G657" s="3">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A658" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B658" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C658" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D658" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E658" s="3">
+        <v>6</v>
+      </c>
+      <c r="F658" s="3">
+        <v>2.7170999999999998</v>
+      </c>
+      <c r="G658" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A659" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B659" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C659" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D659" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E659" s="3">
+        <v>1</v>
+      </c>
+      <c r="F659" s="3">
+        <v>2.4849999999999999</v>
+      </c>
+      <c r="G659" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A660" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B660" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C660" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D660" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E660" s="3">
+        <v>1</v>
+      </c>
+      <c r="F660" s="3">
+        <v>2.468</v>
+      </c>
+      <c r="G660" s="3">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A661" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B661" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C661" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D661" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E661" s="3">
+        <v>1</v>
+      </c>
+      <c r="F661" s="3">
+        <v>2.4359999999999999</v>
+      </c>
+      <c r="G661" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A662" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B662" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C662" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D662" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E662" s="3">
+        <v>1</v>
+      </c>
+      <c r="F662" s="3">
+        <v>2.4157000000000002</v>
+      </c>
+      <c r="G662" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A663" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B663" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C663" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D663" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E663" s="3">
+        <v>1</v>
+      </c>
+      <c r="F663" s="3">
+        <v>2.3881000000000001</v>
+      </c>
+      <c r="G663" s="3">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A664" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B664" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C664" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D664" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E664" s="3">
+        <v>1</v>
+      </c>
+      <c r="F664" s="3">
+        <v>2.2347999999999999</v>
+      </c>
+      <c r="G664" s="3">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A665" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B665" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C665" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D665" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E665" s="3">
+        <v>1</v>
+      </c>
+      <c r="F665" s="3">
+        <v>2.2991000000000001</v>
+      </c>
+      <c r="G665" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A666" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B666" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C666" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D666" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E666" s="3">
+        <v>5</v>
+      </c>
+      <c r="F666" s="3">
+        <v>2.7570000000000001</v>
+      </c>
+      <c r="G666" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A667" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B667" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C667" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D667" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E667" s="3">
+        <v>5</v>
+      </c>
+      <c r="F667" s="3">
+        <v>2.7241</v>
+      </c>
+      <c r="G667" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A668" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B668" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C668" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D668" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E668" s="3">
+        <v>5</v>
+      </c>
+      <c r="F668" s="3">
+        <v>2.6393</v>
+      </c>
+      <c r="G668" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A669" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B669" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C669" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D669" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E669" s="3">
+        <v>5</v>
+      </c>
+      <c r="F669" s="3">
+        <v>2.6069</v>
+      </c>
+      <c r="G669" s="3">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A670" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B670" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C670" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D670" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E670" s="3">
+        <v>5</v>
+      </c>
+      <c r="F670" s="3">
+        <v>2.5733000000000001</v>
+      </c>
+      <c r="G670" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A671" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B671" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C671" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D671" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E671" s="3">
+        <v>5</v>
+      </c>
+      <c r="F671" s="3">
+        <v>2.5194999999999999</v>
+      </c>
+      <c r="G671" s="3">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A672" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B672" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C672" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D672" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E672" s="3">
+        <v>5</v>
+      </c>
+      <c r="F672" s="3">
+        <v>2.4460000000000002</v>
+      </c>
+      <c r="G672" s="3">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A673" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B673" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C673" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D673" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E673" s="3">
+        <v>5</v>
+      </c>
+      <c r="F673" s="3">
+        <v>2.3193000000000001</v>
+      </c>
+      <c r="G673" s="3">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A674" s="3"/>
+      <c r="B674" s="2"/>
+      <c r="C674" s="3"/>
+      <c r="D674" s="3"/>
+      <c r="E674" s="3"/>
+    </row>
+    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A675" s="3"/>
+      <c r="B675" s="2"/>
+      <c r="C675" s="3"/>
+      <c r="D675" s="3"/>
+      <c r="E675" s="3"/>
+    </row>
+    <row r="676" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A676" s="3"/>
+      <c r="B676" s="2"/>
+      <c r="C676" s="3"/>
+      <c r="D676" s="3"/>
+      <c r="E676" s="3"/>
+    </row>
+    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A677" s="3"/>
+      <c r="B677" s="2"/>
+      <c r="C677" s="3"/>
+      <c r="D677" s="3"/>
+      <c r="E677" s="3"/>
+    </row>
+    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A678" s="3"/>
+      <c r="B678" s="2"/>
+      <c r="C678" s="3"/>
+      <c r="D678" s="3"/>
+      <c r="E678" s="3"/>
+    </row>
+    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A679" s="3"/>
+      <c r="B679" s="2"/>
+      <c r="C679" s="3"/>
+      <c r="D679" s="3"/>
+      <c r="E679" s="3"/>
+    </row>
+    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A680" s="3"/>
+      <c r="B680" s="2"/>
+      <c r="C680" s="3"/>
+      <c r="D680" s="3"/>
+      <c r="E680" s="3"/>
+    </row>
+    <row r="681" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A681" s="3"/>
+      <c r="B681" s="2"/>
+      <c r="C681" s="3"/>
+      <c r="D681" s="3"/>
+      <c r="E681" s="3"/>
+    </row>
+    <row r="682" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A682" s="3"/>
+      <c r="B682" s="2"/>
+      <c r="C682" s="3"/>
+      <c r="D682" s="3"/>
+      <c r="E682" s="3"/>
+    </row>
+    <row r="683" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A683" s="3"/>
+      <c r="B683" s="2"/>
+      <c r="C683" s="3"/>
+      <c r="D683" s="3"/>
+      <c r="E683" s="3"/>
+    </row>
+    <row r="684" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A684" s="3"/>
+      <c r="B684" s="2"/>
+      <c r="C684" s="3"/>
+      <c r="D684" s="3"/>
+      <c r="E684" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/raw_data/pv_curves.xlsx
+++ b/raw_data/pv_curves.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2384" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2385" uniqueCount="32">
   <si>
     <t>species</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>salpichlaena_volubilis</t>
+  </si>
+  <si>
+    <t>dry_mass_g</t>
   </si>
 </sst>
 </file>
@@ -479,11 +482,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O684"/>
+  <dimension ref="A1:P684"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A655" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L673" sqref="L673"/>
+      <pane ySplit="1" topLeftCell="A664" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C467" sqref="C467:D470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,7 +499,7 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -519,10 +522,13 @@
         <v>8</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -544,11 +550,11 @@
       <c r="G2" s="1">
         <v>2</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -570,11 +576,11 @@
       <c r="G3" s="1">
         <v>3.1</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -596,11 +602,11 @@
       <c r="G4" s="1">
         <v>3.3</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -622,11 +628,11 @@
       <c r="G5" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -648,11 +654,11 @@
       <c r="G6" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -674,11 +680,11 @@
       <c r="G7" s="1">
         <v>9.9</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -700,11 +706,11 @@
       <c r="G8" s="1">
         <v>7</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -726,11 +732,11 @@
       <c r="G9" s="1">
         <v>9.1999999999999993</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -752,11 +758,11 @@
       <c r="G10" s="1">
         <v>9.1</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -778,11 +784,11 @@
       <c r="G11" s="1">
         <v>9.1</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -804,11 +810,11 @@
       <c r="G12" s="1">
         <v>9</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -830,11 +836,11 @@
       <c r="G13" s="1">
         <v>9.5</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -856,11 +862,11 @@
       <c r="G14" s="1">
         <v>10</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -882,11 +888,11 @@
       <c r="G15" s="1">
         <v>11</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -908,11 +914,11 @@
       <c r="G16" s="1">
         <v>11.9</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -934,11 +940,11 @@
       <c r="G17" s="1">
         <v>11.9</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -960,11 +966,11 @@
       <c r="G18" s="1">
         <v>12.9</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -986,11 +992,11 @@
       <c r="G19" s="1">
         <v>5.5</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -1012,11 +1018,11 @@
       <c r="G20" s="1">
         <v>6.8</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -1038,11 +1044,11 @@
       <c r="G21" s="1">
         <v>7</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -1064,11 +1070,11 @@
       <c r="G22" s="1">
         <v>6.9</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -1090,11 +1096,11 @@
       <c r="G23" s="1">
         <v>7</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="I23" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
@@ -1116,11 +1122,11 @@
       <c r="G24" s="1">
         <v>7.7</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -1142,11 +1148,11 @@
       <c r="G25" s="1">
         <v>8.8000000000000007</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="I25" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
@@ -1168,11 +1174,11 @@
       <c r="G26" s="1">
         <v>9.9</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
@@ -1194,11 +1200,11 @@
       <c r="G27" s="1">
         <v>11</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="I27" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
@@ -1220,11 +1226,11 @@
       <c r="G28" s="1">
         <v>6.2</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="I28" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
@@ -1246,11 +1252,11 @@
       <c r="G29" s="1">
         <v>6.9</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
@@ -1272,11 +1278,11 @@
       <c r="G30" s="1">
         <v>7.1</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="I30" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
@@ -1298,11 +1304,11 @@
       <c r="G31" s="1">
         <v>7.2</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="I31" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
@@ -1324,11 +1330,11 @@
       <c r="G32" s="1">
         <v>7.3</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="I32" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -1350,11 +1356,11 @@
       <c r="G33" s="1">
         <v>7.9</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="I33" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -1376,11 +1382,11 @@
       <c r="G34" s="1">
         <v>8.1</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="I34" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>5</v>
       </c>
@@ -1402,11 +1408,11 @@
       <c r="G35" s="1">
         <v>9</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="I35" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
@@ -1428,11 +1434,11 @@
       <c r="G36" s="1">
         <v>7.2</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="I36" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
@@ -1454,11 +1460,11 @@
       <c r="G37" s="1">
         <v>8.3000000000000007</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="I37" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
@@ -1480,11 +1486,11 @@
       <c r="G38" s="1">
         <v>8.3000000000000007</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="I38" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>5</v>
       </c>
@@ -1506,11 +1512,11 @@
       <c r="G39" s="1">
         <v>9.9</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="I39" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>5</v>
       </c>
@@ -1532,11 +1538,11 @@
       <c r="G40" s="1">
         <v>10.199999999999999</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="I40" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>5</v>
       </c>
@@ -1558,11 +1564,11 @@
       <c r="G41" s="1">
         <v>11.1</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="I41" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>5</v>
       </c>
@@ -1584,11 +1590,11 @@
       <c r="G42" s="1">
         <v>13.1</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="I42" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
@@ -1610,11 +1616,11 @@
       <c r="G43" s="1">
         <v>13.9</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="I43" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>5</v>
       </c>
@@ -1636,11 +1642,11 @@
       <c r="G44" s="1">
         <v>5</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="I44" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>5</v>
       </c>
@@ -1662,11 +1668,11 @@
       <c r="G45" s="1">
         <v>5.5</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="I45" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>5</v>
       </c>
@@ -1688,11 +1694,11 @@
       <c r="G46" s="1">
         <v>6.1</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="I46" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>5</v>
       </c>
@@ -1714,11 +1720,11 @@
       <c r="G47" s="1">
         <v>6.5</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="I47" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>5</v>
       </c>
@@ -1740,11 +1746,11 @@
       <c r="G48" s="1">
         <v>6.5</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="I48" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>5</v>
       </c>
@@ -1766,11 +1772,11 @@
       <c r="G49" s="1">
         <v>6.9</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="I49" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>5</v>
       </c>
@@ -1792,11 +1798,11 @@
       <c r="G50" s="1">
         <v>6.9</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="I50" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>5</v>
       </c>
@@ -1818,11 +1824,11 @@
       <c r="G51" s="1">
         <v>8.9</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="I51" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>5</v>
       </c>
@@ -1844,11 +1850,11 @@
       <c r="G52" s="1">
         <v>9.4</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="I52" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>5</v>
       </c>
@@ -1870,11 +1876,11 @@
       <c r="G53" s="1">
         <v>9.4</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="I53" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>5</v>
       </c>
@@ -1896,11 +1902,11 @@
       <c r="G54" s="1">
         <v>11.9</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="I54" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>5</v>
       </c>
@@ -1922,11 +1928,11 @@
       <c r="G55" s="1">
         <v>3.9</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="I55" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>5</v>
       </c>
@@ -1948,11 +1954,11 @@
       <c r="G56" s="1">
         <v>4.8</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="I56" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>5</v>
       </c>
@@ -1974,11 +1980,11 @@
       <c r="G57" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="H57" s="3" t="s">
+      <c r="I57" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>5</v>
       </c>
@@ -2000,11 +2006,11 @@
       <c r="G58" s="1">
         <v>5.3</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="I58" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>5</v>
       </c>
@@ -2026,11 +2032,11 @@
       <c r="G59" s="1">
         <v>6.9</v>
       </c>
-      <c r="H59" s="3" t="s">
+      <c r="I59" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>5</v>
       </c>
@@ -2052,11 +2058,11 @@
       <c r="G60" s="1">
         <v>7.2</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="I60" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>5</v>
       </c>
@@ -2078,11 +2084,11 @@
       <c r="G61" s="1">
         <v>8.5</v>
       </c>
-      <c r="H61" s="3" t="s">
+      <c r="I61" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>5</v>
       </c>
@@ -2104,11 +2110,11 @@
       <c r="G62" s="1">
         <v>8.8000000000000007</v>
       </c>
-      <c r="H62" s="3" t="s">
+      <c r="I62" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>5</v>
       </c>
@@ -2130,11 +2136,11 @@
       <c r="G63" s="1">
         <v>11.1</v>
       </c>
-      <c r="H63" s="3" t="s">
+      <c r="I63" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>5</v>
       </c>
@@ -2156,11 +2162,11 @@
       <c r="G64" s="1">
         <v>2.9</v>
       </c>
-      <c r="H64" s="3" t="s">
+      <c r="I64" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>5</v>
       </c>
@@ -2182,11 +2188,11 @@
       <c r="G65" s="1">
         <v>3.9</v>
       </c>
-      <c r="H65" s="3" t="s">
+      <c r="I65" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>5</v>
       </c>
@@ -2208,11 +2214,11 @@
       <c r="G66" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="H66" s="3" t="s">
+      <c r="I66" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>5</v>
       </c>
@@ -2234,11 +2240,11 @@
       <c r="G67" s="1">
         <v>5.4</v>
       </c>
-      <c r="H67" s="3" t="s">
+      <c r="I67" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>5</v>
       </c>
@@ -2260,11 +2266,11 @@
       <c r="G68" s="1">
         <v>6.1</v>
       </c>
-      <c r="H68" s="3" t="s">
+      <c r="I68" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>5</v>
       </c>
@@ -2286,11 +2292,11 @@
       <c r="G69" s="1">
         <v>6.6</v>
       </c>
-      <c r="H69" s="3" t="s">
+      <c r="I69" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>5</v>
       </c>
@@ -2312,11 +2318,11 @@
       <c r="G70" s="1">
         <v>7</v>
       </c>
-      <c r="H70" s="3" t="s">
+      <c r="I70" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>5</v>
       </c>
@@ -2338,11 +2344,11 @@
       <c r="G71" s="1">
         <v>9.8000000000000007</v>
       </c>
-      <c r="H71" s="3" t="s">
+      <c r="I71" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>5</v>
       </c>
@@ -2364,11 +2370,11 @@
       <c r="G72" s="1">
         <v>10.8</v>
       </c>
-      <c r="H72" s="3" t="s">
+      <c r="I72" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>5</v>
       </c>
@@ -2390,11 +2396,12 @@
       <c r="G73" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H73" s="3" t="s">
+      <c r="H73" s="3"/>
+      <c r="I73" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>5</v>
       </c>
@@ -2416,11 +2423,12 @@
       <c r="G74" s="3">
         <v>2</v>
       </c>
-      <c r="H74" s="3" t="s">
+      <c r="H74" s="3"/>
+      <c r="I74" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>5</v>
       </c>
@@ -2442,11 +2450,12 @@
       <c r="G75" s="3">
         <v>3.8</v>
       </c>
-      <c r="H75" s="3" t="s">
+      <c r="H75" s="3"/>
+      <c r="I75" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>5</v>
       </c>
@@ -2468,11 +2477,12 @@
       <c r="G76" s="3">
         <v>6.1</v>
       </c>
-      <c r="H76" s="3" t="s">
+      <c r="H76" s="3"/>
+      <c r="I76" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>5</v>
       </c>
@@ -2494,11 +2504,12 @@
       <c r="G77" s="3">
         <v>9</v>
       </c>
-      <c r="H77" s="3" t="s">
+      <c r="H77" s="3"/>
+      <c r="I77" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>5</v>
       </c>
@@ -2520,11 +2531,12 @@
       <c r="G78" s="3">
         <v>11.2</v>
       </c>
-      <c r="H78" s="3" t="s">
+      <c r="H78" s="3"/>
+      <c r="I78" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>5</v>
       </c>
@@ -2546,11 +2558,12 @@
       <c r="G79" s="3">
         <v>13.5</v>
       </c>
-      <c r="H79" s="3" t="s">
+      <c r="H79" s="3"/>
+      <c r="I79" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>5</v>
       </c>
@@ -2572,11 +2585,12 @@
       <c r="G80" s="3">
         <v>14</v>
       </c>
-      <c r="H80" s="3" t="s">
+      <c r="H80" s="3"/>
+      <c r="I80" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>5</v>
       </c>
@@ -2598,11 +2612,12 @@
       <c r="G81" s="3">
         <v>15.8</v>
       </c>
-      <c r="H81" s="3" t="s">
+      <c r="H81" s="3"/>
+      <c r="I81" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>5</v>
       </c>
@@ -2624,11 +2639,12 @@
       <c r="G82" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H82" s="3" t="s">
+      <c r="H82" s="3"/>
+      <c r="I82" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>5</v>
       </c>
@@ -2650,11 +2666,12 @@
       <c r="G83" s="3">
         <v>3.5</v>
       </c>
-      <c r="H83" s="3" t="s">
+      <c r="H83" s="3"/>
+      <c r="I83" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>5</v>
       </c>
@@ -2676,11 +2693,12 @@
       <c r="G84" s="3">
         <v>6</v>
       </c>
-      <c r="H84" s="3" t="s">
+      <c r="H84" s="3"/>
+      <c r="I84" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>5</v>
       </c>
@@ -2702,11 +2720,12 @@
       <c r="G85" s="3">
         <v>9</v>
       </c>
-      <c r="H85" s="3" t="s">
+      <c r="H85" s="3"/>
+      <c r="I85" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>5</v>
       </c>
@@ -2728,11 +2747,12 @@
       <c r="G86" s="3">
         <v>10.5</v>
       </c>
-      <c r="H86" s="3" t="s">
+      <c r="H86" s="3"/>
+      <c r="I86" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>5</v>
       </c>
@@ -2754,11 +2774,12 @@
       <c r="G87" s="3">
         <v>11.8</v>
       </c>
-      <c r="H87" s="3" t="s">
+      <c r="H87" s="3"/>
+      <c r="I87" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>5</v>
       </c>
@@ -2780,11 +2801,12 @@
       <c r="G88" s="3">
         <v>13</v>
       </c>
-      <c r="H88" s="3" t="s">
+      <c r="H88" s="3"/>
+      <c r="I88" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>5</v>
       </c>
@@ -2806,11 +2828,12 @@
       <c r="G89" s="3">
         <v>14</v>
       </c>
-      <c r="H89" s="3" t="s">
+      <c r="H89" s="3"/>
+      <c r="I89" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>5</v>
       </c>
@@ -2832,11 +2855,12 @@
       <c r="G90" s="3">
         <v>14.8</v>
       </c>
-      <c r="H90" s="3" t="s">
+      <c r="H90" s="3"/>
+      <c r="I90" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>5</v>
       </c>
@@ -2858,11 +2882,12 @@
       <c r="G91" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H91" s="3" t="s">
+      <c r="H91" s="3"/>
+      <c r="I91" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>5</v>
       </c>
@@ -2884,11 +2909,12 @@
       <c r="G92" s="3">
         <v>3</v>
       </c>
-      <c r="H92" s="3" t="s">
+      <c r="H92" s="3"/>
+      <c r="I92" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>5</v>
       </c>
@@ -2910,11 +2936,12 @@
       <c r="G93" s="3">
         <v>8.8000000000000007</v>
       </c>
-      <c r="H93" s="3" t="s">
+      <c r="H93" s="3"/>
+      <c r="I93" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>5</v>
       </c>
@@ -2936,11 +2963,12 @@
       <c r="G94" s="3">
         <v>11.1</v>
       </c>
-      <c r="H94" s="3" t="s">
+      <c r="H94" s="3"/>
+      <c r="I94" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>5</v>
       </c>
@@ -2962,11 +2990,12 @@
       <c r="G95" s="3">
         <v>12.4</v>
       </c>
-      <c r="H95" s="3" t="s">
+      <c r="H95" s="3"/>
+      <c r="I95" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>5</v>
       </c>
@@ -2988,11 +3017,12 @@
       <c r="G96" s="3">
         <v>14.1</v>
       </c>
-      <c r="H96" s="3" t="s">
+      <c r="H96" s="3"/>
+      <c r="I96" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>5</v>
       </c>
@@ -3014,11 +3044,12 @@
       <c r="G97" s="3">
         <v>14.2</v>
       </c>
-      <c r="H97" s="3" t="s">
+      <c r="H97" s="3"/>
+      <c r="I97" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>5</v>
       </c>
@@ -3040,11 +3071,12 @@
       <c r="G98" s="3">
         <v>14.9</v>
       </c>
-      <c r="H98" s="3" t="s">
+      <c r="H98" s="3"/>
+      <c r="I98" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>5</v>
       </c>
@@ -3066,11 +3098,12 @@
       <c r="G99" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H99" s="3" t="s">
+      <c r="H99" s="3"/>
+      <c r="I99" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>5</v>
       </c>
@@ -3092,11 +3125,12 @@
       <c r="G100" s="3">
         <v>3</v>
       </c>
-      <c r="H100" s="3" t="s">
+      <c r="H100" s="3"/>
+      <c r="I100" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>5</v>
       </c>
@@ -3118,11 +3152,12 @@
       <c r="G101" s="3">
         <v>6</v>
       </c>
-      <c r="H101" s="3" t="s">
+      <c r="H101" s="3"/>
+      <c r="I101" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>5</v>
       </c>
@@ -3144,11 +3179,12 @@
       <c r="G102" s="3">
         <v>10.199999999999999</v>
       </c>
-      <c r="H102" s="3" t="s">
+      <c r="H102" s="3"/>
+      <c r="I102" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>5</v>
       </c>
@@ -3170,11 +3206,12 @@
       <c r="G103" s="3">
         <v>12.5</v>
       </c>
-      <c r="H103" s="3" t="s">
+      <c r="H103" s="3"/>
+      <c r="I103" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>5</v>
       </c>
@@ -3196,11 +3233,12 @@
       <c r="G104" s="3">
         <v>14.1</v>
       </c>
-      <c r="H104" s="3" t="s">
+      <c r="H104" s="3"/>
+      <c r="I104" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>5</v>
       </c>
@@ -3222,11 +3260,12 @@
       <c r="G105" s="3">
         <v>15.9</v>
       </c>
-      <c r="H105" s="3" t="s">
+      <c r="H105" s="3"/>
+      <c r="I105" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>5</v>
       </c>
@@ -3248,11 +3287,12 @@
       <c r="G106" s="3">
         <v>17</v>
       </c>
-      <c r="H106" s="3" t="s">
+      <c r="H106" s="3"/>
+      <c r="I106" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>5</v>
       </c>
@@ -3274,11 +3314,12 @@
       <c r="G107" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H107" s="3" t="s">
+      <c r="H107" s="3"/>
+      <c r="I107" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>5</v>
       </c>
@@ -3300,11 +3341,12 @@
       <c r="G108" s="3">
         <v>3.8</v>
       </c>
-      <c r="H108" s="3" t="s">
+      <c r="H108" s="3"/>
+      <c r="I108" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>5</v>
       </c>
@@ -3326,11 +3368,12 @@
       <c r="G109" s="3">
         <v>7.5</v>
       </c>
-      <c r="H109" s="3" t="s">
+      <c r="H109" s="3"/>
+      <c r="I109" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>5</v>
       </c>
@@ -3352,11 +3395,12 @@
       <c r="G110" s="3">
         <v>8.1999999999999993</v>
       </c>
-      <c r="H110" s="3" t="s">
+      <c r="H110" s="3"/>
+      <c r="I110" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>5</v>
       </c>
@@ -3378,11 +3422,12 @@
       <c r="G111" s="3">
         <v>9.6</v>
       </c>
-      <c r="H111" s="3" t="s">
+      <c r="H111" s="3"/>
+      <c r="I111" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>5</v>
       </c>
@@ -3404,11 +3449,12 @@
       <c r="G112" s="3">
         <v>10.4</v>
       </c>
-      <c r="H112" s="3" t="s">
+      <c r="H112" s="3"/>
+      <c r="I112" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>5</v>
       </c>
@@ -3430,11 +3476,12 @@
       <c r="G113" s="3">
         <v>11</v>
       </c>
-      <c r="H113" s="3" t="s">
+      <c r="H113" s="3"/>
+      <c r="I113" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>5</v>
       </c>
@@ -3456,11 +3503,12 @@
       <c r="G114" s="3">
         <v>11.8</v>
       </c>
-      <c r="H114" s="3" t="s">
+      <c r="H114" s="3"/>
+      <c r="I114" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>5</v>
       </c>
@@ -3482,11 +3530,12 @@
       <c r="G115" s="3">
         <v>12.7</v>
       </c>
-      <c r="H115" s="3" t="s">
+      <c r="H115" s="3"/>
+      <c r="I115" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>5</v>
       </c>
@@ -3508,11 +3557,12 @@
       <c r="G116" s="3">
         <v>18</v>
       </c>
-      <c r="H116" s="3" t="s">
+      <c r="H116" s="3"/>
+      <c r="I116" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>5</v>
       </c>
@@ -3534,11 +3584,12 @@
       <c r="G117" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H117" s="3" t="s">
+      <c r="H117" s="3"/>
+      <c r="I117" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>5</v>
       </c>
@@ -3560,11 +3611,12 @@
       <c r="G118" s="3">
         <v>3.2</v>
       </c>
-      <c r="H118" s="3" t="s">
+      <c r="H118" s="3"/>
+      <c r="I118" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>5</v>
       </c>
@@ -3586,11 +3638,12 @@
       <c r="G119" s="3">
         <v>11</v>
       </c>
-      <c r="H119" s="3" t="s">
+      <c r="H119" s="3"/>
+      <c r="I119" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>5</v>
       </c>
@@ -3612,11 +3665,12 @@
       <c r="G120" s="3">
         <v>9.9</v>
       </c>
-      <c r="H120" s="3" t="s">
+      <c r="H120" s="3"/>
+      <c r="I120" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>5</v>
       </c>
@@ -3638,11 +3692,12 @@
       <c r="G121" s="3">
         <v>12.1</v>
       </c>
-      <c r="H121" s="3" t="s">
+      <c r="H121" s="3"/>
+      <c r="I121" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>5</v>
       </c>
@@ -3664,11 +3719,12 @@
       <c r="G122" s="3">
         <v>12.4</v>
       </c>
-      <c r="H122" s="3" t="s">
+      <c r="H122" s="3"/>
+      <c r="I122" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>5</v>
       </c>
@@ -3690,11 +3746,12 @@
       <c r="G123" s="3">
         <v>13.5</v>
       </c>
-      <c r="H123" s="3" t="s">
+      <c r="H123" s="3"/>
+      <c r="I123" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>5</v>
       </c>
@@ -3716,11 +3773,12 @@
       <c r="G124" s="3">
         <v>14.2</v>
       </c>
-      <c r="H124" s="3" t="s">
+      <c r="H124" s="3"/>
+      <c r="I124" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>5</v>
       </c>
@@ -3742,11 +3800,12 @@
       <c r="G125" s="3">
         <v>16.100000000000001</v>
       </c>
-      <c r="H125" s="3" t="s">
+      <c r="H125" s="3"/>
+      <c r="I125" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>5</v>
       </c>
@@ -3768,11 +3827,12 @@
       <c r="G126" s="3">
         <v>17.100000000000001</v>
       </c>
-      <c r="H126" s="3" t="s">
+      <c r="H126" s="3"/>
+      <c r="I126" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>5</v>
       </c>
@@ -3794,11 +3854,14 @@
       <c r="G127" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H127" s="3" t="s">
+      <c r="H127" s="3">
+        <v>0.46139999999999998</v>
+      </c>
+      <c r="I127" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>5</v>
       </c>
@@ -3820,11 +3883,14 @@
       <c r="G128" s="3">
         <v>3.2</v>
       </c>
-      <c r="H128" s="3" t="s">
+      <c r="H128" s="3">
+        <v>0.46139999999999998</v>
+      </c>
+      <c r="I128" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>5</v>
       </c>
@@ -3846,11 +3912,14 @@
       <c r="G129" s="3">
         <v>9.1</v>
       </c>
-      <c r="H129" s="3" t="s">
+      <c r="H129" s="3">
+        <v>0.46139999999999998</v>
+      </c>
+      <c r="I129" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>5</v>
       </c>
@@ -3872,11 +3941,14 @@
       <c r="G130" s="3">
         <v>11.8</v>
       </c>
-      <c r="H130" s="3" t="s">
+      <c r="H130" s="3">
+        <v>0.46139999999999998</v>
+      </c>
+      <c r="I130" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>5</v>
       </c>
@@ -3898,11 +3970,14 @@
       <c r="G131" s="3">
         <v>12.2</v>
       </c>
-      <c r="H131" s="3" t="s">
+      <c r="H131" s="3">
+        <v>0.46139999999999998</v>
+      </c>
+      <c r="I131" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>5</v>
       </c>
@@ -3924,11 +3999,14 @@
       <c r="G132" s="3">
         <v>13.8</v>
       </c>
-      <c r="H132" s="3" t="s">
+      <c r="H132" s="3">
+        <v>0.46139999999999998</v>
+      </c>
+      <c r="I132" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>5</v>
       </c>
@@ -3950,11 +4028,14 @@
       <c r="G133" s="3">
         <v>15</v>
       </c>
-      <c r="H133" s="3" t="s">
+      <c r="H133" s="3">
+        <v>0.46139999999999998</v>
+      </c>
+      <c r="I133" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>5</v>
       </c>
@@ -3976,11 +4057,14 @@
       <c r="G134" s="3">
         <v>19</v>
       </c>
-      <c r="H134" s="3" t="s">
+      <c r="H134" s="3">
+        <v>0.46139999999999998</v>
+      </c>
+      <c r="I134" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>5</v>
       </c>
@@ -4002,11 +4086,14 @@
       <c r="G135" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H135" s="3" t="s">
+      <c r="H135" s="3">
+        <v>0.59360000000000002</v>
+      </c>
+      <c r="I135" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>5</v>
       </c>
@@ -4028,11 +4115,14 @@
       <c r="G136" s="3">
         <v>2.8</v>
       </c>
-      <c r="H136" s="3" t="s">
+      <c r="H136" s="3">
+        <v>0.59360000000000002</v>
+      </c>
+      <c r="I136" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>5</v>
       </c>
@@ -4054,11 +4144,14 @@
       <c r="G137" s="3">
         <v>4.9000000000000004</v>
       </c>
-      <c r="H137" s="3" t="s">
+      <c r="H137" s="3">
+        <v>0.59360000000000002</v>
+      </c>
+      <c r="I137" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>5</v>
       </c>
@@ -4080,11 +4173,14 @@
       <c r="G138" s="3">
         <v>6.1</v>
       </c>
-      <c r="H138" s="3" t="s">
+      <c r="H138" s="3">
+        <v>0.59360000000000002</v>
+      </c>
+      <c r="I138" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>5</v>
       </c>
@@ -4106,11 +4202,14 @@
       <c r="G139" s="3">
         <v>11</v>
       </c>
-      <c r="H139" s="3" t="s">
+      <c r="H139" s="3">
+        <v>0.59360000000000002</v>
+      </c>
+      <c r="I139" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>5</v>
       </c>
@@ -4132,11 +4231,14 @@
       <c r="G140" s="3">
         <v>13.1</v>
       </c>
-      <c r="H140" s="3" t="s">
+      <c r="H140" s="3">
+        <v>0.59360000000000002</v>
+      </c>
+      <c r="I140" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>5</v>
       </c>
@@ -4158,11 +4260,14 @@
       <c r="G141" s="3">
         <v>14.8</v>
       </c>
-      <c r="H141" s="3" t="s">
+      <c r="H141" s="3">
+        <v>0.59360000000000002</v>
+      </c>
+      <c r="I141" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>5</v>
       </c>
@@ -4184,11 +4289,14 @@
       <c r="G142" s="3">
         <v>16.8</v>
       </c>
-      <c r="H142" s="3" t="s">
+      <c r="H142" s="3">
+        <v>0.59360000000000002</v>
+      </c>
+      <c r="I142" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>5</v>
       </c>
@@ -4210,11 +4318,14 @@
       <c r="G143" s="3">
         <v>20.100000000000001</v>
       </c>
-      <c r="H143" s="3" t="s">
+      <c r="H143" s="3">
+        <v>0.59360000000000002</v>
+      </c>
+      <c r="I143" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>5</v>
       </c>
@@ -4236,11 +4347,14 @@
       <c r="G144" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H144" s="3" t="s">
+      <c r="H144" s="3">
+        <v>0.59909999999999997</v>
+      </c>
+      <c r="I144" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>5</v>
       </c>
@@ -4262,11 +4376,14 @@
       <c r="G145" s="3">
         <v>2.9</v>
       </c>
-      <c r="H145" s="3" t="s">
+      <c r="H145" s="3">
+        <v>0.59909999999999997</v>
+      </c>
+      <c r="I145" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>5</v>
       </c>
@@ -4288,11 +4405,14 @@
       <c r="G146" s="3">
         <v>8.6999999999999993</v>
       </c>
-      <c r="H146" s="3" t="s">
+      <c r="H146" s="3">
+        <v>0.59909999999999997</v>
+      </c>
+      <c r="I146" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>5</v>
       </c>
@@ -4314,11 +4434,14 @@
       <c r="G147" s="3">
         <v>10</v>
       </c>
-      <c r="H147" s="3" t="s">
+      <c r="H147" s="3">
+        <v>0.59909999999999997</v>
+      </c>
+      <c r="I147" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>5</v>
       </c>
@@ -4340,11 +4463,14 @@
       <c r="G148" s="3">
         <v>11.9</v>
       </c>
-      <c r="H148" s="3" t="s">
+      <c r="H148" s="3">
+        <v>0.59909999999999997</v>
+      </c>
+      <c r="I148" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>5</v>
       </c>
@@ -4366,11 +4492,14 @@
       <c r="G149" s="3">
         <v>12.1</v>
       </c>
-      <c r="H149" s="3" t="s">
+      <c r="H149" s="3">
+        <v>0.59909999999999997</v>
+      </c>
+      <c r="I149" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>5</v>
       </c>
@@ -4392,11 +4521,14 @@
       <c r="G150" s="3">
         <v>14</v>
       </c>
-      <c r="H150" s="3" t="s">
+      <c r="H150" s="3">
+        <v>0.59909999999999997</v>
+      </c>
+      <c r="I150" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>5</v>
       </c>
@@ -4418,11 +4550,14 @@
       <c r="G151" s="3">
         <v>14</v>
       </c>
-      <c r="H151" s="3" t="s">
+      <c r="H151" s="3">
+        <v>0.59909999999999997</v>
+      </c>
+      <c r="I151" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>5</v>
       </c>
@@ -4444,11 +4579,14 @@
       <c r="G152" s="3">
         <v>16</v>
       </c>
-      <c r="H152" s="3" t="s">
+      <c r="H152" s="3">
+        <v>0.59909999999999997</v>
+      </c>
+      <c r="I152" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>5</v>
       </c>
@@ -4470,11 +4608,14 @@
       <c r="G153" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H153" s="3" t="s">
+      <c r="H153" s="3">
+        <v>0.49630000000000002</v>
+      </c>
+      <c r="I153" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>5</v>
       </c>
@@ -4496,11 +4637,14 @@
       <c r="G154" s="3">
         <v>5</v>
       </c>
-      <c r="H154" s="3" t="s">
+      <c r="H154" s="3">
+        <v>0.49630000000000002</v>
+      </c>
+      <c r="I154" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>5</v>
       </c>
@@ -4522,11 +4666,14 @@
       <c r="G155" s="3">
         <v>7.2</v>
       </c>
-      <c r="H155" s="3" t="s">
+      <c r="H155" s="3">
+        <v>0.49630000000000002</v>
+      </c>
+      <c r="I155" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>5</v>
       </c>
@@ -4548,11 +4695,14 @@
       <c r="G156" s="3">
         <v>10.9</v>
       </c>
-      <c r="H156" s="3" t="s">
+      <c r="H156" s="3">
+        <v>0.49630000000000002</v>
+      </c>
+      <c r="I156" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>5</v>
       </c>
@@ -4574,11 +4724,14 @@
       <c r="G157" s="3">
         <v>11.8</v>
       </c>
-      <c r="H157" s="3" t="s">
+      <c r="H157" s="3">
+        <v>0.49630000000000002</v>
+      </c>
+      <c r="I157" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>5</v>
       </c>
@@ -4600,11 +4753,14 @@
       <c r="G158" s="3">
         <v>12</v>
       </c>
-      <c r="H158" s="3" t="s">
+      <c r="H158" s="3">
+        <v>0.49630000000000002</v>
+      </c>
+      <c r="I158" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>5</v>
       </c>
@@ -4626,11 +4782,14 @@
       <c r="G159" s="3">
         <v>12</v>
       </c>
-      <c r="H159" s="3" t="s">
+      <c r="H159" s="3">
+        <v>0.49630000000000002</v>
+      </c>
+      <c r="I159" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>5</v>
       </c>
@@ -4652,11 +4811,14 @@
       <c r="G160" s="3">
         <v>14</v>
       </c>
-      <c r="H160" s="3" t="s">
+      <c r="H160" s="3">
+        <v>0.49630000000000002</v>
+      </c>
+      <c r="I160" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>5</v>
       </c>
@@ -4678,11 +4840,14 @@
       <c r="G161" s="3">
         <v>18.5</v>
       </c>
-      <c r="H161" s="3" t="s">
+      <c r="H161" s="3">
+        <v>0.49630000000000002</v>
+      </c>
+      <c r="I161" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>5</v>
       </c>
@@ -4704,11 +4869,14 @@
       <c r="G162" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H162" s="3" t="s">
+      <c r="H162" s="3">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="I162" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>5</v>
       </c>
@@ -4730,11 +4898,14 @@
       <c r="G163" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H163" s="3" t="s">
+      <c r="H163" s="3">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="I163" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>5</v>
       </c>
@@ -4756,11 +4927,14 @@
       <c r="G164" s="3">
         <v>3.4</v>
       </c>
-      <c r="H164" s="3" t="s">
+      <c r="H164" s="3">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="I164" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>5</v>
       </c>
@@ -4782,11 +4956,14 @@
       <c r="G165" s="3">
         <v>12.4</v>
       </c>
-      <c r="H165" s="3" t="s">
+      <c r="H165" s="3">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="I165" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>5</v>
       </c>
@@ -4808,11 +4985,14 @@
       <c r="G166" s="3">
         <v>12.5</v>
       </c>
-      <c r="H166" s="3" t="s">
+      <c r="H166" s="3">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="I166" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>5</v>
       </c>
@@ -4834,11 +5014,14 @@
       <c r="G167" s="3">
         <v>13</v>
       </c>
-      <c r="H167" s="3" t="s">
+      <c r="H167" s="3">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="I167" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>5</v>
       </c>
@@ -4860,11 +5043,14 @@
       <c r="G168" s="3">
         <v>13.1</v>
       </c>
-      <c r="H168" s="3" t="s">
+      <c r="H168" s="3">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="I168" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>5</v>
       </c>
@@ -4886,11 +5072,14 @@
       <c r="G169" s="3">
         <v>17</v>
       </c>
-      <c r="H169" s="3" t="s">
+      <c r="H169" s="3">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="I169" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>5</v>
       </c>
@@ -4912,11 +5101,14 @@
       <c r="G170" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H170" s="3" t="s">
+      <c r="H170" s="3">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="I170" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>5</v>
       </c>
@@ -4938,11 +5130,14 @@
       <c r="G171" s="3">
         <v>4.9000000000000004</v>
       </c>
-      <c r="H171" s="3" t="s">
+      <c r="H171" s="3">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="I171" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>5</v>
       </c>
@@ -4964,11 +5159,14 @@
       <c r="G172" s="3">
         <v>8.1999999999999993</v>
       </c>
-      <c r="H172" s="3" t="s">
+      <c r="H172" s="3">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="I172" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>5</v>
       </c>
@@ -4990,11 +5188,14 @@
       <c r="G173" s="3">
         <v>11.1</v>
       </c>
-      <c r="H173" s="3" t="s">
+      <c r="H173" s="3">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="I173" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>5</v>
       </c>
@@ -5016,11 +5217,14 @@
       <c r="G174" s="3">
         <v>12.1</v>
       </c>
-      <c r="H174" s="3" t="s">
+      <c r="H174" s="3">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="I174" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>5</v>
       </c>
@@ -5042,11 +5246,14 @@
       <c r="G175" s="3">
         <v>14.1</v>
       </c>
-      <c r="H175" s="3" t="s">
+      <c r="H175" s="3">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="I175" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>5</v>
       </c>
@@ -5068,11 +5275,14 @@
       <c r="G176" s="3">
         <v>16.7</v>
       </c>
-      <c r="H176" s="3" t="s">
+      <c r="H176" s="3">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="I176" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>5</v>
       </c>
@@ -5094,11 +5304,14 @@
       <c r="G177" s="3">
         <v>19</v>
       </c>
-      <c r="H177" s="3" t="s">
+      <c r="H177" s="3">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="I177" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>5</v>
       </c>
@@ -5120,11 +5333,12 @@
       <c r="G178" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H178" s="3" t="s">
+      <c r="H178" s="3"/>
+      <c r="I178" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>5</v>
       </c>
@@ -5146,11 +5360,12 @@
       <c r="G179" s="3">
         <v>2</v>
       </c>
-      <c r="H179" s="3" t="s">
+      <c r="H179" s="3"/>
+      <c r="I179" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>5</v>
       </c>
@@ -5172,11 +5387,12 @@
       <c r="G180" s="3">
         <v>3.8</v>
       </c>
-      <c r="H180" s="3" t="s">
+      <c r="H180" s="3"/>
+      <c r="I180" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>5</v>
       </c>
@@ -5198,11 +5414,12 @@
       <c r="G181" s="3">
         <v>6.1</v>
       </c>
-      <c r="H181" s="3" t="s">
+      <c r="H181" s="3"/>
+      <c r="I181" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>5</v>
       </c>
@@ -5224,11 +5441,12 @@
       <c r="G182" s="3">
         <v>9</v>
       </c>
-      <c r="H182" s="3" t="s">
+      <c r="H182" s="3"/>
+      <c r="I182" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>5</v>
       </c>
@@ -5250,11 +5468,12 @@
       <c r="G183" s="3">
         <v>11.2</v>
       </c>
-      <c r="H183" s="3" t="s">
+      <c r="H183" s="3"/>
+      <c r="I183" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>5</v>
       </c>
@@ -5276,11 +5495,12 @@
       <c r="G184" s="3">
         <v>13.5</v>
       </c>
-      <c r="H184" s="3" t="s">
+      <c r="H184" s="3"/>
+      <c r="I184" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>5</v>
       </c>
@@ -5302,11 +5522,12 @@
       <c r="G185" s="3">
         <v>14</v>
       </c>
-      <c r="H185" s="3" t="s">
+      <c r="H185" s="3"/>
+      <c r="I185" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>5</v>
       </c>
@@ -5328,11 +5549,12 @@
       <c r="G186" s="3">
         <v>158</v>
       </c>
-      <c r="H186" s="3" t="s">
+      <c r="H186" s="3"/>
+      <c r="I186" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>5</v>
       </c>
@@ -5354,11 +5576,12 @@
       <c r="G187" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H187" s="3" t="s">
+      <c r="H187" s="3"/>
+      <c r="I187" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>5</v>
       </c>
@@ -5380,11 +5603,12 @@
       <c r="G188" s="3">
         <v>3.5</v>
       </c>
-      <c r="H188" s="3" t="s">
+      <c r="H188" s="3"/>
+      <c r="I188" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>5</v>
       </c>
@@ -5406,11 +5630,12 @@
       <c r="G189" s="3">
         <v>6</v>
       </c>
-      <c r="H189" s="3" t="s">
+      <c r="H189" s="3"/>
+      <c r="I189" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>5</v>
       </c>
@@ -5432,11 +5657,12 @@
       <c r="G190" s="3">
         <v>9</v>
       </c>
-      <c r="H190" s="3" t="s">
+      <c r="H190" s="3"/>
+      <c r="I190" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>5</v>
       </c>
@@ -5458,11 +5684,12 @@
       <c r="G191" s="3">
         <v>10.5</v>
       </c>
-      <c r="H191" s="3" t="s">
+      <c r="H191" s="3"/>
+      <c r="I191" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>5</v>
       </c>
@@ -5484,11 +5711,12 @@
       <c r="G192" s="3">
         <v>11.8</v>
       </c>
-      <c r="H192" s="3" t="s">
+      <c r="H192" s="3"/>
+      <c r="I192" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>5</v>
       </c>
@@ -5510,11 +5738,12 @@
       <c r="G193" s="3">
         <v>13</v>
       </c>
-      <c r="H193" s="3" t="s">
+      <c r="H193" s="3"/>
+      <c r="I193" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>5</v>
       </c>
@@ -5536,11 +5765,12 @@
       <c r="G194" s="3">
         <v>14</v>
       </c>
-      <c r="H194" s="3" t="s">
+      <c r="H194" s="3"/>
+      <c r="I194" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>5</v>
       </c>
@@ -5562,11 +5792,12 @@
       <c r="G195" s="3">
         <v>14.8</v>
       </c>
-      <c r="H195" s="3" t="s">
+      <c r="H195" s="3"/>
+      <c r="I195" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>5</v>
       </c>
@@ -5588,11 +5819,12 @@
       <c r="G196" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H196" s="3" t="s">
+      <c r="H196" s="3"/>
+      <c r="I196" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>5</v>
       </c>
@@ -5614,11 +5846,12 @@
       <c r="G197" s="3">
         <v>3</v>
       </c>
-      <c r="H197" s="3" t="s">
+      <c r="H197" s="3"/>
+      <c r="I197" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>5</v>
       </c>
@@ -5640,11 +5873,12 @@
       <c r="G198" s="3">
         <v>8.8000000000000007</v>
       </c>
-      <c r="H198" s="3" t="s">
+      <c r="H198" s="3"/>
+      <c r="I198" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>5</v>
       </c>
@@ -5666,11 +5900,12 @@
       <c r="G199" s="3">
         <v>11.1</v>
       </c>
-      <c r="H199" s="3" t="s">
+      <c r="H199" s="3"/>
+      <c r="I199" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>5</v>
       </c>
@@ -5692,11 +5927,12 @@
       <c r="G200" s="3">
         <v>12.4</v>
       </c>
-      <c r="H200" s="3" t="s">
+      <c r="H200" s="3"/>
+      <c r="I200" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>5</v>
       </c>
@@ -5718,11 +5954,12 @@
       <c r="G201" s="3">
         <v>14.1</v>
       </c>
-      <c r="H201" s="3" t="s">
+      <c r="H201" s="3"/>
+      <c r="I201" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>5</v>
       </c>
@@ -5744,11 +5981,12 @@
       <c r="G202" s="3">
         <v>14.2</v>
       </c>
-      <c r="H202" s="3" t="s">
+      <c r="H202" s="3"/>
+      <c r="I202" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>5</v>
       </c>
@@ -5770,11 +6008,12 @@
       <c r="G203" s="3">
         <v>14.9</v>
       </c>
-      <c r="H203" s="3" t="s">
+      <c r="H203" s="3"/>
+      <c r="I203" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>5</v>
       </c>
@@ -5796,11 +6035,12 @@
       <c r="G204" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H204" s="3" t="s">
+      <c r="H204" s="3"/>
+      <c r="I204" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>5</v>
       </c>
@@ -5822,11 +6062,12 @@
       <c r="G205" s="3">
         <v>3</v>
       </c>
-      <c r="H205" s="3" t="s">
+      <c r="H205" s="3"/>
+      <c r="I205" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>5</v>
       </c>
@@ -5848,11 +6089,12 @@
       <c r="G206" s="3">
         <v>6</v>
       </c>
-      <c r="H206" s="3" t="s">
+      <c r="H206" s="3"/>
+      <c r="I206" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>5</v>
       </c>
@@ -5874,11 +6116,12 @@
       <c r="G207" s="3">
         <v>10.199999999999999</v>
       </c>
-      <c r="H207" s="3" t="s">
+      <c r="H207" s="3"/>
+      <c r="I207" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>5</v>
       </c>
@@ -5900,11 +6143,12 @@
       <c r="G208" s="3">
         <v>12.5</v>
       </c>
-      <c r="H208" s="3" t="s">
+      <c r="H208" s="3"/>
+      <c r="I208" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>5</v>
       </c>
@@ -5926,11 +6170,12 @@
       <c r="G209" s="3">
         <v>14.1</v>
       </c>
-      <c r="H209" s="3" t="s">
+      <c r="H209" s="3"/>
+      <c r="I209" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>5</v>
       </c>
@@ -5952,11 +6197,12 @@
       <c r="G210" s="3">
         <v>15.9</v>
       </c>
-      <c r="H210" s="3" t="s">
+      <c r="H210" s="3"/>
+      <c r="I210" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>5</v>
       </c>
@@ -5978,11 +6224,12 @@
       <c r="G211" s="3">
         <v>17</v>
       </c>
-      <c r="H211" s="3" t="s">
+      <c r="H211" s="3"/>
+      <c r="I211" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>5</v>
       </c>
@@ -6004,11 +6251,12 @@
       <c r="G212" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H212" s="3" t="s">
+      <c r="H212" s="3"/>
+      <c r="I212" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>5</v>
       </c>
@@ -6030,11 +6278,12 @@
       <c r="G213" s="3">
         <v>3.8</v>
       </c>
-      <c r="H213" s="3" t="s">
+      <c r="H213" s="3"/>
+      <c r="I213" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>5</v>
       </c>
@@ -6056,11 +6305,12 @@
       <c r="G214" s="3">
         <v>7.5</v>
       </c>
-      <c r="H214" s="3" t="s">
+      <c r="H214" s="3"/>
+      <c r="I214" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>5</v>
       </c>
@@ -6082,11 +6332,12 @@
       <c r="G215" s="3">
         <v>8.1999999999999993</v>
       </c>
-      <c r="H215" s="3" t="s">
+      <c r="H215" s="3"/>
+      <c r="I215" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>5</v>
       </c>
@@ -6108,11 +6359,12 @@
       <c r="G216" s="3">
         <v>9.6</v>
       </c>
-      <c r="H216" s="3" t="s">
+      <c r="H216" s="3"/>
+      <c r="I216" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>5</v>
       </c>
@@ -6134,11 +6386,12 @@
       <c r="G217" s="3">
         <v>10.4</v>
       </c>
-      <c r="H217" s="3" t="s">
+      <c r="H217" s="3"/>
+      <c r="I217" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>5</v>
       </c>
@@ -6160,11 +6413,12 @@
       <c r="G218" s="3">
         <v>11</v>
       </c>
-      <c r="H218" s="3" t="s">
+      <c r="H218" s="3"/>
+      <c r="I218" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>5</v>
       </c>
@@ -6186,11 +6440,12 @@
       <c r="G219" s="3">
         <v>11.8</v>
       </c>
-      <c r="H219" s="3" t="s">
+      <c r="H219" s="3"/>
+      <c r="I219" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>5</v>
       </c>
@@ -6212,11 +6467,12 @@
       <c r="G220" s="3">
         <v>12.7</v>
       </c>
-      <c r="H220" s="3" t="s">
+      <c r="H220" s="3"/>
+      <c r="I220" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>5</v>
       </c>
@@ -6238,11 +6494,12 @@
       <c r="G221" s="3">
         <v>18</v>
       </c>
-      <c r="H221" s="3" t="s">
+      <c r="H221" s="3"/>
+      <c r="I221" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>5</v>
       </c>
@@ -6264,11 +6521,12 @@
       <c r="G222" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H222" s="3" t="s">
+      <c r="H222" s="3"/>
+      <c r="I222" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>5</v>
       </c>
@@ -6290,11 +6548,12 @@
       <c r="G223" s="3">
         <v>3.2</v>
       </c>
-      <c r="H223" s="3" t="s">
+      <c r="H223" s="3"/>
+      <c r="I223" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>5</v>
       </c>
@@ -6316,11 +6575,12 @@
       <c r="G224" s="3">
         <v>11</v>
       </c>
-      <c r="H224" s="3" t="s">
+      <c r="H224" s="3"/>
+      <c r="I224" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>5</v>
       </c>
@@ -6342,11 +6602,12 @@
       <c r="G225" s="3">
         <v>9.9</v>
       </c>
-      <c r="H225" s="3" t="s">
+      <c r="H225" s="3"/>
+      <c r="I225" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>5</v>
       </c>
@@ -6368,11 +6629,12 @@
       <c r="G226" s="3">
         <v>12.1</v>
       </c>
-      <c r="H226" s="3" t="s">
+      <c r="H226" s="3"/>
+      <c r="I226" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>5</v>
       </c>
@@ -6394,11 +6656,12 @@
       <c r="G227" s="3">
         <v>12.4</v>
       </c>
-      <c r="H227" s="3" t="s">
+      <c r="H227" s="3"/>
+      <c r="I227" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>5</v>
       </c>
@@ -6420,11 +6683,12 @@
       <c r="G228" s="3">
         <v>13.5</v>
       </c>
-      <c r="H228" s="3" t="s">
+      <c r="H228" s="3"/>
+      <c r="I228" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>5</v>
       </c>
@@ -6446,11 +6710,12 @@
       <c r="G229" s="3">
         <v>14.2</v>
       </c>
-      <c r="H229" s="3" t="s">
+      <c r="H229" s="3"/>
+      <c r="I229" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>5</v>
       </c>
@@ -6472,11 +6737,12 @@
       <c r="G230" s="3">
         <v>16.100000000000001</v>
       </c>
-      <c r="H230" s="3" t="s">
+      <c r="H230" s="3"/>
+      <c r="I230" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>5</v>
       </c>
@@ -6498,11 +6764,12 @@
       <c r="G231" s="3">
         <v>17.100000000000001</v>
       </c>
-      <c r="H231" s="3" t="s">
+      <c r="H231" s="3"/>
+      <c r="I231" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>5</v>
       </c>
@@ -6524,8 +6791,11 @@
       <c r="G232" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H232" s="3">
+        <v>8.8700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>5</v>
       </c>
@@ -6547,8 +6817,11 @@
       <c r="G233" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H233" s="3">
+        <v>8.8700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>5</v>
       </c>
@@ -6570,8 +6843,11 @@
       <c r="G234" s="3">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H234" s="3">
+        <v>8.8700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>5</v>
       </c>
@@ -6593,8 +6869,11 @@
       <c r="G235" s="3">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H235" s="3">
+        <v>8.8700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>5</v>
       </c>
@@ -6616,8 +6895,11 @@
       <c r="G236" s="3">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H236" s="3">
+        <v>8.8700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>5</v>
       </c>
@@ -6639,8 +6921,11 @@
       <c r="G237" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H237" s="3">
+        <v>8.8700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>5</v>
       </c>
@@ -6662,8 +6947,11 @@
       <c r="G238" s="3">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H238" s="3">
+        <v>8.8700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>5</v>
       </c>
@@ -6685,8 +6973,11 @@
       <c r="G239" s="3">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H239" s="3">
+        <v>8.8700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>5</v>
       </c>
@@ -6708,8 +6999,11 @@
       <c r="G240" s="3">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H240" s="3">
+        <v>8.8700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>5</v>
       </c>
@@ -6731,9 +7025,12 @@
       <c r="G241" s="3">
         <v>8.1999999999999993</v>
       </c>
-      <c r="H241" s="3"/>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H241" s="3">
+        <v>8.8700000000000001E-2</v>
+      </c>
+      <c r="I241" s="3"/>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>5</v>
       </c>
@@ -6755,8 +7052,11 @@
       <c r="G242" s="3">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H242" s="3">
+        <v>8.8700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>5</v>
       </c>
@@ -6778,8 +7078,11 @@
       <c r="G243" s="3">
         <v>12.1</v>
       </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H243" s="3">
+        <v>8.8700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>5</v>
       </c>
@@ -6801,8 +7104,11 @@
       <c r="G244" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H244" s="3">
+        <v>0.16789999999999999</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>5</v>
       </c>
@@ -6824,8 +7130,11 @@
       <c r="G245" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H245" s="3">
+        <v>0.16789999999999999</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>5</v>
       </c>
@@ -6847,8 +7156,11 @@
       <c r="G246" s="3">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H246" s="3">
+        <v>0.16789999999999999</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>5</v>
       </c>
@@ -6870,8 +7182,11 @@
       <c r="G247" s="3">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H247" s="3">
+        <v>0.16789999999999999</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>5</v>
       </c>
@@ -6893,8 +7208,11 @@
       <c r="G248" s="3">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H248" s="3">
+        <v>0.16789999999999999</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>5</v>
       </c>
@@ -6916,8 +7234,11 @@
       <c r="G249" s="3">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H249" s="3">
+        <v>0.16789999999999999</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>5</v>
       </c>
@@ -6939,8 +7260,11 @@
       <c r="G250" s="3">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H250" s="3">
+        <v>0.16789999999999999</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>5</v>
       </c>
@@ -6962,8 +7286,11 @@
       <c r="G251" s="3">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H251" s="3">
+        <v>0.16789999999999999</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>5</v>
       </c>
@@ -6985,8 +7312,11 @@
       <c r="G252" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H252" s="3">
+        <v>0.16789999999999999</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>5</v>
       </c>
@@ -7008,8 +7338,11 @@
       <c r="G253" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H253" s="3">
+        <v>0.16789999999999999</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>5</v>
       </c>
@@ -7031,8 +7364,11 @@
       <c r="G254" s="3">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H254" s="3">
+        <v>0.16789999999999999</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>5</v>
       </c>
@@ -7054,8 +7390,11 @@
       <c r="G255" s="3">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H255" s="3">
+        <v>0.16789999999999999</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>5</v>
       </c>
@@ -7077,8 +7416,11 @@
       <c r="G256" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H256" s="3">
+        <v>0.16789999999999999</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>5</v>
       </c>
@@ -7100,8 +7442,11 @@
       <c r="G257" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H257" s="3">
+        <v>7.1300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>5</v>
       </c>
@@ -7123,8 +7468,11 @@
       <c r="G258" s="3">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H258" s="3">
+        <v>7.1300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>5</v>
       </c>
@@ -7146,8 +7494,11 @@
       <c r="G259" s="3">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H259" s="3">
+        <v>7.1300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>5</v>
       </c>
@@ -7169,8 +7520,11 @@
       <c r="G260" s="3">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H260" s="3">
+        <v>7.1300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>5</v>
       </c>
@@ -7192,8 +7546,11 @@
       <c r="G261" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H261" s="3">
+        <v>7.1300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>5</v>
       </c>
@@ -7215,8 +7572,11 @@
       <c r="G262" s="3">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H262" s="3">
+        <v>7.1300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>5</v>
       </c>
@@ -7238,8 +7598,11 @@
       <c r="G263" s="3">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H263" s="3">
+        <v>7.1300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>5</v>
       </c>
@@ -7261,8 +7624,11 @@
       <c r="G264" s="3">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H264" s="3">
+        <v>7.1300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>5</v>
       </c>
@@ -7284,8 +7650,11 @@
       <c r="G265" s="3">
         <v>12.9</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H265" s="3">
+        <v>7.1300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>5</v>
       </c>
@@ -7307,8 +7676,11 @@
       <c r="G266" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H266" s="3">
+        <v>6.5500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>5</v>
       </c>
@@ -7330,8 +7702,11 @@
       <c r="G267" s="3">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H267" s="3">
+        <v>6.5500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>5</v>
       </c>
@@ -7353,8 +7728,11 @@
       <c r="G268" s="3">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H268" s="3">
+        <v>6.5500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>5</v>
       </c>
@@ -7376,8 +7754,11 @@
       <c r="G269" s="3">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H269" s="3">
+        <v>6.5500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>5</v>
       </c>
@@ -7399,8 +7780,11 @@
       <c r="G270" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H270" s="3">
+        <v>6.5500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>5</v>
       </c>
@@ -7422,8 +7806,11 @@
       <c r="G271" s="3">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H271" s="3">
+        <v>6.5500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>5</v>
       </c>
@@ -7445,8 +7832,11 @@
       <c r="G272" s="3">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H272" s="3">
+        <v>6.5500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>5</v>
       </c>
@@ -7468,8 +7858,11 @@
       <c r="G273" s="3">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H273" s="3">
+        <v>6.5500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>5</v>
       </c>
@@ -7491,8 +7884,11 @@
       <c r="G274" s="3">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H274" s="3">
+        <v>6.5500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>5</v>
       </c>
@@ -7514,8 +7910,11 @@
       <c r="G275" s="3">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H275" s="3">
+        <v>6.5500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>5</v>
       </c>
@@ -7537,8 +7936,11 @@
       <c r="G276" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H276" s="3">
+        <v>6.5500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>5</v>
       </c>
@@ -7560,8 +7962,11 @@
       <c r="G277" s="3">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H277" s="3">
+        <v>6.5500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>5</v>
       </c>
@@ -7583,8 +7988,11 @@
       <c r="G278" s="3">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H278" s="3">
+        <v>6.5500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>5</v>
       </c>
@@ -7606,8 +8014,11 @@
       <c r="G279" s="3">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H279" s="3">
+        <v>6.5500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>5</v>
       </c>
@@ -7629,8 +8040,11 @@
       <c r="G280" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H280" s="3">
+        <v>6.5500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>5</v>
       </c>
@@ -7652,8 +8066,11 @@
       <c r="G281" s="3">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H281" s="3">
+        <v>6.5500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>5</v>
       </c>
@@ -7675,8 +8092,11 @@
       <c r="G282" s="3">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H282" s="3">
+        <v>6.5500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>5</v>
       </c>
@@ -7698,8 +8118,11 @@
       <c r="G283" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H283" s="3">
+        <v>0.1023</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>5</v>
       </c>
@@ -7721,8 +8144,11 @@
       <c r="G284" s="3">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H284" s="3">
+        <v>0.1023</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>5</v>
       </c>
@@ -7744,8 +8170,11 @@
       <c r="G285" s="3">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H285" s="3">
+        <v>0.1023</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>5</v>
       </c>
@@ -7767,8 +8196,11 @@
       <c r="G286" s="3">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H286" s="3">
+        <v>0.1023</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>5</v>
       </c>
@@ -7790,8 +8222,11 @@
       <c r="G287" s="3">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H287" s="3">
+        <v>0.1023</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>5</v>
       </c>
@@ -7813,8 +8248,11 @@
       <c r="G288" s="3">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H288" s="3">
+        <v>0.1023</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>5</v>
       </c>
@@ -7836,8 +8274,11 @@
       <c r="G289" s="3">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H289" s="3">
+        <v>0.1023</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>5</v>
       </c>
@@ -7859,8 +8300,11 @@
       <c r="G290" s="3">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H290" s="3">
+        <v>0.1023</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>5</v>
       </c>
@@ -7882,8 +8326,11 @@
       <c r="G291" s="3">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H291" s="3">
+        <v>0.1023</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>5</v>
       </c>
@@ -7905,8 +8352,11 @@
       <c r="G292" s="3">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H292" s="3">
+        <v>0.1023</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>5</v>
       </c>
@@ -7928,8 +8378,11 @@
       <c r="G293" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H293" s="3">
+        <v>0.1023</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>5</v>
       </c>
@@ -7951,8 +8404,11 @@
       <c r="G294" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H294" s="3">
+        <v>0.1308</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>5</v>
       </c>
@@ -7974,8 +8430,11 @@
       <c r="G295" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H295" s="3">
+        <v>0.1308</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>5</v>
       </c>
@@ -7997,8 +8456,11 @@
       <c r="G296" s="3">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H296" s="3">
+        <v>0.1308</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>5</v>
       </c>
@@ -8020,8 +8482,11 @@
       <c r="G297" s="3">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H297" s="3">
+        <v>0.1308</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>5</v>
       </c>
@@ -8043,8 +8508,11 @@
       <c r="G298" s="3">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H298" s="3">
+        <v>0.1308</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>5</v>
       </c>
@@ -8066,8 +8534,11 @@
       <c r="G299" s="3">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H299" s="3">
+        <v>0.1308</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>5</v>
       </c>
@@ -8089,8 +8560,11 @@
       <c r="G300" s="3">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H300" s="3">
+        <v>0.1308</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>5</v>
       </c>
@@ -8112,8 +8586,11 @@
       <c r="G301" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H301" s="3">
+        <v>0.1308</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>5</v>
       </c>
@@ -8135,8 +8612,11 @@
       <c r="G302" s="3">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H302" s="3">
+        <v>0.1308</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>5</v>
       </c>
@@ -8158,8 +8638,11 @@
       <c r="G303" s="3">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H303" s="3">
+        <v>0.1308</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>5</v>
       </c>
@@ -8181,8 +8664,11 @@
       <c r="G304" s="3">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H304" s="3">
+        <v>0.1308</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>5</v>
       </c>
@@ -8204,8 +8690,11 @@
       <c r="G305" s="3">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H305" s="3">
+        <v>0.1308</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>5</v>
       </c>
@@ -8224,8 +8713,11 @@
       <c r="G306" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H306" s="3">
+        <v>0.1154</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>5</v>
       </c>
@@ -8247,8 +8739,11 @@
       <c r="G307" s="3">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H307" s="3">
+        <v>0.1154</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>5</v>
       </c>
@@ -8270,8 +8765,11 @@
       <c r="G308" s="3">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H308" s="3">
+        <v>0.1154</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>5</v>
       </c>
@@ -8293,8 +8791,11 @@
       <c r="G309" s="3">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H309" s="3">
+        <v>0.1154</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>5</v>
       </c>
@@ -8316,8 +8817,11 @@
       <c r="G310" s="3">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H310" s="3">
+        <v>0.1154</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>5</v>
       </c>
@@ -8339,8 +8843,11 @@
       <c r="G311" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H311" s="3">
+        <v>0.1154</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>5</v>
       </c>
@@ -8362,8 +8869,11 @@
       <c r="G312" s="3">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H312" s="3">
+        <v>0.1154</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>5</v>
       </c>
@@ -8385,8 +8895,11 @@
       <c r="G313" s="3">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H313" s="3">
+        <v>0.1154</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>5</v>
       </c>
@@ -8408,8 +8921,11 @@
       <c r="G314" s="3">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H314" s="3">
+        <v>0.1154</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>5</v>
       </c>
@@ -8431,8 +8947,11 @@
       <c r="G315" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H315" s="3">
+        <v>0.42470000000000002</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>5</v>
       </c>
@@ -8454,8 +8973,11 @@
       <c r="G316" s="3">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H316" s="3">
+        <v>0.42470000000000002</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>5</v>
       </c>
@@ -8477,8 +8999,11 @@
       <c r="G317" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H317" s="3">
+        <v>0.42470000000000002</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>5</v>
       </c>
@@ -8500,8 +9025,11 @@
       <c r="G318" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H318" s="3">
+        <v>0.42470000000000002</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>5</v>
       </c>
@@ -8523,8 +9051,11 @@
       <c r="G319" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H319" s="3">
+        <v>0.42470000000000002</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>5</v>
       </c>
@@ -8546,8 +9077,11 @@
       <c r="G320" s="3">
         <v>12.9</v>
       </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H320" s="3">
+        <v>0.42470000000000002</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>5</v>
       </c>
@@ -8569,8 +9103,11 @@
       <c r="G321" s="3">
         <v>12.9</v>
       </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H321" s="3">
+        <v>0.42470000000000002</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>5</v>
       </c>
@@ -8592,8 +9129,11 @@
       <c r="G322" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H322" s="3">
+        <v>0.42470000000000002</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>5</v>
       </c>
@@ -8615,8 +9155,11 @@
       <c r="G323" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H323" s="3">
+        <v>0.42470000000000002</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>5</v>
       </c>
@@ -8638,8 +9181,11 @@
       <c r="G324" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H324" s="3">
+        <v>0.38900000000000001</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>5</v>
       </c>
@@ -8661,8 +9207,11 @@
       <c r="G325" s="3">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H325" s="3">
+        <v>0.38900000000000001</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>5</v>
       </c>
@@ -8684,8 +9233,11 @@
       <c r="G326" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H326" s="3">
+        <v>0.38900000000000001</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>5</v>
       </c>
@@ -8707,8 +9259,11 @@
       <c r="G327" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H327" s="3">
+        <v>0.38900000000000001</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>5</v>
       </c>
@@ -8730,8 +9285,11 @@
       <c r="G328" s="3">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H328" s="3">
+        <v>0.38900000000000001</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>5</v>
       </c>
@@ -8753,8 +9311,11 @@
       <c r="G329" s="3">
         <v>11.3</v>
       </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H329" s="3">
+        <v>0.38900000000000001</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>5</v>
       </c>
@@ -8776,8 +9337,11 @@
       <c r="G330" s="3">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H330" s="3">
+        <v>0.38900000000000001</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>5</v>
       </c>
@@ -8799,8 +9363,11 @@
       <c r="G331" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H331" s="3">
+        <v>0.38900000000000001</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>5</v>
       </c>
@@ -8822,8 +9389,11 @@
       <c r="G332" s="3">
         <v>13.8</v>
       </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H332" s="3">
+        <v>0.38900000000000001</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>5</v>
       </c>
@@ -8845,8 +9415,11 @@
       <c r="G333" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H333" s="3">
+        <v>0.38900000000000001</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>5</v>
       </c>
@@ -8868,8 +9441,11 @@
       <c r="G334" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H334" s="3">
+        <v>0.38940000000000002</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>5</v>
       </c>
@@ -8891,8 +9467,11 @@
       <c r="G335" s="3">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H335" s="3">
+        <v>0.38940000000000002</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>5</v>
       </c>
@@ -8914,8 +9493,11 @@
       <c r="G336" s="3">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H336" s="3">
+        <v>0.38940000000000002</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>5</v>
       </c>
@@ -8937,8 +9519,11 @@
       <c r="G337" s="3">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H337" s="3">
+        <v>0.38940000000000002</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>5</v>
       </c>
@@ -8960,8 +9545,11 @@
       <c r="G338" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H338" s="3">
+        <v>0.38940000000000002</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>5</v>
       </c>
@@ -8983,8 +9571,11 @@
       <c r="G339" s="3">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H339" s="3">
+        <v>0.38940000000000002</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>5</v>
       </c>
@@ -9006,8 +9597,11 @@
       <c r="G340" s="3">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H340" s="3">
+        <v>0.38940000000000002</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>5</v>
       </c>
@@ -9029,8 +9623,11 @@
       <c r="G341" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H341" s="3">
+        <v>0.38940000000000002</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>5</v>
       </c>
@@ -9052,8 +9649,11 @@
       <c r="G342" s="3">
         <v>18.100000000000001</v>
       </c>
-    </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H342" s="3">
+        <v>0.38940000000000002</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>5</v>
       </c>
@@ -9075,8 +9675,11 @@
       <c r="G343" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H343" s="3">
+        <v>0.33510000000000001</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>5</v>
       </c>
@@ -9098,8 +9701,11 @@
       <c r="G344" s="3">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H344" s="3">
+        <v>0.33510000000000001</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>5</v>
       </c>
@@ -9121,8 +9727,11 @@
       <c r="G345" s="3">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H345" s="3">
+        <v>0.33510000000000001</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>5</v>
       </c>
@@ -9144,8 +9753,11 @@
       <c r="G346" s="3">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H346" s="3">
+        <v>0.33510000000000001</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>5</v>
       </c>
@@ -9167,8 +9779,11 @@
       <c r="G347" s="3">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H347" s="3">
+        <v>0.33510000000000001</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>5</v>
       </c>
@@ -9190,8 +9805,11 @@
       <c r="G348" s="3">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H348" s="3">
+        <v>0.33510000000000001</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>5</v>
       </c>
@@ -9213,8 +9831,11 @@
       <c r="G349" s="3">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H349" s="3">
+        <v>0.33510000000000001</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>5</v>
       </c>
@@ -9236,8 +9857,11 @@
       <c r="G350" s="3">
         <v>14.2</v>
       </c>
-    </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H350" s="3">
+        <v>0.33510000000000001</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>5</v>
       </c>
@@ -9259,8 +9883,11 @@
       <c r="G351" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H351" s="3">
+        <v>0.49049999999999999</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>5</v>
       </c>
@@ -9282,8 +9909,11 @@
       <c r="G352" s="3">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H352" s="3">
+        <v>0.49049999999999999</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>5</v>
       </c>
@@ -9305,8 +9935,11 @@
       <c r="G353" s="3">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H353" s="3">
+        <v>0.49049999999999999</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>5</v>
       </c>
@@ -9328,8 +9961,11 @@
       <c r="G354" s="3">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H354" s="3">
+        <v>0.49049999999999999</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>5</v>
       </c>
@@ -9351,8 +9987,11 @@
       <c r="G355" s="3">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H355" s="3">
+        <v>0.49049999999999999</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>5</v>
       </c>
@@ -9374,8 +10013,11 @@
       <c r="G356" s="3">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H356" s="3">
+        <v>0.49049999999999999</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>5</v>
       </c>
@@ -9397,8 +10039,11 @@
       <c r="G357" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H357" s="3">
+        <v>0.49049999999999999</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>5</v>
       </c>
@@ -9420,8 +10065,11 @@
       <c r="G358" s="3">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H358" s="3">
+        <v>0.49049999999999999</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>5</v>
       </c>
@@ -9443,8 +10091,11 @@
       <c r="G359" s="3">
         <v>12.7</v>
       </c>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H359" s="3">
+        <v>0.49049999999999999</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>5</v>
       </c>
@@ -9466,8 +10117,11 @@
       <c r="G360" s="3">
         <v>14.2</v>
       </c>
-    </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H360" s="3">
+        <v>0.49049999999999999</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>5</v>
       </c>
@@ -9489,8 +10143,11 @@
       <c r="G361" s="3">
         <v>14.2</v>
       </c>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H361" s="3">
+        <v>0.49049999999999999</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>5</v>
       </c>
@@ -9498,7 +10155,7 @@
         <v>42954</v>
       </c>
       <c r="C362" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D362" t="s">
         <v>6</v>
@@ -9512,8 +10169,11 @@
       <c r="G362" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H362" s="3">
+        <v>0.15579999999999999</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>5</v>
       </c>
@@ -9535,8 +10195,11 @@
       <c r="G363" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H363" s="3">
+        <v>0.15579999999999999</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>5</v>
       </c>
@@ -9558,8 +10221,11 @@
       <c r="G364" s="3">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H364" s="3">
+        <v>0.15579999999999999</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>5</v>
       </c>
@@ -9581,8 +10247,11 @@
       <c r="G365" s="3">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H365" s="3">
+        <v>0.15579999999999999</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>5</v>
       </c>
@@ -9604,8 +10273,11 @@
       <c r="G366" s="3">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H366" s="3">
+        <v>0.15579999999999999</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>5</v>
       </c>
@@ -9627,8 +10299,11 @@
       <c r="G367" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H367" s="3">
+        <v>0.15579999999999999</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>5</v>
       </c>
@@ -9650,8 +10325,11 @@
       <c r="G368" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H368" s="3">
+        <v>0.15579999999999999</v>
+      </c>
+    </row>
+    <row r="369" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>5</v>
       </c>
@@ -9673,8 +10351,11 @@
       <c r="G369" s="3">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H369" s="3">
+        <v>0.15579999999999999</v>
+      </c>
+    </row>
+    <row r="370" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>5</v>
       </c>
@@ -9696,8 +10377,11 @@
       <c r="G370" s="3">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H370" s="3">
+        <v>0.15579999999999999</v>
+      </c>
+    </row>
+    <row r="371" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>5</v>
       </c>
@@ -9719,8 +10403,11 @@
       <c r="G371" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H371" s="3">
+        <v>0.15579999999999999</v>
+      </c>
+    </row>
+    <row r="372" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>5</v>
       </c>
@@ -9742,8 +10429,11 @@
       <c r="G372" s="3">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H372" s="3">
+        <v>0.15579999999999999</v>
+      </c>
+    </row>
+    <row r="373" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>5</v>
       </c>
@@ -9765,8 +10455,11 @@
       <c r="G373" s="3">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H373" s="3">
+        <v>0.15579999999999999</v>
+      </c>
+    </row>
+    <row r="374" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>5</v>
       </c>
@@ -9788,8 +10481,11 @@
       <c r="G374" s="3">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H374" s="3">
+        <v>0.15579999999999999</v>
+      </c>
+    </row>
+    <row r="375" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>5</v>
       </c>
@@ -9811,23 +10507,26 @@
       <c r="G375" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K375" t="s">
-        <v>5</v>
-      </c>
-      <c r="L375" s="4">
-        <v>42954</v>
-      </c>
-      <c r="M375" t="s">
+      <c r="H375" s="3">
+        <v>0.2477</v>
+      </c>
+      <c r="L375" t="s">
+        <v>5</v>
+      </c>
+      <c r="M375" s="4">
+        <v>42954</v>
+      </c>
+      <c r="N375" t="s">
         <v>20</v>
       </c>
-      <c r="N375" t="s">
-        <v>6</v>
-      </c>
-      <c r="O375">
+      <c r="O375" t="s">
+        <v>6</v>
+      </c>
+      <c r="P375">
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>5</v>
       </c>
@@ -9849,23 +10548,26 @@
       <c r="G376" s="3">
         <v>1.9</v>
       </c>
-      <c r="K376" t="s">
-        <v>5</v>
-      </c>
-      <c r="L376" s="4">
-        <v>42954</v>
-      </c>
-      <c r="M376" t="s">
+      <c r="H376" s="3">
+        <v>0.2477</v>
+      </c>
+      <c r="L376" t="s">
+        <v>5</v>
+      </c>
+      <c r="M376" s="4">
+        <v>42954</v>
+      </c>
+      <c r="N376" t="s">
         <v>20</v>
       </c>
-      <c r="N376" t="s">
-        <v>6</v>
-      </c>
-      <c r="O376">
+      <c r="O376" t="s">
+        <v>6</v>
+      </c>
+      <c r="P376">
         <v>2</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>5</v>
       </c>
@@ -9887,23 +10589,26 @@
       <c r="G377" s="3">
         <v>2</v>
       </c>
-      <c r="K377" t="s">
-        <v>5</v>
-      </c>
-      <c r="L377" s="4">
-        <v>42954</v>
-      </c>
-      <c r="M377" t="s">
+      <c r="H377" s="3">
+        <v>0.2477</v>
+      </c>
+      <c r="L377" t="s">
+        <v>5</v>
+      </c>
+      <c r="M377" s="4">
+        <v>42954</v>
+      </c>
+      <c r="N377" t="s">
         <v>20</v>
       </c>
-      <c r="N377" t="s">
-        <v>6</v>
-      </c>
-      <c r="O377">
+      <c r="O377" t="s">
+        <v>6</v>
+      </c>
+      <c r="P377">
         <v>3</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>5</v>
       </c>
@@ -9925,23 +10630,26 @@
       <c r="G378" s="3">
         <v>2.1</v>
       </c>
-      <c r="K378" t="s">
-        <v>5</v>
-      </c>
-      <c r="L378" s="4">
-        <v>42954</v>
-      </c>
-      <c r="M378" t="s">
+      <c r="H378" s="3">
+        <v>0.2477</v>
+      </c>
+      <c r="L378" t="s">
+        <v>5</v>
+      </c>
+      <c r="M378" s="4">
+        <v>42954</v>
+      </c>
+      <c r="N378" t="s">
         <v>20</v>
       </c>
-      <c r="N378" t="s">
-        <v>6</v>
-      </c>
-      <c r="O378">
+      <c r="O378" t="s">
+        <v>6</v>
+      </c>
+      <c r="P378">
         <v>4</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>5</v>
       </c>
@@ -9963,23 +10671,26 @@
       <c r="G379" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="K379" t="s">
-        <v>5</v>
-      </c>
-      <c r="L379" s="4">
-        <v>42954</v>
-      </c>
-      <c r="M379" t="s">
+      <c r="H379" s="3">
+        <v>0.2477</v>
+      </c>
+      <c r="L379" t="s">
+        <v>5</v>
+      </c>
+      <c r="M379" s="4">
+        <v>42954</v>
+      </c>
+      <c r="N379" t="s">
         <v>20</v>
       </c>
-      <c r="N379" t="s">
-        <v>6</v>
-      </c>
-      <c r="O379">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O379" t="s">
+        <v>6</v>
+      </c>
+      <c r="P379">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="380" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>5</v>
       </c>
@@ -10001,23 +10712,26 @@
       <c r="G380" s="3">
         <v>2.9</v>
       </c>
-      <c r="K380" t="s">
-        <v>5</v>
-      </c>
-      <c r="L380" s="4">
-        <v>42954</v>
-      </c>
-      <c r="M380" t="s">
+      <c r="H380" s="3">
+        <v>0.2477</v>
+      </c>
+      <c r="L380" t="s">
+        <v>5</v>
+      </c>
+      <c r="M380" s="4">
+        <v>42954</v>
+      </c>
+      <c r="N380" t="s">
         <v>20</v>
       </c>
-      <c r="N380" t="s">
-        <v>6</v>
-      </c>
-      <c r="O380">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O380" t="s">
+        <v>6</v>
+      </c>
+      <c r="P380">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="381" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>5</v>
       </c>
@@ -10039,23 +10753,26 @@
       <c r="G381" s="3">
         <v>4</v>
       </c>
-      <c r="K381" t="s">
-        <v>5</v>
-      </c>
-      <c r="L381" s="4">
-        <v>42954</v>
-      </c>
-      <c r="M381" t="s">
+      <c r="H381" s="3">
+        <v>0.2477</v>
+      </c>
+      <c r="L381" t="s">
+        <v>5</v>
+      </c>
+      <c r="M381" s="4">
+        <v>42954</v>
+      </c>
+      <c r="N381" t="s">
         <v>21</v>
       </c>
-      <c r="N381" t="s">
-        <v>11</v>
-      </c>
-      <c r="O381">
+      <c r="O381" t="s">
+        <v>11</v>
+      </c>
+      <c r="P381">
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>5</v>
       </c>
@@ -10077,23 +10794,26 @@
       <c r="G382" s="3">
         <v>7.1</v>
       </c>
-      <c r="K382" t="s">
-        <v>5</v>
-      </c>
-      <c r="L382" s="4">
-        <v>42954</v>
-      </c>
-      <c r="M382" t="s">
+      <c r="H382" s="3">
+        <v>0.2477</v>
+      </c>
+      <c r="L382" t="s">
+        <v>5</v>
+      </c>
+      <c r="M382" s="4">
+        <v>42954</v>
+      </c>
+      <c r="N382" t="s">
         <v>21</v>
       </c>
-      <c r="N382" t="s">
-        <v>11</v>
-      </c>
-      <c r="O382">
+      <c r="O382" t="s">
+        <v>11</v>
+      </c>
+      <c r="P382">
         <v>2</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>5</v>
       </c>
@@ -10115,23 +10835,26 @@
       <c r="G383" s="3">
         <v>9</v>
       </c>
-      <c r="K383" t="s">
-        <v>5</v>
-      </c>
-      <c r="L383" s="4">
-        <v>42954</v>
-      </c>
-      <c r="M383" t="s">
+      <c r="H383" s="3">
+        <v>0.2477</v>
+      </c>
+      <c r="L383" t="s">
+        <v>5</v>
+      </c>
+      <c r="M383" s="4">
+        <v>42954</v>
+      </c>
+      <c r="N383" t="s">
         <v>21</v>
       </c>
-      <c r="N383" t="s">
-        <v>11</v>
-      </c>
-      <c r="O383">
+      <c r="O383" t="s">
+        <v>11</v>
+      </c>
+      <c r="P383">
         <v>3</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>5</v>
       </c>
@@ -10153,23 +10876,26 @@
       <c r="G384" s="3">
         <v>12.2</v>
       </c>
-      <c r="K384" t="s">
-        <v>5</v>
-      </c>
-      <c r="L384" s="4">
-        <v>42954</v>
-      </c>
-      <c r="M384" t="s">
+      <c r="H384" s="3">
+        <v>0.2477</v>
+      </c>
+      <c r="L384" t="s">
+        <v>5</v>
+      </c>
+      <c r="M384" s="4">
+        <v>42954</v>
+      </c>
+      <c r="N384" t="s">
         <v>21</v>
       </c>
-      <c r="N384" t="s">
-        <v>11</v>
-      </c>
-      <c r="O384">
+      <c r="O384" t="s">
+        <v>11</v>
+      </c>
+      <c r="P384">
         <v>4</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>5</v>
       </c>
@@ -10191,23 +10917,26 @@
       <c r="G385" s="3">
         <v>13</v>
       </c>
-      <c r="K385" t="s">
-        <v>5</v>
-      </c>
-      <c r="L385" s="4">
-        <v>42954</v>
-      </c>
-      <c r="M385" t="s">
+      <c r="H385" s="3">
+        <v>0.2477</v>
+      </c>
+      <c r="L385" t="s">
+        <v>5</v>
+      </c>
+      <c r="M385" s="4">
+        <v>42954</v>
+      </c>
+      <c r="N385" t="s">
         <v>21</v>
       </c>
-      <c r="N385" t="s">
-        <v>11</v>
-      </c>
-      <c r="O385">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O385" t="s">
+        <v>11</v>
+      </c>
+      <c r="P385">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="386" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>5</v>
       </c>
@@ -10229,23 +10958,26 @@
       <c r="G386" s="3">
         <v>13</v>
       </c>
-      <c r="K386" t="s">
-        <v>5</v>
-      </c>
-      <c r="L386" s="4">
-        <v>42954</v>
-      </c>
-      <c r="M386" t="s">
+      <c r="H386" s="3">
+        <v>0.2477</v>
+      </c>
+      <c r="L386" t="s">
+        <v>5</v>
+      </c>
+      <c r="M386" s="4">
+        <v>42954</v>
+      </c>
+      <c r="N386" t="s">
         <v>21</v>
       </c>
-      <c r="N386" t="s">
-        <v>11</v>
-      </c>
-      <c r="O386">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O386" t="s">
+        <v>11</v>
+      </c>
+      <c r="P386">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="387" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>5</v>
       </c>
@@ -10267,8 +10999,11 @@
       <c r="G387" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H387" s="3">
+        <v>9.0700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>5</v>
       </c>
@@ -10290,8 +11025,11 @@
       <c r="G388" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H388" s="3">
+        <v>9.0700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>5</v>
       </c>
@@ -10313,8 +11051,11 @@
       <c r="G389" s="3">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H389" s="3">
+        <v>9.0700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>5</v>
       </c>
@@ -10336,8 +11077,11 @@
       <c r="G390" s="3">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H390" s="3">
+        <v>9.0700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="391" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>5</v>
       </c>
@@ -10359,8 +11103,11 @@
       <c r="G391" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H391" s="3">
+        <v>9.0700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="392" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>5</v>
       </c>
@@ -10382,8 +11129,11 @@
       <c r="G392" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H392" s="3">
+        <v>9.0700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="393" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>5</v>
       </c>
@@ -10405,8 +11155,11 @@
       <c r="G393" s="3">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H393" s="3">
+        <v>9.0700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="394" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>5</v>
       </c>
@@ -10428,8 +11181,11 @@
       <c r="G394" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H394" s="3">
+        <v>9.0700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>5</v>
       </c>
@@ -10451,8 +11207,11 @@
       <c r="G395" s="3">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H395" s="3">
+        <v>9.0700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="396" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>5</v>
       </c>
@@ -10474,8 +11233,11 @@
       <c r="G396" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H396" s="3">
+        <v>9.0700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="397" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>5</v>
       </c>
@@ -10497,8 +11259,11 @@
       <c r="G397" s="3">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H397" s="3">
+        <v>9.0700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="398" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>5</v>
       </c>
@@ -10520,8 +11285,11 @@
       <c r="G398" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H398" s="3">
+        <v>9.0700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="399" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>5</v>
       </c>
@@ -10543,8 +11311,11 @@
       <c r="G399" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H399" s="3">
+        <v>0.32790000000000002</v>
+      </c>
+    </row>
+    <row r="400" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>5</v>
       </c>
@@ -10566,8 +11337,11 @@
       <c r="G400" s="3">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H400" s="3">
+        <v>0.32790000000000002</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>5</v>
       </c>
@@ -10589,8 +11363,11 @@
       <c r="G401" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H401" s="3">
+        <v>0.32790000000000002</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>5</v>
       </c>
@@ -10612,8 +11389,11 @@
       <c r="G402" s="3">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H402" s="3">
+        <v>0.32790000000000002</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>5</v>
       </c>
@@ -10635,8 +11415,11 @@
       <c r="G403" s="3">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H403" s="3">
+        <v>0.32790000000000002</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>5</v>
       </c>
@@ -10658,8 +11441,11 @@
       <c r="G404" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H404" s="3">
+        <v>0.32790000000000002</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>5</v>
       </c>
@@ -10681,8 +11467,11 @@
       <c r="G405" s="3">
         <v>12.1</v>
       </c>
-    </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H405" s="3">
+        <v>0.32790000000000002</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>5</v>
       </c>
@@ -10704,8 +11493,11 @@
       <c r="G406" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H406" s="3">
+        <v>0.32790000000000002</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>5</v>
       </c>
@@ -10727,8 +11519,11 @@
       <c r="G407" s="3">
         <v>14.9</v>
       </c>
-    </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H407" s="3">
+        <v>0.32790000000000002</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>5</v>
       </c>
@@ -10750,8 +11545,11 @@
       <c r="G408" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H408" s="3">
+        <v>0.20069999999999999</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>5</v>
       </c>
@@ -10773,8 +11571,11 @@
       <c r="G409" s="3">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H409" s="3">
+        <v>0.20069999999999999</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>5</v>
       </c>
@@ -10796,8 +11597,11 @@
       <c r="G410" s="3">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H410" s="3">
+        <v>0.20069999999999999</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>5</v>
       </c>
@@ -10819,8 +11623,11 @@
       <c r="G411" s="3">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H411" s="3">
+        <v>0.20069999999999999</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>5</v>
       </c>
@@ -10842,8 +11649,11 @@
       <c r="G412" s="3">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H412" s="3">
+        <v>0.20069999999999999</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>5</v>
       </c>
@@ -10865,8 +11675,11 @@
       <c r="G413" s="3">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H413" s="3">
+        <v>0.20069999999999999</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>5</v>
       </c>
@@ -10888,8 +11701,11 @@
       <c r="G414" s="3">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H414" s="3">
+        <v>0.20069999999999999</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>5</v>
       </c>
@@ -10911,8 +11727,11 @@
       <c r="G415" s="3">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H415" s="3">
+        <v>0.20069999999999999</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>5</v>
       </c>
@@ -10934,8 +11753,11 @@
       <c r="G416" s="3">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H416" s="3">
+        <v>0.20069999999999999</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>5</v>
       </c>
@@ -10957,8 +11779,11 @@
       <c r="G417" s="3">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H417" s="3">
+        <v>0.20069999999999999</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>5</v>
       </c>
@@ -10980,8 +11805,11 @@
       <c r="G418" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H418" s="3">
+        <v>0.20069999999999999</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>5</v>
       </c>
@@ -11003,8 +11831,11 @@
       <c r="G419" s="3">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H419" s="3">
+        <v>0.20069999999999999</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>5</v>
       </c>
@@ -11026,8 +11857,11 @@
       <c r="G420" s="3">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H420" s="3">
+        <v>0.20069999999999999</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>5</v>
       </c>
@@ -11049,8 +11883,9 @@
       <c r="G421" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H421" s="3"/>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>5</v>
       </c>
@@ -11072,8 +11907,9 @@
       <c r="G422" s="3">
         <v>2.58</v>
       </c>
-    </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H422" s="3"/>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>5</v>
       </c>
@@ -11095,8 +11931,9 @@
       <c r="G423" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H423" s="3"/>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>5</v>
       </c>
@@ -11118,8 +11955,9 @@
       <c r="G424" s="3">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H424" s="3"/>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>5</v>
       </c>
@@ -11141,8 +11979,9 @@
       <c r="G425" s="3">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H425" s="3"/>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>5</v>
       </c>
@@ -11164,8 +12003,9 @@
       <c r="G426" s="3">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H426" s="3"/>
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>5</v>
       </c>
@@ -11187,8 +12027,9 @@
       <c r="G427" s="3">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H427" s="3"/>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>5</v>
       </c>
@@ -11210,8 +12051,9 @@
       <c r="G428" s="3">
         <v>12.7</v>
       </c>
-    </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H428" s="3"/>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>5</v>
       </c>
@@ -11233,8 +12075,9 @@
       <c r="G429" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H429" s="3"/>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>5</v>
       </c>
@@ -11256,8 +12099,9 @@
       <c r="G430" s="3">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H430" s="3"/>
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>5</v>
       </c>
@@ -11279,8 +12123,9 @@
       <c r="G431" s="3">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H431" s="3"/>
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>5</v>
       </c>
@@ -11302,8 +12147,9 @@
       <c r="G432" s="3">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H432" s="3"/>
+    </row>
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>5</v>
       </c>
@@ -11325,8 +12171,9 @@
       <c r="G433" s="3">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H433" s="3"/>
+    </row>
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>5</v>
       </c>
@@ -11348,8 +12195,9 @@
       <c r="G434" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H434" s="3"/>
+    </row>
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>5</v>
       </c>
@@ -11371,8 +12219,9 @@
       <c r="G435" s="3">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H435" s="3"/>
+    </row>
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>5</v>
       </c>
@@ -11394,8 +12243,9 @@
       <c r="G436" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H436" s="3"/>
+    </row>
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>5</v>
       </c>
@@ -11417,8 +12267,9 @@
       <c r="G437" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H437" s="3"/>
+    </row>
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>5</v>
       </c>
@@ -11440,8 +12291,9 @@
       <c r="G438" s="3">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H438" s="3"/>
+    </row>
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>5</v>
       </c>
@@ -11463,8 +12315,9 @@
       <c r="G439" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H439" s="3"/>
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>5</v>
       </c>
@@ -11486,8 +12339,9 @@
       <c r="G440" s="3">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H440" s="3"/>
+    </row>
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>5</v>
       </c>
@@ -11509,8 +12363,9 @@
       <c r="G441" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H441" s="3"/>
+    </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>5</v>
       </c>
@@ -11532,8 +12387,9 @@
       <c r="G442" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H442" s="3"/>
+    </row>
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>5</v>
       </c>
@@ -11555,8 +12411,9 @@
       <c r="G443" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H443" s="3"/>
+    </row>
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>5</v>
       </c>
@@ -11578,8 +12435,9 @@
       <c r="G444" s="3">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H444" s="3"/>
+    </row>
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>5</v>
       </c>
@@ -11601,8 +12459,9 @@
       <c r="G445" s="3">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H445" s="3"/>
+    </row>
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>5</v>
       </c>
@@ -11624,8 +12483,9 @@
       <c r="G446" s="3">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H446" s="3"/>
+    </row>
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>5</v>
       </c>
@@ -11647,8 +12507,9 @@
       <c r="G447" s="3">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H447" s="3"/>
+    </row>
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>5</v>
       </c>
@@ -11670,8 +12531,9 @@
       <c r="G448" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H448" s="3"/>
+    </row>
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>5</v>
       </c>
@@ -11693,8 +12555,9 @@
       <c r="G449" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H449" s="3"/>
+    </row>
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>5</v>
       </c>
@@ -11716,8 +12579,9 @@
       <c r="G450" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H450" s="3"/>
+    </row>
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>5</v>
       </c>
@@ -11739,8 +12603,9 @@
       <c r="G451" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H451" s="3"/>
+    </row>
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>5</v>
       </c>
@@ -11762,8 +12627,9 @@
       <c r="G452" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H452" s="3"/>
+    </row>
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>5</v>
       </c>
@@ -11785,8 +12651,9 @@
       <c r="G453" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H453" s="3"/>
+    </row>
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>5</v>
       </c>
@@ -11808,8 +12675,9 @@
       <c r="G454" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H454" s="3"/>
+    </row>
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>5</v>
       </c>
@@ -11831,8 +12699,9 @@
       <c r="G455" s="3">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H455" s="3"/>
+    </row>
+    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
         <v>5</v>
       </c>
@@ -11854,8 +12723,9 @@
       <c r="G456" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H456" s="3"/>
+    </row>
+    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>5</v>
       </c>
@@ -11877,8 +12747,9 @@
       <c r="G457" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H457" s="3"/>
+    </row>
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>5</v>
       </c>
@@ -11900,8 +12771,9 @@
       <c r="G458" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H458" s="3"/>
+    </row>
+    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>5</v>
       </c>
@@ -11923,8 +12795,9 @@
       <c r="G459" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H459" s="3"/>
+    </row>
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>5</v>
       </c>
@@ -11946,8 +12819,9 @@
       <c r="G460" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H460" s="3"/>
+    </row>
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>5</v>
       </c>
@@ -11969,8 +12843,9 @@
       <c r="G461" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H461" s="3"/>
+    </row>
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>5</v>
       </c>
@@ -11992,8 +12867,9 @@
       <c r="G462" s="3">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H462" s="3"/>
+    </row>
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>5</v>
       </c>
@@ -12015,8 +12891,9 @@
       <c r="G463" s="3">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H463" s="3"/>
+    </row>
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>5</v>
       </c>
@@ -12038,8 +12915,9 @@
       <c r="G464" s="3">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H464" s="3"/>
+    </row>
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>5</v>
       </c>
@@ -12061,8 +12939,9 @@
       <c r="G465" s="3">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H465" s="3"/>
+    </row>
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>5</v>
       </c>
@@ -12084,8 +12963,9 @@
       <c r="G466" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H466" s="3"/>
+    </row>
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>5</v>
       </c>
@@ -12107,8 +12987,9 @@
       <c r="G467" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H467" s="3"/>
+    </row>
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>5</v>
       </c>
@@ -12130,8 +13011,9 @@
       <c r="G468" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H468" s="3"/>
+    </row>
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>5</v>
       </c>
@@ -12153,8 +13035,9 @@
       <c r="G469" s="3">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H469" s="3"/>
+    </row>
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
         <v>5</v>
       </c>
@@ -12176,8 +13059,9 @@
       <c r="G470" s="3">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H470" s="3"/>
+    </row>
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>5</v>
       </c>
@@ -12199,8 +13083,9 @@
       <c r="G471" s="3">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H471" s="3"/>
+    </row>
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>5</v>
       </c>
@@ -12222,8 +13107,9 @@
       <c r="G472" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H472" s="3"/>
+    </row>
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>5</v>
       </c>
@@ -12245,8 +13131,9 @@
       <c r="G473" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H473" s="3"/>
+    </row>
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
         <v>5</v>
       </c>
@@ -12268,8 +13155,9 @@
       <c r="G474" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H474" s="3"/>
+    </row>
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
         <v>5</v>
       </c>
@@ -12291,8 +13179,9 @@
       <c r="G475" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H475" s="3"/>
+    </row>
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>5</v>
       </c>
@@ -12314,8 +13203,9 @@
       <c r="G476" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H476" s="3"/>
+    </row>
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>5</v>
       </c>
@@ -12337,8 +13227,9 @@
       <c r="G477" s="3">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H477" s="3"/>
+    </row>
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
         <v>5</v>
       </c>
@@ -12360,8 +13251,9 @@
       <c r="G478" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H478" s="3"/>
+    </row>
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>5</v>
       </c>
@@ -12383,8 +13275,9 @@
       <c r="G479" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H479" s="3"/>
+    </row>
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
         <v>5</v>
       </c>
@@ -12406,8 +13299,9 @@
       <c r="G480" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H480" s="3"/>
+    </row>
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
         <v>5</v>
       </c>
@@ -12429,8 +13323,9 @@
       <c r="G481" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H481" s="3"/>
+    </row>
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
         <v>5</v>
       </c>
@@ -12452,8 +13347,9 @@
       <c r="G482" s="3">
         <v>12.1</v>
       </c>
-    </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H482" s="3"/>
+    </row>
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" s="3" t="s">
         <v>5</v>
       </c>
@@ -12475,8 +13371,9 @@
       <c r="G483" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H483" s="3"/>
+    </row>
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
         <v>5</v>
       </c>
@@ -12498,8 +13395,9 @@
       <c r="G484" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H484" s="3"/>
+    </row>
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
         <v>5</v>
       </c>
@@ -12521,8 +13419,9 @@
       <c r="G485" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H485" s="3"/>
+    </row>
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
         <v>5</v>
       </c>
@@ -12544,8 +13443,9 @@
       <c r="G486" s="3">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H486" s="3"/>
+    </row>
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
         <v>5</v>
       </c>
@@ -12567,8 +13467,9 @@
       <c r="G487" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H487" s="3"/>
+    </row>
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
         <v>5</v>
       </c>
@@ -12590,8 +13491,9 @@
       <c r="G488" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H488" s="3"/>
+    </row>
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>5</v>
       </c>
@@ -12613,8 +13515,9 @@
       <c r="G489" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H489" s="3"/>
+    </row>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
         <v>5</v>
       </c>
@@ -12636,8 +13539,9 @@
       <c r="G490" s="3">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H490" s="3"/>
+    </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>5</v>
       </c>
@@ -12659,8 +13563,9 @@
       <c r="G491" s="3">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H491" s="3"/>
+    </row>
+    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" s="3" t="s">
         <v>5</v>
       </c>
@@ -12682,8 +13587,9 @@
       <c r="G492" s="3">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H492" s="3"/>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
         <v>5</v>
       </c>
@@ -12705,8 +13611,9 @@
       <c r="G493" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H493" s="3"/>
+    </row>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
         <v>5</v>
       </c>
@@ -12728,8 +13635,9 @@
       <c r="G494" s="3">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H494" s="3"/>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
         <v>5</v>
       </c>
@@ -12751,8 +13659,9 @@
       <c r="G495" s="3">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H495" s="3"/>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
         <v>5</v>
       </c>
@@ -12774,8 +13683,9 @@
       <c r="G496" s="3">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H496" s="3"/>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
         <v>5</v>
       </c>
@@ -12797,8 +13707,9 @@
       <c r="G497" s="3">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H497" s="3"/>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
         <v>5</v>
       </c>
@@ -12820,8 +13731,9 @@
       <c r="G498" s="3">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H498" s="3"/>
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
         <v>5</v>
       </c>
@@ -12843,8 +13755,9 @@
       <c r="G499" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H499" s="3"/>
+    </row>
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
         <v>5</v>
       </c>
@@ -12866,8 +13779,9 @@
       <c r="G500" s="3">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H500" s="3"/>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501" s="3" t="s">
         <v>5</v>
       </c>
@@ -12889,8 +13803,9 @@
       <c r="G501" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H501" s="3"/>
+    </row>
+    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
         <v>5</v>
       </c>
@@ -12912,8 +13827,9 @@
       <c r="G502" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H502" s="3"/>
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
         <v>5</v>
       </c>
@@ -12935,8 +13851,9 @@
       <c r="G503" s="3">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H503" s="3"/>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
         <v>5</v>
       </c>
@@ -12958,8 +13875,9 @@
       <c r="G504" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H504" s="3"/>
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
         <v>5</v>
       </c>
@@ -12981,8 +13899,9 @@
       <c r="G505" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H505" s="3"/>
+    </row>
+    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
         <v>5</v>
       </c>
@@ -13004,8 +13923,9 @@
       <c r="G506" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H506" s="3"/>
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
         <v>5</v>
       </c>
@@ -13027,8 +13947,9 @@
       <c r="G507" s="3">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H507" s="3"/>
+    </row>
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
         <v>5</v>
       </c>
@@ -13050,8 +13971,9 @@
       <c r="G508" s="3">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H508" s="3"/>
+    </row>
+    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
         <v>5</v>
       </c>
@@ -13073,8 +13995,9 @@
       <c r="G509" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H509" s="3"/>
+    </row>
+    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510" s="3" t="s">
         <v>5</v>
       </c>
@@ -13096,8 +14019,9 @@
       <c r="G510" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H510" s="3"/>
+    </row>
+    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
         <v>5</v>
       </c>
@@ -13119,8 +14043,9 @@
       <c r="G511" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H511" s="3"/>
+    </row>
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
         <v>5</v>
       </c>
@@ -13142,8 +14067,9 @@
       <c r="G512" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H512" s="3"/>
+    </row>
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
         <v>5</v>
       </c>
@@ -13165,8 +14091,9 @@
       <c r="G513" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H513" s="3"/>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
         <v>5</v>
       </c>
@@ -13188,8 +14115,9 @@
       <c r="G514" s="3">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H514" s="3"/>
+    </row>
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
         <v>5</v>
       </c>
@@ -13211,8 +14139,9 @@
       <c r="G515" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H515" s="3"/>
+    </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
         <v>5</v>
       </c>
@@ -13234,8 +14163,9 @@
       <c r="G516" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H516" s="3"/>
+    </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
         <v>5</v>
       </c>
@@ -13257,8 +14187,9 @@
       <c r="G517" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H517" s="3"/>
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
         <v>5</v>
       </c>
@@ -13280,8 +14211,9 @@
       <c r="G518" s="3">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H518" s="3"/>
+    </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" s="3" t="s">
         <v>5</v>
       </c>
@@ -13303,8 +14235,9 @@
       <c r="G519" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H519" s="3"/>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
         <v>5</v>
       </c>
@@ -13326,8 +14259,9 @@
       <c r="G520" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H520" s="3"/>
+    </row>
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
         <v>5</v>
       </c>
@@ -13349,8 +14283,9 @@
       <c r="G521" s="3">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H521" s="3"/>
+    </row>
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
         <v>5</v>
       </c>
@@ -13372,8 +14307,9 @@
       <c r="G522" s="3">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H522" s="3"/>
+    </row>
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
         <v>5</v>
       </c>
@@ -13395,8 +14331,9 @@
       <c r="G523" s="3">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H523" s="3"/>
+    </row>
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
         <v>5</v>
       </c>
@@ -13418,8 +14355,9 @@
       <c r="G524" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H524" s="3"/>
+    </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
         <v>5</v>
       </c>
@@ -13441,8 +14379,9 @@
       <c r="G525" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H525" s="3"/>
+    </row>
+    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
         <v>5</v>
       </c>
@@ -13464,8 +14403,9 @@
       <c r="G526" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H526" s="3"/>
+    </row>
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
         <v>5</v>
       </c>
@@ -13487,8 +14427,9 @@
       <c r="G527" s="3">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H527" s="3"/>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528" s="3" t="s">
         <v>5</v>
       </c>
@@ -13510,8 +14451,9 @@
       <c r="G528" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H528" s="3"/>
+    </row>
+    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
         <v>5</v>
       </c>
@@ -13533,8 +14475,9 @@
       <c r="G529" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H529" s="3"/>
+    </row>
+    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
         <v>5</v>
       </c>
@@ -13556,8 +14499,9 @@
       <c r="G530" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H530" s="3"/>
+    </row>
+    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
         <v>5</v>
       </c>
@@ -13579,8 +14523,9 @@
       <c r="G531" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H531" s="3"/>
+    </row>
+    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
         <v>5</v>
       </c>
@@ -13602,8 +14547,9 @@
       <c r="G532" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H532" s="3"/>
+    </row>
+    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
         <v>5</v>
       </c>
@@ -13625,8 +14571,9 @@
       <c r="G533" s="3">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H533" s="3"/>
+    </row>
+    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" s="3" t="s">
         <v>5</v>
       </c>
@@ -13648,8 +14595,9 @@
       <c r="G534" s="3">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H534" s="3"/>
+    </row>
+    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
         <v>5</v>
       </c>
@@ -13671,8 +14619,9 @@
       <c r="G535" s="3">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H535" s="3"/>
+    </row>
+    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
         <v>5</v>
       </c>
@@ -13694,8 +14643,9 @@
       <c r="G536" s="3">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H536" s="3"/>
+    </row>
+    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537" s="1" t="s">
         <v>5</v>
       </c>
@@ -13717,8 +14667,9 @@
       <c r="G537" s="3">
         <v>12.1</v>
       </c>
-    </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H537" s="3"/>
+    </row>
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="s">
         <v>5</v>
       </c>
@@ -13740,8 +14691,9 @@
       <c r="G538" s="3">
         <v>13.8</v>
       </c>
-    </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H538" s="3"/>
+    </row>
+    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="s">
         <v>5</v>
       </c>
@@ -13763,8 +14715,9 @@
       <c r="G539" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H539" s="3"/>
+    </row>
+    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540" s="3" t="s">
         <v>5</v>
       </c>
@@ -13786,8 +14739,9 @@
       <c r="G540" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H540" s="3"/>
+    </row>
+    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
         <v>5</v>
       </c>
@@ -13809,8 +14763,9 @@
       <c r="G541" s="3">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H541" s="3"/>
+    </row>
+    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
         <v>5</v>
       </c>
@@ -13832,8 +14787,9 @@
       <c r="G542" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H542" s="3"/>
+    </row>
+    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
         <v>5</v>
       </c>
@@ -13855,8 +14811,9 @@
       <c r="G543" s="3">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H543" s="3"/>
+    </row>
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="s">
         <v>5</v>
       </c>
@@ -13878,8 +14835,9 @@
       <c r="G544" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H544" s="3"/>
+    </row>
+    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="s">
         <v>5</v>
       </c>
@@ -13901,8 +14859,9 @@
       <c r="G545" s="3">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H545" s="3"/>
+    </row>
+    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546" s="3" t="s">
         <v>5</v>
       </c>
@@ -13924,8 +14883,9 @@
       <c r="G546" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H546" s="3"/>
+    </row>
+    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="s">
         <v>5</v>
       </c>
@@ -13947,8 +14907,9 @@
       <c r="G547" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H547" s="3"/>
+    </row>
+    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
         <v>5</v>
       </c>
@@ -13970,8 +14931,9 @@
       <c r="G548" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H548" s="3"/>
+    </row>
+    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A549" s="1" t="s">
         <v>5</v>
       </c>
@@ -13993,8 +14955,9 @@
       <c r="G549" s="3">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H549" s="3"/>
+    </row>
+    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
         <v>5</v>
       </c>
@@ -14016,8 +14979,9 @@
       <c r="G550" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H550" s="3"/>
+    </row>
+    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A551" s="1" t="s">
         <v>5</v>
       </c>
@@ -14039,8 +15003,9 @@
       <c r="G551" s="3">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H551" s="3"/>
+    </row>
+    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A552" s="3" t="s">
         <v>5</v>
       </c>
@@ -14062,8 +15027,9 @@
       <c r="G552" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H552" s="3"/>
+    </row>
+    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A553" s="1" t="s">
         <v>5</v>
       </c>
@@ -14085,8 +15051,9 @@
       <c r="G553" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H553" s="3"/>
+    </row>
+    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A554" s="1" t="s">
         <v>5</v>
       </c>
@@ -14108,8 +15075,9 @@
       <c r="G554" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H554" s="3"/>
+    </row>
+    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A555" s="1" t="s">
         <v>5</v>
       </c>
@@ -14131,8 +15099,9 @@
       <c r="G555" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H555" s="3"/>
+    </row>
+    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A556" s="1" t="s">
         <v>5</v>
       </c>
@@ -14154,8 +15123,9 @@
       <c r="G556" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H556" s="3"/>
+    </row>
+    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A557" s="1" t="s">
         <v>5</v>
       </c>
@@ -14177,8 +15147,9 @@
       <c r="G557" s="3">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H557" s="3"/>
+    </row>
+    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A558" s="3" t="s">
         <v>5</v>
       </c>
@@ -14200,8 +15171,9 @@
       <c r="G558" s="3">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H558" s="3"/>
+    </row>
+    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A559" s="1" t="s">
         <v>5</v>
       </c>
@@ -14223,8 +15195,9 @@
       <c r="G559" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H559" s="3"/>
+    </row>
+    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A560" s="1" t="s">
         <v>5</v>
       </c>
@@ -14246,8 +15219,9 @@
       <c r="G560" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H560" s="3"/>
+    </row>
+    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A561" s="1" t="s">
         <v>5</v>
       </c>
@@ -14269,8 +15243,9 @@
       <c r="G561" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H561" s="3"/>
+    </row>
+    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A562" s="1" t="s">
         <v>5</v>
       </c>
@@ -14292,8 +15267,9 @@
       <c r="G562" s="3">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H562" s="3"/>
+    </row>
+    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A563" s="1" t="s">
         <v>5</v>
       </c>
@@ -14315,8 +15291,9 @@
       <c r="G563" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H563" s="3"/>
+    </row>
+    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A564" s="1" t="s">
         <v>5</v>
       </c>
@@ -14338,8 +15315,9 @@
       <c r="G564" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H564" s="3"/>
+    </row>
+    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A565" s="1" t="s">
         <v>5</v>
       </c>
@@ -14361,8 +15339,9 @@
       <c r="G565" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H565" s="3"/>
+    </row>
+    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A566" s="1" t="s">
         <v>5</v>
       </c>
@@ -14384,8 +15363,9 @@
       <c r="G566" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H566" s="3"/>
+    </row>
+    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A567" s="1" t="s">
         <v>5</v>
       </c>
@@ -14407,8 +15387,9 @@
       <c r="G567" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H567" s="3"/>
+    </row>
+    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A568" s="3" t="s">
         <v>5</v>
       </c>
@@ -14430,8 +15411,9 @@
       <c r="G568" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H568" s="3"/>
+    </row>
+    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A569" s="3" t="s">
         <v>5</v>
       </c>
@@ -14453,8 +15435,9 @@
       <c r="G569" s="3">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H569" s="3"/>
+    </row>
+    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A570" s="3" t="s">
         <v>5</v>
       </c>
@@ -14476,8 +15459,9 @@
       <c r="G570" s="3">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H570" s="3"/>
+    </row>
+    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A571" s="3" t="s">
         <v>5</v>
       </c>
@@ -14499,8 +15483,9 @@
       <c r="G571" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H571" s="3"/>
+    </row>
+    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A572" s="3" t="s">
         <v>5</v>
       </c>
@@ -14522,8 +15507,9 @@
       <c r="G572" s="3">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H572" s="3"/>
+    </row>
+    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A573" s="3" t="s">
         <v>5</v>
       </c>
@@ -14545,8 +15531,9 @@
       <c r="G573" s="3">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H573" s="3"/>
+    </row>
+    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A574" s="3" t="s">
         <v>5</v>
       </c>
@@ -14568,8 +15555,9 @@
       <c r="G574" s="3">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H574" s="3"/>
+    </row>
+    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A575" s="3" t="s">
         <v>5</v>
       </c>
@@ -14591,8 +15579,9 @@
       <c r="G575" s="3">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H575" s="3"/>
+    </row>
+    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A576" s="3" t="s">
         <v>5</v>
       </c>
@@ -14614,8 +15603,9 @@
       <c r="G576" s="3">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H576" s="3"/>
+    </row>
+    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A577" s="3" t="s">
         <v>5</v>
       </c>
@@ -14637,8 +15627,9 @@
       <c r="G577" s="3">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H577" s="3"/>
+    </row>
+    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A578" s="3" t="s">
         <v>5</v>
       </c>
@@ -14660,8 +15651,9 @@
       <c r="G578" s="3">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H578" s="3"/>
+    </row>
+    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A579" s="3" t="s">
         <v>5</v>
       </c>
@@ -14683,8 +15675,9 @@
       <c r="G579" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H579" s="3"/>
+    </row>
+    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A580" s="3" t="s">
         <v>5</v>
       </c>
@@ -14706,8 +15699,9 @@
       <c r="G580" s="3">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H580" s="3"/>
+    </row>
+    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A581" s="3" t="s">
         <v>5</v>
       </c>
@@ -14729,8 +15723,9 @@
       <c r="G581" s="3">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H581" s="3"/>
+    </row>
+    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A582" s="3" t="s">
         <v>5</v>
       </c>
@@ -14752,8 +15747,9 @@
       <c r="G582" s="3">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H582" s="3"/>
+    </row>
+    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A583" s="3" t="s">
         <v>5</v>
       </c>
@@ -14775,8 +15771,9 @@
       <c r="G583" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H583" s="3"/>
+    </row>
+    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A584" s="3" t="s">
         <v>5</v>
       </c>
@@ -14798,8 +15795,9 @@
       <c r="G584" s="3">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H584" s="3"/>
+    </row>
+    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A585" s="3" t="s">
         <v>5</v>
       </c>
@@ -14821,8 +15819,9 @@
       <c r="G585" s="3">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H585" s="3"/>
+    </row>
+    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A586" s="3" t="s">
         <v>5</v>
       </c>
@@ -14844,8 +15843,9 @@
       <c r="G586" s="3">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H586" s="3"/>
+    </row>
+    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A587" s="3" t="s">
         <v>5</v>
       </c>
@@ -14867,8 +15867,9 @@
       <c r="G587" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H587" s="3"/>
+    </row>
+    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A588" s="3" t="s">
         <v>5</v>
       </c>
@@ -14890,8 +15891,9 @@
       <c r="G588" s="3">
         <v>15.8</v>
       </c>
-    </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H588" s="3"/>
+    </row>
+    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A589" s="3" t="s">
         <v>5</v>
       </c>
@@ -14913,8 +15915,9 @@
       <c r="G589" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H589" s="3"/>
+    </row>
+    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A590" s="3" t="s">
         <v>5</v>
       </c>
@@ -14936,8 +15939,9 @@
       <c r="G590" s="3">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H590" s="3"/>
+    </row>
+    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A591" s="3" t="s">
         <v>5</v>
       </c>
@@ -14959,8 +15963,9 @@
       <c r="G591" s="3">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H591" s="3"/>
+    </row>
+    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A592" s="3" t="s">
         <v>5</v>
       </c>
@@ -14982,8 +15987,9 @@
       <c r="G592" s="3">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H592" s="3"/>
+    </row>
+    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A593" s="3" t="s">
         <v>5</v>
       </c>
@@ -15005,8 +16011,9 @@
       <c r="G593" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H593" s="3"/>
+    </row>
+    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A594" s="3" t="s">
         <v>5</v>
       </c>
@@ -15028,8 +16035,9 @@
       <c r="G594" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H594" s="3"/>
+    </row>
+    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A595" s="3" t="s">
         <v>5</v>
       </c>
@@ -15051,8 +16059,9 @@
       <c r="G595" s="3">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H595" s="3"/>
+    </row>
+    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A596" s="3" t="s">
         <v>5</v>
       </c>
@@ -15074,8 +16083,9 @@
       <c r="G596" s="3">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H596" s="3"/>
+    </row>
+    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A597" s="3" t="s">
         <v>5</v>
       </c>
@@ -15097,8 +16107,9 @@
       <c r="G597" s="3">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H597" s="3"/>
+    </row>
+    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A598" s="3" t="s">
         <v>5</v>
       </c>
@@ -15120,8 +16131,9 @@
       <c r="G598" s="3">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H598" s="3"/>
+    </row>
+    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A599" s="3" t="s">
         <v>5</v>
       </c>
@@ -15143,8 +16155,9 @@
       <c r="G599" s="3">
         <v>14.9</v>
       </c>
-    </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H599" s="3"/>
+    </row>
+    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A600" s="3" t="s">
         <v>5</v>
       </c>
@@ -15166,8 +16179,9 @@
       <c r="G600" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H600" s="3"/>
+    </row>
+    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A601" s="3" t="s">
         <v>5</v>
       </c>
@@ -15189,8 +16203,9 @@
       <c r="G601" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H601" s="3"/>
+    </row>
+    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A602" s="3" t="s">
         <v>5</v>
       </c>
@@ -15212,8 +16227,9 @@
       <c r="G602" s="3">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H602" s="3"/>
+    </row>
+    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A603" s="3" t="s">
         <v>5</v>
       </c>
@@ -15235,8 +16251,9 @@
       <c r="G603" s="3">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H603" s="3"/>
+    </row>
+    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A604" s="3" t="s">
         <v>5</v>
       </c>
@@ -15258,8 +16275,9 @@
       <c r="G604" s="3">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H604" s="3"/>
+    </row>
+    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A605" s="3" t="s">
         <v>5</v>
       </c>
@@ -15281,8 +16299,9 @@
       <c r="G605" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H605" s="3"/>
+    </row>
+    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A606" s="3" t="s">
         <v>5</v>
       </c>
@@ -15304,8 +16323,9 @@
       <c r="G606" s="3">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H606" s="3"/>
+    </row>
+    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A607" s="3" t="s">
         <v>5</v>
       </c>
@@ -15327,8 +16347,9 @@
       <c r="G607" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H607" s="3"/>
+    </row>
+    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A608" s="3" t="s">
         <v>5</v>
       </c>
@@ -15350,8 +16371,9 @@
       <c r="G608" s="3">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H608" s="3"/>
+    </row>
+    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A609" s="3" t="s">
         <v>5</v>
       </c>
@@ -15373,8 +16395,9 @@
       <c r="G609" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H609" s="3"/>
+    </row>
+    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A610" s="3" t="s">
         <v>5</v>
       </c>
@@ -15396,8 +16419,9 @@
       <c r="G610" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H610" s="3"/>
+    </row>
+    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A611" s="3" t="s">
         <v>5</v>
       </c>
@@ -15419,8 +16443,9 @@
       <c r="G611" s="3">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H611" s="3"/>
+    </row>
+    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A612" s="3" t="s">
         <v>5</v>
       </c>
@@ -15442,8 +16467,9 @@
       <c r="G612" s="3">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H612" s="3"/>
+    </row>
+    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A613" s="3" t="s">
         <v>5</v>
       </c>
@@ -15465,8 +16491,9 @@
       <c r="G613" s="3">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H613" s="3"/>
+    </row>
+    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A614" s="3" t="s">
         <v>5</v>
       </c>
@@ -15488,8 +16515,9 @@
       <c r="G614" s="3">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H614" s="3"/>
+    </row>
+    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A615" s="3" t="s">
         <v>5</v>
       </c>
@@ -15511,8 +16539,9 @@
       <c r="G615" s="3">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H615" s="3"/>
+    </row>
+    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A616" s="3" t="s">
         <v>5</v>
       </c>
@@ -15534,8 +16563,9 @@
       <c r="G616" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H616" s="3"/>
+    </row>
+    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A617" s="3" t="s">
         <v>5</v>
       </c>
@@ -15557,8 +16587,9 @@
       <c r="G617" s="3">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H617" s="3"/>
+    </row>
+    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A618" s="3" t="s">
         <v>5</v>
       </c>
@@ -15580,8 +16611,9 @@
       <c r="G618" s="3">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H618" s="3"/>
+    </row>
+    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A619" s="3" t="s">
         <v>5</v>
       </c>
@@ -15603,8 +16635,9 @@
       <c r="G619" s="3">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H619" s="3"/>
+    </row>
+    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A620" s="3" t="s">
         <v>5</v>
       </c>
@@ -15626,8 +16659,9 @@
       <c r="G620" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H620" s="3"/>
+    </row>
+    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A621" s="3" t="s">
         <v>5</v>
       </c>
@@ -15649,8 +16683,9 @@
       <c r="G621" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H621" s="3"/>
+    </row>
+    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A622" s="3" t="s">
         <v>5</v>
       </c>
@@ -15672,8 +16707,9 @@
       <c r="G622" s="3">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H622" s="3"/>
+    </row>
+    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A623" s="3" t="s">
         <v>5</v>
       </c>
@@ -15695,8 +16731,9 @@
       <c r="G623" s="3">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H623" s="3"/>
+    </row>
+    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A624" s="3" t="s">
         <v>5</v>
       </c>
@@ -15718,8 +16755,9 @@
       <c r="G624" s="3">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H624" s="3"/>
+    </row>
+    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A625" s="3" t="s">
         <v>5</v>
       </c>
@@ -15741,8 +16779,9 @@
       <c r="G625" s="3">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H625" s="3"/>
+    </row>
+    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A626" s="3" t="s">
         <v>5</v>
       </c>
@@ -15764,8 +16803,9 @@
       <c r="G626" s="3">
         <v>17.2</v>
       </c>
-    </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H626" s="3"/>
+    </row>
+    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A627" s="3" t="s">
         <v>5</v>
       </c>
@@ -15787,8 +16827,9 @@
       <c r="G627" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H627" s="3"/>
+    </row>
+    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A628" s="3" t="s">
         <v>5</v>
       </c>
@@ -15810,8 +16851,9 @@
       <c r="G628" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H628" s="3"/>
+    </row>
+    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A629" s="3" t="s">
         <v>5</v>
       </c>
@@ -15833,8 +16875,9 @@
       <c r="G629" s="3">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H629" s="3"/>
+    </row>
+    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A630" s="3" t="s">
         <v>5</v>
       </c>
@@ -15856,8 +16899,9 @@
       <c r="G630" s="3">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H630" s="3"/>
+    </row>
+    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A631" s="3" t="s">
         <v>5</v>
       </c>
@@ -15879,8 +16923,9 @@
       <c r="G631" s="3">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H631" s="3"/>
+    </row>
+    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A632" s="3" t="s">
         <v>5</v>
       </c>
@@ -15902,8 +16947,9 @@
       <c r="G632" s="3">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H632" s="3"/>
+    </row>
+    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A633" s="3" t="s">
         <v>5</v>
       </c>
@@ -15925,8 +16971,9 @@
       <c r="G633" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H633" s="3"/>
+    </row>
+    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A634" s="3" t="s">
         <v>5</v>
       </c>
@@ -15948,8 +16995,9 @@
       <c r="G634" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H634" s="3"/>
+    </row>
+    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A635" s="3" t="s">
         <v>5</v>
       </c>
@@ -15971,8 +17019,9 @@
       <c r="G635" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H635" s="3"/>
+    </row>
+    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A636" s="3" t="s">
         <v>5</v>
       </c>
@@ -15994,8 +17043,9 @@
       <c r="G636" s="3">
         <v>12.1</v>
       </c>
-    </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H636" s="3"/>
+    </row>
+    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A637" s="3" t="s">
         <v>5</v>
       </c>
@@ -16017,8 +17067,9 @@
       <c r="G637" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H637" s="3"/>
+    </row>
+    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A638" s="3" t="s">
         <v>5</v>
       </c>
@@ -16040,8 +17091,9 @@
       <c r="G638" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H638" s="3"/>
+    </row>
+    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A639" s="3" t="s">
         <v>5</v>
       </c>
@@ -16063,8 +17115,9 @@
       <c r="G639" s="3">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H639" s="3"/>
+    </row>
+    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A640" s="3" t="s">
         <v>5</v>
       </c>
@@ -16086,8 +17139,9 @@
       <c r="G640" s="3">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H640" s="3"/>
+    </row>
+    <row r="641" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A641" s="3" t="s">
         <v>5</v>
       </c>
@@ -16109,8 +17163,9 @@
       <c r="G641" s="3">
         <v>12.1</v>
       </c>
-    </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H641" s="3"/>
+    </row>
+    <row r="642" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A642" s="3" t="s">
         <v>5</v>
       </c>
@@ -16132,8 +17187,9 @@
       <c r="G642" s="3">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H642" s="3"/>
+    </row>
+    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A643" s="3" t="s">
         <v>5</v>
       </c>
@@ -16155,8 +17211,9 @@
       <c r="G643" s="3">
         <v>16.2</v>
       </c>
-    </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H643" s="3"/>
+    </row>
+    <row r="644" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A644" s="3" t="s">
         <v>5</v>
       </c>
@@ -16178,8 +17235,9 @@
       <c r="G644" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H644" s="3"/>
+    </row>
+    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A645" s="3" t="s">
         <v>5</v>
       </c>
@@ -16201,8 +17259,9 @@
       <c r="G645" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H645" s="3"/>
+    </row>
+    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A646" s="3" t="s">
         <v>5</v>
       </c>
@@ -16224,8 +17283,9 @@
       <c r="G646" s="3">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H646" s="3"/>
+    </row>
+    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A647" s="3" t="s">
         <v>5</v>
       </c>
@@ -16247,8 +17307,9 @@
       <c r="G647" s="3">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H647" s="3"/>
+    </row>
+    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A648" s="3" t="s">
         <v>5</v>
       </c>
@@ -16270,8 +17331,9 @@
       <c r="G648" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H648" s="3"/>
+    </row>
+    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A649" s="3" t="s">
         <v>5</v>
       </c>
@@ -16293,8 +17355,9 @@
       <c r="G649" s="3">
         <v>13.8</v>
       </c>
-    </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H649" s="3"/>
+    </row>
+    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A650" s="3" t="s">
         <v>5</v>
       </c>
@@ -16316,8 +17379,9 @@
       <c r="G650" s="3">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H650" s="3"/>
+    </row>
+    <row r="651" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A651" s="3" t="s">
         <v>5</v>
       </c>
@@ -16339,8 +17403,9 @@
       <c r="G651" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="652" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H651" s="3"/>
+    </row>
+    <row r="652" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A652" s="3" t="s">
         <v>5</v>
       </c>
@@ -16362,8 +17427,9 @@
       <c r="G652" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H652" s="3"/>
+    </row>
+    <row r="653" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A653" s="3" t="s">
         <v>5</v>
       </c>
@@ -16385,8 +17451,9 @@
       <c r="G653" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H653" s="3"/>
+    </row>
+    <row r="654" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A654" s="3" t="s">
         <v>5</v>
       </c>
@@ -16408,8 +17475,9 @@
       <c r="G654" s="3">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="655" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H654" s="3"/>
+    </row>
+    <row r="655" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A655" s="3" t="s">
         <v>5</v>
       </c>
@@ -16431,8 +17499,9 @@
       <c r="G655" s="3">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H655" s="3"/>
+    </row>
+    <row r="656" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A656" s="3" t="s">
         <v>5</v>
       </c>
@@ -16454,8 +17523,9 @@
       <c r="G656" s="3">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H656" s="3"/>
+    </row>
+    <row r="657" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A657" s="3" t="s">
         <v>5</v>
       </c>
@@ -16477,8 +17547,9 @@
       <c r="G657" s="3">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H657" s="3"/>
+    </row>
+    <row r="658" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A658" s="3" t="s">
         <v>5</v>
       </c>
@@ -16500,8 +17571,9 @@
       <c r="G658" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H658" s="3"/>
+    </row>
+    <row r="659" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A659" s="3" t="s">
         <v>5</v>
       </c>
@@ -16523,8 +17595,9 @@
       <c r="G659" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H659" s="3"/>
+    </row>
+    <row r="660" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A660" s="3" t="s">
         <v>5</v>
       </c>
@@ -16546,8 +17619,9 @@
       <c r="G660" s="3">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H660" s="3"/>
+    </row>
+    <row r="661" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A661" s="3" t="s">
         <v>5</v>
       </c>
@@ -16569,8 +17643,9 @@
       <c r="G661" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H661" s="3"/>
+    </row>
+    <row r="662" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A662" s="3" t="s">
         <v>5</v>
       </c>
@@ -16592,8 +17667,9 @@
       <c r="G662" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H662" s="3"/>
+    </row>
+    <row r="663" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A663" s="3" t="s">
         <v>5</v>
       </c>
@@ -16615,8 +17691,9 @@
       <c r="G663" s="3">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H663" s="3"/>
+    </row>
+    <row r="664" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A664" s="3" t="s">
         <v>5</v>
       </c>
@@ -16638,8 +17715,9 @@
       <c r="G664" s="3">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H664" s="3"/>
+    </row>
+    <row r="665" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A665" s="3" t="s">
         <v>5</v>
       </c>
@@ -16661,8 +17739,9 @@
       <c r="G665" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H665" s="3"/>
+    </row>
+    <row r="666" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A666" s="3" t="s">
         <v>5</v>
       </c>
@@ -16684,8 +17763,9 @@
       <c r="G666" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H666" s="3"/>
+    </row>
+    <row r="667" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A667" s="3" t="s">
         <v>5</v>
       </c>
@@ -16707,8 +17787,9 @@
       <c r="G667" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H667" s="3"/>
+    </row>
+    <row r="668" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A668" s="3" t="s">
         <v>5</v>
       </c>
@@ -16730,8 +17811,9 @@
       <c r="G668" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H668" s="3"/>
+    </row>
+    <row r="669" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A669" s="3" t="s">
         <v>5</v>
       </c>
@@ -16753,8 +17835,9 @@
       <c r="G669" s="3">
         <v>9.8000000000000007</v>
       </c>
-    </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H669" s="3"/>
+    </row>
+    <row r="670" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A670" s="3" t="s">
         <v>5</v>
       </c>
@@ -16776,8 +17859,9 @@
       <c r="G670" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H670" s="3"/>
+    </row>
+    <row r="671" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A671" s="3" t="s">
         <v>5</v>
       </c>
@@ -16799,8 +17883,9 @@
       <c r="G671" s="3">
         <v>12.9</v>
       </c>
-    </row>
-    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H671" s="3"/>
+    </row>
+    <row r="672" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A672" s="3" t="s">
         <v>5</v>
       </c>
@@ -16822,8 +17907,9 @@
       <c r="G672" s="3">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="673" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H672" s="3"/>
+    </row>
+    <row r="673" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A673" s="3" t="s">
         <v>5</v>
       </c>
@@ -16845,78 +17931,79 @@
       <c r="G673" s="3">
         <v>15.1</v>
       </c>
-    </row>
-    <row r="674" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H673" s="3"/>
+    </row>
+    <row r="674" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A674" s="3"/>
       <c r="B674" s="2"/>
       <c r="C674" s="3"/>
       <c r="D674" s="3"/>
       <c r="E674" s="3"/>
     </row>
-    <row r="675" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A675" s="3"/>
       <c r="B675" s="2"/>
       <c r="C675" s="3"/>
       <c r="D675" s="3"/>
       <c r="E675" s="3"/>
     </row>
-    <row r="676" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A676" s="3"/>
       <c r="B676" s="2"/>
       <c r="C676" s="3"/>
       <c r="D676" s="3"/>
       <c r="E676" s="3"/>
     </row>
-    <row r="677" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A677" s="3"/>
       <c r="B677" s="2"/>
       <c r="C677" s="3"/>
       <c r="D677" s="3"/>
       <c r="E677" s="3"/>
     </row>
-    <row r="678" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A678" s="3"/>
       <c r="B678" s="2"/>
       <c r="C678" s="3"/>
       <c r="D678" s="3"/>
       <c r="E678" s="3"/>
     </row>
-    <row r="679" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A679" s="3"/>
       <c r="B679" s="2"/>
       <c r="C679" s="3"/>
       <c r="D679" s="3"/>
       <c r="E679" s="3"/>
     </row>
-    <row r="680" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A680" s="3"/>
       <c r="B680" s="2"/>
       <c r="C680" s="3"/>
       <c r="D680" s="3"/>
       <c r="E680" s="3"/>
     </row>
-    <row r="681" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A681" s="3"/>
       <c r="B681" s="2"/>
       <c r="C681" s="3"/>
       <c r="D681" s="3"/>
       <c r="E681" s="3"/>
     </row>
-    <row r="682" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A682" s="3"/>
       <c r="B682" s="2"/>
       <c r="C682" s="3"/>
       <c r="D682" s="3"/>
       <c r="E682" s="3"/>
     </row>
-    <row r="683" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A683" s="3"/>
       <c r="B683" s="2"/>
       <c r="C683" s="3"/>
       <c r="D683" s="3"/>
       <c r="E683" s="3"/>
     </row>
-    <row r="684" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A684" s="3"/>
       <c r="B684" s="2"/>
       <c r="C684" s="3"/>

--- a/raw_data/pv_curves.xlsx
+++ b/raw_data/pv_curves.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2385" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2772" uniqueCount="34">
   <si>
     <t>species</t>
   </si>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t>dry_mass_g</t>
+  </si>
+  <si>
+    <t>cyclopeltis_semicordata</t>
+  </si>
+  <si>
+    <t>mickelia_nicotianifolia</t>
   </si>
 </sst>
 </file>
@@ -482,11 +488,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P684"/>
+  <dimension ref="A1:P810"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A664" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C467" sqref="C467:D470"/>
+      <pane ySplit="1" topLeftCell="A781" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H800" sqref="H800"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17917,7 +17923,7 @@
         <v>43015</v>
       </c>
       <c r="C673" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D673" s="3" t="s">
         <v>11</v>
@@ -17934,81 +17940,2873 @@
       <c r="H673" s="3"/>
     </row>
     <row r="674" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A674" s="3"/>
-      <c r="B674" s="2"/>
-      <c r="C674" s="3"/>
-      <c r="D674" s="3"/>
-      <c r="E674" s="3"/>
+      <c r="A674" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B674" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C674" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D674" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E674" s="3">
+        <v>1</v>
+      </c>
+      <c r="F674" s="3">
+        <v>1.8165</v>
+      </c>
+      <c r="G674" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="675" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A675" s="3"/>
-      <c r="B675" s="2"/>
-      <c r="C675" s="3"/>
-      <c r="D675" s="3"/>
-      <c r="E675" s="3"/>
+      <c r="A675" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B675" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C675" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D675" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E675" s="3">
+        <v>1</v>
+      </c>
+      <c r="F675" s="3">
+        <v>1.786</v>
+      </c>
+      <c r="G675" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="676" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A676" s="3"/>
-      <c r="B676" s="2"/>
-      <c r="C676" s="3"/>
-      <c r="D676" s="3"/>
-      <c r="E676" s="3"/>
+      <c r="A676" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B676" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C676" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D676" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E676" s="3">
+        <v>1</v>
+      </c>
+      <c r="F676" s="3">
+        <v>1.7697000000000001</v>
+      </c>
+      <c r="G676" s="3">
+        <v>2.2999999999999998</v>
+      </c>
     </row>
     <row r="677" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A677" s="3"/>
-      <c r="B677" s="2"/>
-      <c r="C677" s="3"/>
-      <c r="D677" s="3"/>
-      <c r="E677" s="3"/>
+      <c r="A677" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B677" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C677" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D677" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E677" s="3">
+        <v>1</v>
+      </c>
+      <c r="F677" s="3">
+        <v>1.7468999999999999</v>
+      </c>
+      <c r="G677" s="3">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="678" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A678" s="3"/>
-      <c r="B678" s="2"/>
-      <c r="C678" s="3"/>
-      <c r="D678" s="3"/>
-      <c r="E678" s="3"/>
+      <c r="A678" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B678" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C678" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D678" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E678" s="3">
+        <v>1</v>
+      </c>
+      <c r="F678" s="3">
+        <v>1.7351000000000001</v>
+      </c>
+      <c r="G678" s="3">
+        <v>4.9000000000000004</v>
+      </c>
     </row>
     <row r="679" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A679" s="3"/>
-      <c r="B679" s="2"/>
-      <c r="C679" s="3"/>
-      <c r="D679" s="3"/>
-      <c r="E679" s="3"/>
+      <c r="A679" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B679" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C679" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D679" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E679" s="3">
+        <v>1</v>
+      </c>
+      <c r="F679" s="3">
+        <v>1.7222</v>
+      </c>
+      <c r="G679" s="3">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="680" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A680" s="3"/>
-      <c r="B680" s="2"/>
-      <c r="C680" s="3"/>
-      <c r="D680" s="3"/>
-      <c r="E680" s="3"/>
+      <c r="A680" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B680" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C680" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D680" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E680" s="3">
+        <v>1</v>
+      </c>
+      <c r="F680" s="3">
+        <v>1.7124999999999999</v>
+      </c>
+      <c r="G680" s="3">
+        <v>9</v>
+      </c>
     </row>
     <row r="681" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A681" s="3"/>
-      <c r="B681" s="2"/>
-      <c r="C681" s="3"/>
-      <c r="D681" s="3"/>
-      <c r="E681" s="3"/>
+      <c r="A681" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B681" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C681" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D681" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E681" s="3">
+        <v>1</v>
+      </c>
+      <c r="F681" s="3">
+        <v>1.6994</v>
+      </c>
+      <c r="G681" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="682" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A682" s="3"/>
-      <c r="B682" s="2"/>
-      <c r="C682" s="3"/>
-      <c r="D682" s="3"/>
-      <c r="E682" s="3"/>
+      <c r="A682" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B682" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C682" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D682" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E682" s="3">
+        <v>1</v>
+      </c>
+      <c r="F682" s="3">
+        <v>0.69230000000000003</v>
+      </c>
+      <c r="G682" s="3">
+        <v>13.4</v>
+      </c>
     </row>
     <row r="683" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A683" s="3"/>
-      <c r="B683" s="2"/>
-      <c r="C683" s="3"/>
-      <c r="D683" s="3"/>
-      <c r="E683" s="3"/>
+      <c r="A683" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B683" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C683" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D683" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E683" s="3">
+        <v>1</v>
+      </c>
+      <c r="F683" s="3">
+        <v>1.6323000000000001</v>
+      </c>
+      <c r="G683" s="3">
+        <v>14.8</v>
+      </c>
     </row>
     <row r="684" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A684" s="3"/>
-      <c r="B684" s="2"/>
-      <c r="C684" s="3"/>
-      <c r="D684" s="3"/>
-      <c r="E684" s="3"/>
+      <c r="A684" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B684" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C684" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D684" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E684" s="3">
+        <v>1</v>
+      </c>
+      <c r="F684" s="3">
+        <v>1.6074999999999999</v>
+      </c>
+      <c r="G684" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="685" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A685" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B685" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C685" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D685" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E685" s="3">
+        <v>2</v>
+      </c>
+      <c r="F685" s="3">
+        <v>1.8046</v>
+      </c>
+      <c r="G685" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="686" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A686" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B686" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C686" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D686" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E686" s="3">
+        <v>2</v>
+      </c>
+      <c r="F686" s="3">
+        <v>1.7798</v>
+      </c>
+      <c r="G686" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A687" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B687" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C687" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D687" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E687" s="3">
+        <v>2</v>
+      </c>
+      <c r="F687" s="3">
+        <v>1.7661</v>
+      </c>
+      <c r="G687" s="3">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="688" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A688" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B688" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C688" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D688" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E688" s="3">
+        <v>2</v>
+      </c>
+      <c r="F688" s="3">
+        <v>1.7155</v>
+      </c>
+      <c r="G688" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="689" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A689" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B689" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C689" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D689" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E689" s="3">
+        <v>2</v>
+      </c>
+      <c r="F689" s="3">
+        <v>1.7094</v>
+      </c>
+      <c r="G689" s="3">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="690" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A690" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B690" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C690" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D690" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E690" s="3">
+        <v>2</v>
+      </c>
+      <c r="F690" s="3">
+        <v>1.6989000000000001</v>
+      </c>
+      <c r="G690" s="3">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="691" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A691" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B691" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C691" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D691" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E691" s="3">
+        <v>2</v>
+      </c>
+      <c r="F691" s="3">
+        <v>1.6912</v>
+      </c>
+      <c r="G691" s="3">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="692" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A692" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B692" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C692" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D692" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E692" s="3">
+        <v>2</v>
+      </c>
+      <c r="F692" s="3">
+        <v>1.6855</v>
+      </c>
+      <c r="G692" s="3">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="693" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A693" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B693" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C693" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D693" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E693" s="3">
+        <v>2</v>
+      </c>
+      <c r="F693" s="3">
+        <v>1.6762999999999999</v>
+      </c>
+      <c r="G693" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="694" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A694" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B694" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C694" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D694" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E694" s="3">
+        <v>2</v>
+      </c>
+      <c r="F694" s="3">
+        <v>1.6577</v>
+      </c>
+      <c r="G694" s="3">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="695" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A695" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B695" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C695" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D695" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E695" s="3">
+        <v>2</v>
+      </c>
+      <c r="F695" s="3">
+        <v>1.6398999999999999</v>
+      </c>
+      <c r="G695" s="3">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="696" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A696" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B696" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C696" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D696" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E696" s="3">
+        <v>2</v>
+      </c>
+      <c r="F696" s="3">
+        <v>1.6304000000000001</v>
+      </c>
+      <c r="G696" s="3">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="697" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A697" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B697" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C697" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D697" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E697" s="3">
+        <v>2</v>
+      </c>
+      <c r="F697" s="3">
+        <v>1.5028999999999999</v>
+      </c>
+      <c r="G697" s="3">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="698" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A698" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B698" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C698" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D698" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E698" s="3">
+        <v>3</v>
+      </c>
+      <c r="F698" s="3">
+        <v>4.0877999999999997</v>
+      </c>
+      <c r="G698" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="699" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A699" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B699" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C699" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D699" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E699" s="3">
+        <v>3</v>
+      </c>
+      <c r="F699" s="3">
+        <v>4.0572999999999997</v>
+      </c>
+      <c r="G699" s="3">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="700" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A700" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B700" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C700" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D700" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E700" s="3">
+        <v>3</v>
+      </c>
+      <c r="F700" s="3">
+        <v>4.0373000000000001</v>
+      </c>
+      <c r="G700" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="701" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A701" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B701" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C701" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D701" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E701" s="3">
+        <v>3</v>
+      </c>
+      <c r="F701" s="3">
+        <v>4.0237999999999996</v>
+      </c>
+      <c r="G701" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="702" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A702" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B702" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C702" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D702" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E702" s="3">
+        <v>3</v>
+      </c>
+      <c r="F702" s="3">
+        <v>4.0101000000000004</v>
+      </c>
+      <c r="G702" s="3">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="703" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A703" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B703" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C703" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D703" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E703" s="3">
+        <v>3</v>
+      </c>
+      <c r="F703" s="3">
+        <v>3.9937999999999998</v>
+      </c>
+      <c r="G703" s="3">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="704" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A704" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B704" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C704" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D704" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E704" s="3">
+        <v>3</v>
+      </c>
+      <c r="F704" s="3">
+        <v>3.9735</v>
+      </c>
+      <c r="G704" s="3">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="705" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A705" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B705" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C705" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D705" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E705" s="3">
+        <v>3</v>
+      </c>
+      <c r="F705" s="3">
+        <v>3.9571000000000001</v>
+      </c>
+      <c r="G705" s="3">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="706" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A706" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B706" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C706" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D706" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E706" s="3">
+        <v>3</v>
+      </c>
+      <c r="F706" s="3">
+        <v>3.9449999999999998</v>
+      </c>
+      <c r="G706" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="707" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A707" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B707" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C707" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D707" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E707" s="3">
+        <v>3</v>
+      </c>
+      <c r="F707" s="3">
+        <v>3.9062999999999999</v>
+      </c>
+      <c r="G707" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A708" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B708" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C708" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D708" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E708" s="3">
+        <v>3</v>
+      </c>
+      <c r="F708" s="3">
+        <v>3.8473000000000002</v>
+      </c>
+      <c r="G708" s="3">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="709" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A709" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B709" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C709" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D709" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E709" s="3">
+        <v>4</v>
+      </c>
+      <c r="F709" s="3">
+        <v>1.8837999999999999</v>
+      </c>
+      <c r="G709" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="710" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A710" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B710" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C710" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D710" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E710" s="3">
+        <v>4</v>
+      </c>
+      <c r="F710" s="3">
+        <v>1.8691</v>
+      </c>
+      <c r="G710" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="711" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A711" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B711" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C711" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D711" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E711" s="3">
+        <v>4</v>
+      </c>
+      <c r="F711" s="3">
+        <v>1.8625</v>
+      </c>
+      <c r="G711" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="712" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A712" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B712" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C712" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D712" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E712" s="3">
+        <v>4</v>
+      </c>
+      <c r="F712" s="3">
+        <v>1.8562000000000001</v>
+      </c>
+      <c r="G712" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="713" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A713" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B713" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C713" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D713" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E713" s="3">
+        <v>4</v>
+      </c>
+      <c r="F713" s="3">
+        <v>1.8502000000000001</v>
+      </c>
+      <c r="G713" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="714" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A714" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B714" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C714" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D714" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E714" s="3">
+        <v>4</v>
+      </c>
+      <c r="F714" s="3">
+        <v>1.8127</v>
+      </c>
+      <c r="G714" s="3">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="715" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A715" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B715" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C715" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D715" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E715" s="3">
+        <v>4</v>
+      </c>
+      <c r="F715" s="3">
+        <v>1.7844</v>
+      </c>
+      <c r="G715" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="716" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A716" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B716" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C716" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D716" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E716" s="3">
+        <v>4</v>
+      </c>
+      <c r="F716" s="3">
+        <v>1.6883999999999999</v>
+      </c>
+      <c r="G716" s="3">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="717" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A717" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B717" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C717" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D717" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E717" s="3">
+        <v>5</v>
+      </c>
+      <c r="F717" s="3">
+        <v>1.4443999999999999</v>
+      </c>
+      <c r="G717" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="718" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A718" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B718" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C718" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D718" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E718" s="3">
+        <v>5</v>
+      </c>
+      <c r="F718" s="3">
+        <v>1.4046000000000001</v>
+      </c>
+      <c r="G718" s="3">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="719" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A719" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B719" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C719" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D719" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E719" s="3">
+        <v>5</v>
+      </c>
+      <c r="F719" s="3">
+        <v>1.3775999999999999</v>
+      </c>
+      <c r="G719" s="3">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="720" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A720" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B720" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C720" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D720" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E720" s="3">
+        <v>5</v>
+      </c>
+      <c r="F720" s="3">
+        <v>1.3513999999999999</v>
+      </c>
+      <c r="G720" s="3">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="721" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A721" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B721" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C721" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D721" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E721" s="3">
+        <v>5</v>
+      </c>
+      <c r="F721" s="3">
+        <v>1.2968999999999999</v>
+      </c>
+      <c r="G721" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="722" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A722" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B722" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C722" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D722" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E722" s="3">
+        <v>5</v>
+      </c>
+      <c r="F722" s="3">
+        <v>1.2763</v>
+      </c>
+      <c r="G722" s="3">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="723" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A723" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B723" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C723" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D723" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E723" s="3">
+        <v>5</v>
+      </c>
+      <c r="F723" s="3">
+        <v>1.2521</v>
+      </c>
+      <c r="G723" s="3">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="724" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A724" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B724" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C724" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D724" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E724" s="3">
+        <v>5</v>
+      </c>
+      <c r="F724" s="3">
+        <v>1.2172000000000001</v>
+      </c>
+      <c r="G724" s="3">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="725" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A725" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B725" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C725" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D725" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E725" s="3">
+        <v>5</v>
+      </c>
+      <c r="F725" s="3">
+        <v>1.1617999999999999</v>
+      </c>
+      <c r="G725" s="3">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="726" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A726" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B726" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C726" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D726" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E726" s="3">
+        <v>6</v>
+      </c>
+      <c r="F726" s="3">
+        <v>1.23</v>
+      </c>
+      <c r="G726" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="727" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A727" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B727" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C727" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D727" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E727" s="3">
+        <v>6</v>
+      </c>
+      <c r="F727" s="3">
+        <v>1.2170000000000001</v>
+      </c>
+      <c r="G727" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="728" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A728" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B728" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C728" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D728" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E728" s="3">
+        <v>6</v>
+      </c>
+      <c r="F728" s="3">
+        <v>1.2128000000000001</v>
+      </c>
+      <c r="G728" s="3">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="729" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A729" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B729" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C729" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D729" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E729" s="3">
+        <v>6</v>
+      </c>
+      <c r="F729" s="3">
+        <v>1.2091000000000001</v>
+      </c>
+      <c r="G729" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="730" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A730" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B730" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C730" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D730" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E730" s="3">
+        <v>6</v>
+      </c>
+      <c r="F730" s="3">
+        <v>1.2049000000000001</v>
+      </c>
+      <c r="G730" s="3">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="731" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A731" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B731" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C731" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D731" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E731" s="3">
+        <v>6</v>
+      </c>
+      <c r="F731" s="3">
+        <v>1.1991000000000001</v>
+      </c>
+      <c r="G731" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="732" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A732" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B732" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C732" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D732" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E732" s="3">
+        <v>6</v>
+      </c>
+      <c r="F732" s="3">
+        <v>1.1944999999999999</v>
+      </c>
+      <c r="G732" s="3">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="733" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A733" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B733" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C733" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D733" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E733" s="3">
+        <v>6</v>
+      </c>
+      <c r="F733" s="3">
+        <v>1.1909000000000001</v>
+      </c>
+      <c r="G733" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="734" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A734" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B734" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C734" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D734" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E734" s="3">
+        <v>6</v>
+      </c>
+      <c r="F734" s="3">
+        <v>1.1861999999999999</v>
+      </c>
+      <c r="G734" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="735" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A735" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B735" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C735" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D735" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E735" s="3">
+        <v>6</v>
+      </c>
+      <c r="F735" s="3">
+        <v>1.1587000000000001</v>
+      </c>
+      <c r="G735" s="3">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="736" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A736" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B736" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C736" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D736" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E736" s="3">
+        <v>6</v>
+      </c>
+      <c r="F736" s="3">
+        <v>1.1501999999999999</v>
+      </c>
+      <c r="G736" s="3">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="737" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A737" t="s">
+        <v>5</v>
+      </c>
+      <c r="B737" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C737" t="s">
+        <v>32</v>
+      </c>
+      <c r="D737" t="s">
+        <v>11</v>
+      </c>
+      <c r="E737">
+        <v>2</v>
+      </c>
+      <c r="F737" s="3">
+        <v>1.1899299999999999</v>
+      </c>
+      <c r="G737" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="738" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A738" t="s">
+        <v>5</v>
+      </c>
+      <c r="B738" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C738" t="s">
+        <v>32</v>
+      </c>
+      <c r="D738" t="s">
+        <v>11</v>
+      </c>
+      <c r="E738">
+        <v>2</v>
+      </c>
+      <c r="F738" s="3">
+        <v>1.8777999999999999</v>
+      </c>
+      <c r="G738" s="3">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="739" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A739" t="s">
+        <v>5</v>
+      </c>
+      <c r="B739" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C739" t="s">
+        <v>32</v>
+      </c>
+      <c r="D739" t="s">
+        <v>11</v>
+      </c>
+      <c r="E739">
+        <v>2</v>
+      </c>
+      <c r="F739" s="3">
+        <v>1.8305</v>
+      </c>
+      <c r="G739" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="740" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A740" t="s">
+        <v>5</v>
+      </c>
+      <c r="B740" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C740" t="s">
+        <v>32</v>
+      </c>
+      <c r="D740" t="s">
+        <v>11</v>
+      </c>
+      <c r="E740">
+        <v>2</v>
+      </c>
+      <c r="F740" s="3">
+        <v>1.7944</v>
+      </c>
+      <c r="G740" s="3">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="741" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A741" t="s">
+        <v>5</v>
+      </c>
+      <c r="B741" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C741" t="s">
+        <v>32</v>
+      </c>
+      <c r="D741" t="s">
+        <v>11</v>
+      </c>
+      <c r="E741">
+        <v>2</v>
+      </c>
+      <c r="F741" s="3">
+        <v>1.7594000000000001</v>
+      </c>
+      <c r="G741" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="742" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A742" t="s">
+        <v>5</v>
+      </c>
+      <c r="B742" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C742" t="s">
+        <v>32</v>
+      </c>
+      <c r="D742" t="s">
+        <v>11</v>
+      </c>
+      <c r="E742">
+        <v>2</v>
+      </c>
+      <c r="F742" s="3">
+        <v>1.7366999999999999</v>
+      </c>
+      <c r="G742" s="3">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="743" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A743" t="s">
+        <v>5</v>
+      </c>
+      <c r="B743" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C743" t="s">
+        <v>32</v>
+      </c>
+      <c r="D743" t="s">
+        <v>11</v>
+      </c>
+      <c r="E743">
+        <v>2</v>
+      </c>
+      <c r="F743" s="3">
+        <v>1.7103999999999999</v>
+      </c>
+      <c r="G743" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="744" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A744" t="s">
+        <v>5</v>
+      </c>
+      <c r="B744" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C744" t="s">
+        <v>32</v>
+      </c>
+      <c r="D744" t="s">
+        <v>11</v>
+      </c>
+      <c r="E744">
+        <v>2</v>
+      </c>
+      <c r="F744" s="3">
+        <v>1.6929000000000001</v>
+      </c>
+      <c r="G744" s="3">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="745" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A745" t="s">
+        <v>5</v>
+      </c>
+      <c r="B745" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C745" t="s">
+        <v>32</v>
+      </c>
+      <c r="D745" t="s">
+        <v>11</v>
+      </c>
+      <c r="E745">
+        <v>2</v>
+      </c>
+      <c r="F745" s="3">
+        <v>1.6563000000000001</v>
+      </c>
+      <c r="G745" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="746" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A746" t="s">
+        <v>5</v>
+      </c>
+      <c r="B746" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C746" t="s">
+        <v>32</v>
+      </c>
+      <c r="D746" t="s">
+        <v>11</v>
+      </c>
+      <c r="E746">
+        <v>2</v>
+      </c>
+      <c r="F746" s="3">
+        <v>1.5820000000000001</v>
+      </c>
+      <c r="G746" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="747" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A747" t="s">
+        <v>5</v>
+      </c>
+      <c r="B747" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C747" t="s">
+        <v>32</v>
+      </c>
+      <c r="D747" t="s">
+        <v>11</v>
+      </c>
+      <c r="E747">
+        <v>3</v>
+      </c>
+      <c r="F747" s="3">
+        <v>1.6458999999999999</v>
+      </c>
+      <c r="G747" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="748" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A748" t="s">
+        <v>5</v>
+      </c>
+      <c r="B748" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C748" t="s">
+        <v>32</v>
+      </c>
+      <c r="D748" t="s">
+        <v>11</v>
+      </c>
+      <c r="E748">
+        <v>3</v>
+      </c>
+      <c r="F748" s="3">
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="G748" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="749" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A749" t="s">
+        <v>5</v>
+      </c>
+      <c r="B749" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C749" t="s">
+        <v>32</v>
+      </c>
+      <c r="D749" t="s">
+        <v>11</v>
+      </c>
+      <c r="E749">
+        <v>3</v>
+      </c>
+      <c r="F749" s="3">
+        <v>1.6027</v>
+      </c>
+      <c r="G749" s="3">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="750" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A750" t="s">
+        <v>5</v>
+      </c>
+      <c r="B750" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C750" t="s">
+        <v>32</v>
+      </c>
+      <c r="D750" t="s">
+        <v>11</v>
+      </c>
+      <c r="E750">
+        <v>3</v>
+      </c>
+      <c r="F750" s="3">
+        <v>1.5913999999999999</v>
+      </c>
+      <c r="G750" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="751" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A751" t="s">
+        <v>5</v>
+      </c>
+      <c r="B751" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C751" t="s">
+        <v>32</v>
+      </c>
+      <c r="D751" t="s">
+        <v>11</v>
+      </c>
+      <c r="E751">
+        <v>3</v>
+      </c>
+      <c r="F751" s="3">
+        <v>1.5812999999999999</v>
+      </c>
+      <c r="G751" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="752" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A752" t="s">
+        <v>5</v>
+      </c>
+      <c r="B752" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C752" t="s">
+        <v>32</v>
+      </c>
+      <c r="D752" t="s">
+        <v>11</v>
+      </c>
+      <c r="E752">
+        <v>3</v>
+      </c>
+      <c r="F752" s="3">
+        <v>1.5667</v>
+      </c>
+      <c r="G752" s="3">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="753" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A753" t="s">
+        <v>5</v>
+      </c>
+      <c r="B753" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C753" t="s">
+        <v>32</v>
+      </c>
+      <c r="D753" t="s">
+        <v>11</v>
+      </c>
+      <c r="E753">
+        <v>3</v>
+      </c>
+      <c r="F753" s="3">
+        <v>1.5359</v>
+      </c>
+      <c r="G753" s="3">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="754" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A754" t="s">
+        <v>5</v>
+      </c>
+      <c r="B754" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C754" t="s">
+        <v>32</v>
+      </c>
+      <c r="D754" t="s">
+        <v>11</v>
+      </c>
+      <c r="E754">
+        <v>3</v>
+      </c>
+      <c r="F754" s="3">
+        <v>1.5019</v>
+      </c>
+      <c r="G754" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="755" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A755" t="s">
+        <v>5</v>
+      </c>
+      <c r="B755" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C755" t="s">
+        <v>32</v>
+      </c>
+      <c r="D755" t="s">
+        <v>11</v>
+      </c>
+      <c r="E755">
+        <v>3</v>
+      </c>
+      <c r="F755" s="3">
+        <v>1.4716</v>
+      </c>
+      <c r="G755" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="756" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A756" t="s">
+        <v>5</v>
+      </c>
+      <c r="B756" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C756" t="s">
+        <v>32</v>
+      </c>
+      <c r="D756" t="s">
+        <v>11</v>
+      </c>
+      <c r="E756">
+        <v>4</v>
+      </c>
+      <c r="F756" s="3">
+        <v>2.2128999999999999</v>
+      </c>
+      <c r="G756" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="757" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A757" t="s">
+        <v>5</v>
+      </c>
+      <c r="B757" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C757" t="s">
+        <v>32</v>
+      </c>
+      <c r="D757" t="s">
+        <v>11</v>
+      </c>
+      <c r="E757">
+        <v>4</v>
+      </c>
+      <c r="F757" s="3">
+        <v>2.1634000000000002</v>
+      </c>
+      <c r="G757" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="758" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A758" t="s">
+        <v>5</v>
+      </c>
+      <c r="B758" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C758" t="s">
+        <v>32</v>
+      </c>
+      <c r="D758" t="s">
+        <v>11</v>
+      </c>
+      <c r="E758">
+        <v>4</v>
+      </c>
+      <c r="F758" s="3">
+        <v>2.1377000000000002</v>
+      </c>
+      <c r="G758" s="3">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="759" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A759" t="s">
+        <v>5</v>
+      </c>
+      <c r="B759" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C759" t="s">
+        <v>32</v>
+      </c>
+      <c r="D759" t="s">
+        <v>11</v>
+      </c>
+      <c r="E759">
+        <v>4</v>
+      </c>
+      <c r="F759" s="3">
+        <v>2.1257000000000001</v>
+      </c>
+      <c r="G759" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="760" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A760" t="s">
+        <v>5</v>
+      </c>
+      <c r="B760" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C760" t="s">
+        <v>32</v>
+      </c>
+      <c r="D760" t="s">
+        <v>11</v>
+      </c>
+      <c r="E760">
+        <v>4</v>
+      </c>
+      <c r="F760" s="3">
+        <v>2.1149</v>
+      </c>
+      <c r="G760" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="761" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A761" t="s">
+        <v>5</v>
+      </c>
+      <c r="B761" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C761" t="s">
+        <v>32</v>
+      </c>
+      <c r="D761" t="s">
+        <v>11</v>
+      </c>
+      <c r="E761">
+        <v>4</v>
+      </c>
+      <c r="F761" s="3">
+        <v>2.1034000000000002</v>
+      </c>
+      <c r="G761" s="3">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="762" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A762" t="s">
+        <v>5</v>
+      </c>
+      <c r="B762" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C762" t="s">
+        <v>32</v>
+      </c>
+      <c r="D762" t="s">
+        <v>11</v>
+      </c>
+      <c r="E762">
+        <v>4</v>
+      </c>
+      <c r="F762" s="3">
+        <v>2.0924</v>
+      </c>
+      <c r="G762" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="763" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A763" t="s">
+        <v>5</v>
+      </c>
+      <c r="B763" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C763" t="s">
+        <v>32</v>
+      </c>
+      <c r="D763" t="s">
+        <v>11</v>
+      </c>
+      <c r="E763">
+        <v>4</v>
+      </c>
+      <c r="F763" s="3">
+        <v>2.0783999999999998</v>
+      </c>
+      <c r="G763" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="764" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A764" t="s">
+        <v>5</v>
+      </c>
+      <c r="B764" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C764" t="s">
+        <v>32</v>
+      </c>
+      <c r="D764" t="s">
+        <v>11</v>
+      </c>
+      <c r="E764">
+        <v>4</v>
+      </c>
+      <c r="F764" s="3">
+        <v>2.0404</v>
+      </c>
+      <c r="G764" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="765" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A765" t="s">
+        <v>5</v>
+      </c>
+      <c r="B765" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C765" t="s">
+        <v>32</v>
+      </c>
+      <c r="D765" t="s">
+        <v>11</v>
+      </c>
+      <c r="E765">
+        <v>4</v>
+      </c>
+      <c r="F765" s="3">
+        <v>1.9763999999999999</v>
+      </c>
+      <c r="G765" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="766" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A766" t="s">
+        <v>5</v>
+      </c>
+      <c r="B766" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C766" t="s">
+        <v>32</v>
+      </c>
+      <c r="D766" t="s">
+        <v>11</v>
+      </c>
+      <c r="E766">
+        <v>4</v>
+      </c>
+      <c r="F766" s="3">
+        <v>1.9027000000000001</v>
+      </c>
+      <c r="G766" s="3">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="767" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A767" t="s">
+        <v>5</v>
+      </c>
+      <c r="B767" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C767" t="s">
+        <v>32</v>
+      </c>
+      <c r="D767" t="s">
+        <v>11</v>
+      </c>
+      <c r="E767">
+        <v>6</v>
+      </c>
+      <c r="F767" s="3">
+        <v>1.7585999999999999</v>
+      </c>
+      <c r="G767" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="768" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A768" t="s">
+        <v>5</v>
+      </c>
+      <c r="B768" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C768" t="s">
+        <v>32</v>
+      </c>
+      <c r="D768" t="s">
+        <v>11</v>
+      </c>
+      <c r="E768">
+        <v>6</v>
+      </c>
+      <c r="F768" s="3">
+        <v>1.7434000000000001</v>
+      </c>
+      <c r="G768" s="3">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="769" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A769" t="s">
+        <v>5</v>
+      </c>
+      <c r="B769" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C769" t="s">
+        <v>32</v>
+      </c>
+      <c r="D769" t="s">
+        <v>11</v>
+      </c>
+      <c r="E769">
+        <v>6</v>
+      </c>
+      <c r="F769" s="3">
+        <v>1.7363</v>
+      </c>
+      <c r="G769" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="770" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A770" t="s">
+        <v>5</v>
+      </c>
+      <c r="B770" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C770" t="s">
+        <v>32</v>
+      </c>
+      <c r="D770" t="s">
+        <v>11</v>
+      </c>
+      <c r="E770">
+        <v>6</v>
+      </c>
+      <c r="F770" s="3">
+        <v>1.7265999999999999</v>
+      </c>
+      <c r="G770" s="3">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="771" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A771" t="s">
+        <v>5</v>
+      </c>
+      <c r="B771" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C771" t="s">
+        <v>32</v>
+      </c>
+      <c r="D771" t="s">
+        <v>11</v>
+      </c>
+      <c r="E771">
+        <v>6</v>
+      </c>
+      <c r="F771" s="3">
+        <v>1.7164999999999999</v>
+      </c>
+      <c r="G771" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="772" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A772" t="s">
+        <v>5</v>
+      </c>
+      <c r="B772" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C772" t="s">
+        <v>32</v>
+      </c>
+      <c r="D772" t="s">
+        <v>11</v>
+      </c>
+      <c r="E772">
+        <v>6</v>
+      </c>
+      <c r="F772" s="3">
+        <v>1.7065999999999999</v>
+      </c>
+      <c r="G772" s="3">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="773" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A773" t="s">
+        <v>5</v>
+      </c>
+      <c r="B773" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C773" t="s">
+        <v>32</v>
+      </c>
+      <c r="D773" t="s">
+        <v>11</v>
+      </c>
+      <c r="E773">
+        <v>6</v>
+      </c>
+      <c r="F773" s="3">
+        <v>1.6970000000000001</v>
+      </c>
+      <c r="G773" s="3">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="774" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A774" t="s">
+        <v>5</v>
+      </c>
+      <c r="B774" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C774" t="s">
+        <v>32</v>
+      </c>
+      <c r="D774" t="s">
+        <v>11</v>
+      </c>
+      <c r="E774">
+        <v>6</v>
+      </c>
+      <c r="F774" s="3">
+        <v>1.6667000000000001</v>
+      </c>
+      <c r="G774" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="775" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A775" t="s">
+        <v>5</v>
+      </c>
+      <c r="B775" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C775" t="s">
+        <v>32</v>
+      </c>
+      <c r="D775" t="s">
+        <v>11</v>
+      </c>
+      <c r="E775">
+        <v>6</v>
+      </c>
+      <c r="F775" s="3">
+        <v>1.6326000000000001</v>
+      </c>
+      <c r="G775" s="3">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="776" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A776" t="s">
+        <v>5</v>
+      </c>
+      <c r="B776" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C776" t="s">
+        <v>32</v>
+      </c>
+      <c r="D776" t="s">
+        <v>11</v>
+      </c>
+      <c r="E776">
+        <v>6</v>
+      </c>
+      <c r="F776" s="3">
+        <v>1.5609</v>
+      </c>
+      <c r="G776" s="3">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="777" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A777" t="s">
+        <v>5</v>
+      </c>
+      <c r="B777" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C777" t="s">
+        <v>32</v>
+      </c>
+      <c r="D777" t="s">
+        <v>11</v>
+      </c>
+      <c r="E777">
+        <v>6</v>
+      </c>
+      <c r="F777" s="3">
+        <v>1.5167999999999999</v>
+      </c>
+      <c r="G777" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="778" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A778" t="s">
+        <v>5</v>
+      </c>
+      <c r="B778" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C778" t="s">
+        <v>32</v>
+      </c>
+      <c r="D778" t="s">
+        <v>11</v>
+      </c>
+      <c r="E778">
+        <v>6</v>
+      </c>
+      <c r="F778" s="3">
+        <v>1.5049999999999999</v>
+      </c>
+      <c r="G778" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="779" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A779" t="s">
+        <v>5</v>
+      </c>
+      <c r="B779" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C779" t="s">
+        <v>32</v>
+      </c>
+      <c r="D779" t="s">
+        <v>11</v>
+      </c>
+      <c r="E779">
+        <v>7</v>
+      </c>
+      <c r="F779" s="3">
+        <v>1.3242</v>
+      </c>
+      <c r="G779" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="780" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A780" t="s">
+        <v>5</v>
+      </c>
+      <c r="B780" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C780" t="s">
+        <v>32</v>
+      </c>
+      <c r="D780" t="s">
+        <v>11</v>
+      </c>
+      <c r="E780">
+        <v>7</v>
+      </c>
+      <c r="F780" s="3">
+        <v>1.3148</v>
+      </c>
+      <c r="G780" s="3">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="781" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A781" t="s">
+        <v>5</v>
+      </c>
+      <c r="B781" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C781" t="s">
+        <v>32</v>
+      </c>
+      <c r="D781" t="s">
+        <v>11</v>
+      </c>
+      <c r="E781">
+        <v>7</v>
+      </c>
+      <c r="F781" s="3">
+        <v>1.3010999999999999</v>
+      </c>
+      <c r="G781" s="3">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="782" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A782" t="s">
+        <v>5</v>
+      </c>
+      <c r="B782" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C782" t="s">
+        <v>32</v>
+      </c>
+      <c r="D782" t="s">
+        <v>11</v>
+      </c>
+      <c r="E782">
+        <v>7</v>
+      </c>
+      <c r="F782" s="3">
+        <v>1.2928999999999999</v>
+      </c>
+      <c r="G782" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="783" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A783" t="s">
+        <v>5</v>
+      </c>
+      <c r="B783" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C783" t="s">
+        <v>32</v>
+      </c>
+      <c r="D783" t="s">
+        <v>11</v>
+      </c>
+      <c r="E783">
+        <v>7</v>
+      </c>
+      <c r="F783" s="3">
+        <v>1.2857000000000001</v>
+      </c>
+      <c r="G783" s="3">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="784" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A784" t="s">
+        <v>5</v>
+      </c>
+      <c r="B784" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C784" t="s">
+        <v>32</v>
+      </c>
+      <c r="D784" t="s">
+        <v>11</v>
+      </c>
+      <c r="E784">
+        <v>7</v>
+      </c>
+      <c r="F784" s="3">
+        <v>1.2703</v>
+      </c>
+      <c r="G784" s="3">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="785" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A785" t="s">
+        <v>5</v>
+      </c>
+      <c r="B785" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C785" t="s">
+        <v>32</v>
+      </c>
+      <c r="D785" t="s">
+        <v>11</v>
+      </c>
+      <c r="E785">
+        <v>7</v>
+      </c>
+      <c r="F785" s="3">
+        <v>1.2478</v>
+      </c>
+      <c r="G785" s="3">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="786" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A786" t="s">
+        <v>5</v>
+      </c>
+      <c r="B786" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C786" t="s">
+        <v>32</v>
+      </c>
+      <c r="D786" t="s">
+        <v>11</v>
+      </c>
+      <c r="E786">
+        <v>7</v>
+      </c>
+      <c r="F786" s="3">
+        <v>1.1932</v>
+      </c>
+      <c r="G786" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="787" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A787" t="s">
+        <v>5</v>
+      </c>
+      <c r="B787" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C787" t="s">
+        <v>32</v>
+      </c>
+      <c r="D787" t="s">
+        <v>11</v>
+      </c>
+      <c r="E787">
+        <v>8</v>
+      </c>
+      <c r="F787" s="3">
+        <v>1.4159999999999999</v>
+      </c>
+      <c r="G787" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="788" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A788" t="s">
+        <v>5</v>
+      </c>
+      <c r="B788" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C788" t="s">
+        <v>32</v>
+      </c>
+      <c r="D788" t="s">
+        <v>11</v>
+      </c>
+      <c r="E788">
+        <v>8</v>
+      </c>
+      <c r="F788" s="3">
+        <v>1.4025000000000001</v>
+      </c>
+      <c r="G788" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="789" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A789" t="s">
+        <v>5</v>
+      </c>
+      <c r="B789" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C789" t="s">
+        <v>32</v>
+      </c>
+      <c r="D789" t="s">
+        <v>11</v>
+      </c>
+      <c r="E789">
+        <v>8</v>
+      </c>
+      <c r="F789" s="3">
+        <v>4.3933</v>
+      </c>
+      <c r="G789" s="3">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="790" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A790" t="s">
+        <v>5</v>
+      </c>
+      <c r="B790" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C790" t="s">
+        <v>32</v>
+      </c>
+      <c r="D790" t="s">
+        <v>11</v>
+      </c>
+      <c r="E790">
+        <v>8</v>
+      </c>
+      <c r="F790" s="3">
+        <v>1.3894</v>
+      </c>
+      <c r="G790" s="3">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="791" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A791" t="s">
+        <v>5</v>
+      </c>
+      <c r="B791" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C791" t="s">
+        <v>32</v>
+      </c>
+      <c r="D791" t="s">
+        <v>11</v>
+      </c>
+      <c r="E791">
+        <v>8</v>
+      </c>
+      <c r="F791" s="3">
+        <v>1.3847</v>
+      </c>
+      <c r="G791" s="3">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="792" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A792" t="s">
+        <v>5</v>
+      </c>
+      <c r="B792" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C792" t="s">
+        <v>32</v>
+      </c>
+      <c r="D792" t="s">
+        <v>11</v>
+      </c>
+      <c r="E792">
+        <v>8</v>
+      </c>
+      <c r="F792" s="3">
+        <v>1.3749</v>
+      </c>
+      <c r="G792" s="3">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="793" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A793" t="s">
+        <v>5</v>
+      </c>
+      <c r="B793" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C793" t="s">
+        <v>32</v>
+      </c>
+      <c r="D793" t="s">
+        <v>11</v>
+      </c>
+      <c r="E793">
+        <v>8</v>
+      </c>
+      <c r="F793" s="3">
+        <v>1.3629</v>
+      </c>
+      <c r="G793" s="3">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="794" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A794" t="s">
+        <v>5</v>
+      </c>
+      <c r="B794" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C794" t="s">
+        <v>32</v>
+      </c>
+      <c r="D794" t="s">
+        <v>11</v>
+      </c>
+      <c r="E794">
+        <v>8</v>
+      </c>
+      <c r="F794" s="3">
+        <v>1.349</v>
+      </c>
+      <c r="G794" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="795" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A795" t="s">
+        <v>5</v>
+      </c>
+      <c r="B795" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C795" t="s">
+        <v>32</v>
+      </c>
+      <c r="D795" t="s">
+        <v>11</v>
+      </c>
+      <c r="E795">
+        <v>8</v>
+      </c>
+      <c r="F795" s="3">
+        <v>1.3292999999999999</v>
+      </c>
+      <c r="G795" s="3">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="796" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A796" t="s">
+        <v>5</v>
+      </c>
+      <c r="B796" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C796" t="s">
+        <v>32</v>
+      </c>
+      <c r="D796" t="s">
+        <v>11</v>
+      </c>
+      <c r="E796">
+        <v>8</v>
+      </c>
+      <c r="F796" s="3">
+        <v>1.296</v>
+      </c>
+      <c r="G796" s="3">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="797" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A797" t="s">
+        <v>5</v>
+      </c>
+      <c r="B797" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C797" t="s">
+        <v>32</v>
+      </c>
+      <c r="D797" t="s">
+        <v>11</v>
+      </c>
+      <c r="E797">
+        <v>8</v>
+      </c>
+      <c r="F797" s="3">
+        <v>1.2696000000000001</v>
+      </c>
+      <c r="G797" s="3">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A810" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B810" s="2">
+        <v>43015</v>
+      </c>
+      <c r="C810" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D810" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E810" s="3">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/raw_data/pv_curves.xlsx
+++ b/raw_data/pv_curves.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2772" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3497" uniqueCount="38">
   <si>
     <t>species</t>
   </si>
@@ -126,6 +126,18 @@
   </si>
   <si>
     <t>mickelia_nicotianifolia</t>
+  </si>
+  <si>
+    <t>tectaria_incisa</t>
+  </si>
+  <si>
+    <t>asplenium_serratum</t>
+  </si>
+  <si>
+    <t>14/7/2017</t>
+  </si>
+  <si>
+    <t>thelypteris_nicaraguensis</t>
   </si>
 </sst>
 </file>
@@ -488,11 +500,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P810"/>
+  <dimension ref="A1:P988"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A781" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H800" sqref="H800"/>
+      <pane ySplit="1" topLeftCell="A948" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E967" sqref="E967"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20791,21 +20803,4260 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A810" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B810" s="2">
-        <v>43015</v>
-      </c>
-      <c r="C810" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D810" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E810" s="3">
+    <row r="798" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A798" t="s">
+        <v>5</v>
+      </c>
+      <c r="B798" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C798" t="s">
+        <v>34</v>
+      </c>
+      <c r="D798" t="s">
+        <v>11</v>
+      </c>
+      <c r="E798">
         <v>1</v>
+      </c>
+      <c r="F798" s="3">
+        <v>2.8321999999999998</v>
+      </c>
+      <c r="G798" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="799" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A799" t="s">
+        <v>5</v>
+      </c>
+      <c r="B799" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C799" t="s">
+        <v>34</v>
+      </c>
+      <c r="D799" t="s">
+        <v>11</v>
+      </c>
+      <c r="E799">
+        <v>1</v>
+      </c>
+      <c r="F799" s="3">
+        <v>2.6488999999999998</v>
+      </c>
+      <c r="G799" s="3">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="800" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A800" t="s">
+        <v>5</v>
+      </c>
+      <c r="B800" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C800" t="s">
+        <v>34</v>
+      </c>
+      <c r="D800" t="s">
+        <v>11</v>
+      </c>
+      <c r="E800">
+        <v>1</v>
+      </c>
+      <c r="F800" s="3">
+        <v>2.6023000000000001</v>
+      </c>
+      <c r="G800" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="801" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A801" t="s">
+        <v>5</v>
+      </c>
+      <c r="B801" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C801" t="s">
+        <v>34</v>
+      </c>
+      <c r="D801" t="s">
+        <v>11</v>
+      </c>
+      <c r="E801">
+        <v>1</v>
+      </c>
+      <c r="F801" s="3">
+        <v>2.581</v>
+      </c>
+      <c r="G801" s="3">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="802" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A802" t="s">
+        <v>5</v>
+      </c>
+      <c r="B802" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C802" t="s">
+        <v>34</v>
+      </c>
+      <c r="D802" t="s">
+        <v>11</v>
+      </c>
+      <c r="E802">
+        <v>1</v>
+      </c>
+      <c r="F802" s="3">
+        <v>2.5375999999999999</v>
+      </c>
+      <c r="G802" s="3">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="803" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A803" t="s">
+        <v>5</v>
+      </c>
+      <c r="B803" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C803" t="s">
+        <v>34</v>
+      </c>
+      <c r="D803" t="s">
+        <v>11</v>
+      </c>
+      <c r="E803">
+        <v>1</v>
+      </c>
+      <c r="F803" s="3">
+        <v>2.4710999999999999</v>
+      </c>
+      <c r="G803" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="804" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A804" t="s">
+        <v>5</v>
+      </c>
+      <c r="B804" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C804" t="s">
+        <v>34</v>
+      </c>
+      <c r="D804" t="s">
+        <v>11</v>
+      </c>
+      <c r="E804">
+        <v>1</v>
+      </c>
+      <c r="F804" s="3">
+        <v>2.2746</v>
+      </c>
+      <c r="G804" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="805" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A805" t="s">
+        <v>5</v>
+      </c>
+      <c r="B805" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C805" t="s">
+        <v>34</v>
+      </c>
+      <c r="D805" t="s">
+        <v>11</v>
+      </c>
+      <c r="E805">
+        <v>2</v>
+      </c>
+      <c r="F805" s="3">
+        <v>3.8100999999999998</v>
+      </c>
+      <c r="G805" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="806" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A806" t="s">
+        <v>5</v>
+      </c>
+      <c r="B806" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C806" t="s">
+        <v>34</v>
+      </c>
+      <c r="D806" t="s">
+        <v>11</v>
+      </c>
+      <c r="E806">
+        <v>2</v>
+      </c>
+      <c r="F806" s="3">
+        <v>3.7433000000000001</v>
+      </c>
+      <c r="G806" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="807" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A807" t="s">
+        <v>5</v>
+      </c>
+      <c r="B807" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C807" t="s">
+        <v>34</v>
+      </c>
+      <c r="D807" t="s">
+        <v>11</v>
+      </c>
+      <c r="E807">
+        <v>2</v>
+      </c>
+      <c r="F807" s="3">
+        <v>3.6897000000000002</v>
+      </c>
+      <c r="G807" s="3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="808" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A808" t="s">
+        <v>5</v>
+      </c>
+      <c r="B808" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C808" t="s">
+        <v>34</v>
+      </c>
+      <c r="D808" t="s">
+        <v>11</v>
+      </c>
+      <c r="E808">
+        <v>2</v>
+      </c>
+      <c r="F808" s="3">
+        <v>3.6446000000000001</v>
+      </c>
+      <c r="G808" s="3">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="809" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A809" t="s">
+        <v>5</v>
+      </c>
+      <c r="B809" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C809" t="s">
+        <v>34</v>
+      </c>
+      <c r="D809" t="s">
+        <v>11</v>
+      </c>
+      <c r="E809">
+        <v>2</v>
+      </c>
+      <c r="F809" s="3">
+        <v>3.6073</v>
+      </c>
+      <c r="G809" s="3">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="810" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A810" t="s">
+        <v>5</v>
+      </c>
+      <c r="B810" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C810" t="s">
+        <v>34</v>
+      </c>
+      <c r="D810" t="s">
+        <v>11</v>
+      </c>
+      <c r="E810">
+        <v>2</v>
+      </c>
+      <c r="F810" s="3">
+        <v>3.536</v>
+      </c>
+      <c r="G810" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="811" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A811" t="s">
+        <v>5</v>
+      </c>
+      <c r="B811" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C811" t="s">
+        <v>34</v>
+      </c>
+      <c r="D811" t="s">
+        <v>11</v>
+      </c>
+      <c r="E811">
+        <v>2</v>
+      </c>
+      <c r="F811" s="3">
+        <v>3.4622000000000002</v>
+      </c>
+      <c r="G811" s="3">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="812" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A812" t="s">
+        <v>5</v>
+      </c>
+      <c r="B812" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C812" t="s">
+        <v>34</v>
+      </c>
+      <c r="D812" t="s">
+        <v>11</v>
+      </c>
+      <c r="E812">
+        <v>2</v>
+      </c>
+      <c r="F812" s="3">
+        <v>3.2174999999999998</v>
+      </c>
+      <c r="G812" s="3">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="813" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A813" t="s">
+        <v>5</v>
+      </c>
+      <c r="B813" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C813" t="s">
+        <v>34</v>
+      </c>
+      <c r="D813" t="s">
+        <v>11</v>
+      </c>
+      <c r="E813">
+        <v>2</v>
+      </c>
+      <c r="F813" s="3">
+        <v>3.4081999999999999</v>
+      </c>
+      <c r="G813" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="814" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A814" t="s">
+        <v>5</v>
+      </c>
+      <c r="B814" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C814" t="s">
+        <v>34</v>
+      </c>
+      <c r="D814" t="s">
+        <v>11</v>
+      </c>
+      <c r="E814">
+        <v>3</v>
+      </c>
+      <c r="F814" s="3">
+        <v>3.3940000000000001</v>
+      </c>
+      <c r="G814" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="815" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A815" t="s">
+        <v>5</v>
+      </c>
+      <c r="B815" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C815" t="s">
+        <v>34</v>
+      </c>
+      <c r="D815" t="s">
+        <v>11</v>
+      </c>
+      <c r="E815">
+        <v>3</v>
+      </c>
+      <c r="F815" s="3">
+        <v>3.2035</v>
+      </c>
+      <c r="G815" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="816" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A816" t="s">
+        <v>5</v>
+      </c>
+      <c r="B816" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C816" t="s">
+        <v>34</v>
+      </c>
+      <c r="D816" t="s">
+        <v>11</v>
+      </c>
+      <c r="E816">
+        <v>3</v>
+      </c>
+      <c r="F816" s="3">
+        <v>3.1074000000000002</v>
+      </c>
+      <c r="G816" s="3">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="817" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A817" t="s">
+        <v>5</v>
+      </c>
+      <c r="B817" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C817" t="s">
+        <v>34</v>
+      </c>
+      <c r="D817" t="s">
+        <v>11</v>
+      </c>
+      <c r="E817">
+        <v>3</v>
+      </c>
+      <c r="F817" s="3">
+        <v>3.0893999999999999</v>
+      </c>
+      <c r="G817" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="818" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A818" t="s">
+        <v>5</v>
+      </c>
+      <c r="B818" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C818" t="s">
+        <v>34</v>
+      </c>
+      <c r="D818" t="s">
+        <v>11</v>
+      </c>
+      <c r="E818">
+        <v>3</v>
+      </c>
+      <c r="F818" s="3">
+        <v>2.9950000000000001</v>
+      </c>
+      <c r="G818" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="819" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A819" t="s">
+        <v>5</v>
+      </c>
+      <c r="B819" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C819" t="s">
+        <v>34</v>
+      </c>
+      <c r="D819" t="s">
+        <v>11</v>
+      </c>
+      <c r="E819">
+        <v>3</v>
+      </c>
+      <c r="F819" s="3">
+        <v>2.9339</v>
+      </c>
+      <c r="G819" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="820" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A820" t="s">
+        <v>5</v>
+      </c>
+      <c r="B820" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C820" t="s">
+        <v>34</v>
+      </c>
+      <c r="D820" t="s">
+        <v>11</v>
+      </c>
+      <c r="E820">
+        <v>3</v>
+      </c>
+      <c r="F820" s="3">
+        <v>2.8218000000000001</v>
+      </c>
+      <c r="G820" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="821" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A821" t="s">
+        <v>5</v>
+      </c>
+      <c r="B821" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C821" t="s">
+        <v>34</v>
+      </c>
+      <c r="D821" t="s">
+        <v>11</v>
+      </c>
+      <c r="E821">
+        <v>3</v>
+      </c>
+      <c r="F821" s="3">
+        <v>2.6762999999999999</v>
+      </c>
+      <c r="G821" s="3">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="822" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A822" t="s">
+        <v>5</v>
+      </c>
+      <c r="B822" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C822" t="s">
+        <v>34</v>
+      </c>
+      <c r="D822" t="s">
+        <v>11</v>
+      </c>
+      <c r="E822">
+        <v>4</v>
+      </c>
+      <c r="F822" s="3">
+        <v>3.4270999999999998</v>
+      </c>
+      <c r="G822" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="823" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A823" t="s">
+        <v>5</v>
+      </c>
+      <c r="B823" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C823" t="s">
+        <v>34</v>
+      </c>
+      <c r="D823" t="s">
+        <v>11</v>
+      </c>
+      <c r="E823">
+        <v>4</v>
+      </c>
+      <c r="F823" s="3">
+        <v>3.3961000000000001</v>
+      </c>
+      <c r="G823" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="824" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A824" t="s">
+        <v>5</v>
+      </c>
+      <c r="B824" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C824" t="s">
+        <v>34</v>
+      </c>
+      <c r="D824" t="s">
+        <v>11</v>
+      </c>
+      <c r="E824">
+        <v>4</v>
+      </c>
+      <c r="F824" s="3">
+        <v>3.3871000000000002</v>
+      </c>
+      <c r="G824" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="825" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A825" t="s">
+        <v>5</v>
+      </c>
+      <c r="B825" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C825" t="s">
+        <v>34</v>
+      </c>
+      <c r="D825" t="s">
+        <v>11</v>
+      </c>
+      <c r="E825">
+        <v>4</v>
+      </c>
+      <c r="F825" s="3">
+        <v>3.331</v>
+      </c>
+      <c r="G825" s="3">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="826" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A826" t="s">
+        <v>5</v>
+      </c>
+      <c r="B826" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C826" t="s">
+        <v>34</v>
+      </c>
+      <c r="D826" t="s">
+        <v>11</v>
+      </c>
+      <c r="E826">
+        <v>4</v>
+      </c>
+      <c r="F826" s="3">
+        <v>3.2974999999999999</v>
+      </c>
+      <c r="G826" s="3">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="827" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A827" t="s">
+        <v>5</v>
+      </c>
+      <c r="B827" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C827" t="s">
+        <v>34</v>
+      </c>
+      <c r="D827" t="s">
+        <v>11</v>
+      </c>
+      <c r="E827">
+        <v>4</v>
+      </c>
+      <c r="F827" s="3">
+        <v>3.2694999999999999</v>
+      </c>
+      <c r="G827" s="3">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="828" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A828" t="s">
+        <v>5</v>
+      </c>
+      <c r="B828" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C828" t="s">
+        <v>34</v>
+      </c>
+      <c r="D828" t="s">
+        <v>11</v>
+      </c>
+      <c r="E828">
+        <v>4</v>
+      </c>
+      <c r="F828" s="3">
+        <v>3.2387999999999999</v>
+      </c>
+      <c r="G828" s="3">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="829" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A829" t="s">
+        <v>5</v>
+      </c>
+      <c r="B829" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C829" t="s">
+        <v>34</v>
+      </c>
+      <c r="D829" t="s">
+        <v>11</v>
+      </c>
+      <c r="E829">
+        <v>4</v>
+      </c>
+      <c r="F829" s="3">
+        <v>3.1907000000000001</v>
+      </c>
+      <c r="G829" s="3">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="830" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A830" t="s">
+        <v>5</v>
+      </c>
+      <c r="B830" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C830" t="s">
+        <v>34</v>
+      </c>
+      <c r="D830" t="s">
+        <v>11</v>
+      </c>
+      <c r="E830">
+        <v>4</v>
+      </c>
+      <c r="F830" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="G830" s="3">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="831" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A831" t="s">
+        <v>5</v>
+      </c>
+      <c r="B831" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C831" t="s">
+        <v>34</v>
+      </c>
+      <c r="D831" t="s">
+        <v>11</v>
+      </c>
+      <c r="E831">
+        <v>4</v>
+      </c>
+      <c r="F831" s="3">
+        <v>2.8180999999999998</v>
+      </c>
+      <c r="G831" s="3">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="832" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A832" t="s">
+        <v>5</v>
+      </c>
+      <c r="B832" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C832" t="s">
+        <v>34</v>
+      </c>
+      <c r="D832" t="s">
+        <v>11</v>
+      </c>
+      <c r="E832">
+        <v>5</v>
+      </c>
+      <c r="F832" s="3">
+        <v>2.8988</v>
+      </c>
+      <c r="G832" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="833" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A833" t="s">
+        <v>5</v>
+      </c>
+      <c r="B833" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C833" t="s">
+        <v>34</v>
+      </c>
+      <c r="D833" t="s">
+        <v>11</v>
+      </c>
+      <c r="E833">
+        <v>5</v>
+      </c>
+      <c r="F833" s="3">
+        <v>2.8736999999999999</v>
+      </c>
+      <c r="G833" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="834" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A834" t="s">
+        <v>5</v>
+      </c>
+      <c r="B834" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C834" t="s">
+        <v>34</v>
+      </c>
+      <c r="D834" t="s">
+        <v>11</v>
+      </c>
+      <c r="E834">
+        <v>5</v>
+      </c>
+      <c r="F834" s="3">
+        <v>2.8395000000000001</v>
+      </c>
+      <c r="G834" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="835" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A835" t="s">
+        <v>5</v>
+      </c>
+      <c r="B835" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C835" t="s">
+        <v>34</v>
+      </c>
+      <c r="D835" t="s">
+        <v>11</v>
+      </c>
+      <c r="E835">
+        <v>5</v>
+      </c>
+      <c r="F835" s="3">
+        <v>2.8127</v>
+      </c>
+      <c r="G835" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="836" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A836" t="s">
+        <v>5</v>
+      </c>
+      <c r="B836" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C836" t="s">
+        <v>34</v>
+      </c>
+      <c r="D836" t="s">
+        <v>11</v>
+      </c>
+      <c r="E836">
+        <v>5</v>
+      </c>
+      <c r="F836" s="3">
+        <v>2.7719</v>
+      </c>
+      <c r="G836" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="837" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A837" t="s">
+        <v>5</v>
+      </c>
+      <c r="B837" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C837" t="s">
+        <v>34</v>
+      </c>
+      <c r="D837" t="s">
+        <v>11</v>
+      </c>
+      <c r="E837">
+        <v>5</v>
+      </c>
+      <c r="F837" s="3">
+        <v>2.7271000000000001</v>
+      </c>
+      <c r="G837" s="3">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="838" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A838" t="s">
+        <v>5</v>
+      </c>
+      <c r="B838" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C838" t="s">
+        <v>34</v>
+      </c>
+      <c r="D838" t="s">
+        <v>11</v>
+      </c>
+      <c r="E838">
+        <v>5</v>
+      </c>
+      <c r="F838" s="3">
+        <v>2.6743000000000001</v>
+      </c>
+      <c r="G838" s="3">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="839" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A839" t="s">
+        <v>5</v>
+      </c>
+      <c r="B839" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C839" t="s">
+        <v>34</v>
+      </c>
+      <c r="D839" t="s">
+        <v>11</v>
+      </c>
+      <c r="E839">
+        <v>5</v>
+      </c>
+      <c r="F839" s="3">
+        <v>2.4157999999999999</v>
+      </c>
+      <c r="G839" s="3">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="840" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A840" t="s">
+        <v>5</v>
+      </c>
+      <c r="B840" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C840" t="s">
+        <v>34</v>
+      </c>
+      <c r="D840" t="s">
+        <v>11</v>
+      </c>
+      <c r="E840">
+        <v>5</v>
+      </c>
+      <c r="F840" s="3">
+        <v>2.032</v>
+      </c>
+      <c r="G840" s="3">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="841" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A841" t="s">
+        <v>5</v>
+      </c>
+      <c r="B841" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C841" t="s">
+        <v>34</v>
+      </c>
+      <c r="D841" t="s">
+        <v>11</v>
+      </c>
+      <c r="E841">
+        <v>6</v>
+      </c>
+      <c r="F841" s="3">
+        <v>3.59</v>
+      </c>
+      <c r="G841" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="842" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A842" t="s">
+        <v>5</v>
+      </c>
+      <c r="B842" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C842" t="s">
+        <v>34</v>
+      </c>
+      <c r="D842" t="s">
+        <v>11</v>
+      </c>
+      <c r="E842">
+        <v>6</v>
+      </c>
+      <c r="F842" s="3">
+        <v>3.5156999999999998</v>
+      </c>
+      <c r="G842" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="843" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A843" t="s">
+        <v>5</v>
+      </c>
+      <c r="B843" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C843" t="s">
+        <v>34</v>
+      </c>
+      <c r="D843" t="s">
+        <v>11</v>
+      </c>
+      <c r="E843">
+        <v>6</v>
+      </c>
+      <c r="F843" s="3">
+        <v>3.4603000000000002</v>
+      </c>
+      <c r="G843" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="844" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A844" t="s">
+        <v>5</v>
+      </c>
+      <c r="B844" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C844" t="s">
+        <v>34</v>
+      </c>
+      <c r="D844" t="s">
+        <v>11</v>
+      </c>
+      <c r="E844">
+        <v>6</v>
+      </c>
+      <c r="F844" s="3">
+        <v>3.4373</v>
+      </c>
+      <c r="G844" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="845" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A845" t="s">
+        <v>5</v>
+      </c>
+      <c r="B845" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C845" t="s">
+        <v>34</v>
+      </c>
+      <c r="D845" t="s">
+        <v>11</v>
+      </c>
+      <c r="E845">
+        <v>6</v>
+      </c>
+      <c r="F845" s="3">
+        <v>3.4201999999999999</v>
+      </c>
+      <c r="G845" s="3">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="846" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A846" t="s">
+        <v>5</v>
+      </c>
+      <c r="B846" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C846" t="s">
+        <v>34</v>
+      </c>
+      <c r="D846" t="s">
+        <v>11</v>
+      </c>
+      <c r="E846">
+        <v>6</v>
+      </c>
+      <c r="F846" s="3">
+        <v>3.3934000000000002</v>
+      </c>
+      <c r="G846" s="3">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="847" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A847" t="s">
+        <v>5</v>
+      </c>
+      <c r="B847" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C847" t="s">
+        <v>34</v>
+      </c>
+      <c r="D847" t="s">
+        <v>11</v>
+      </c>
+      <c r="E847">
+        <v>6</v>
+      </c>
+      <c r="F847" s="3">
+        <v>3.3714</v>
+      </c>
+      <c r="G847" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="848" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A848" t="s">
+        <v>5</v>
+      </c>
+      <c r="B848" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C848" t="s">
+        <v>34</v>
+      </c>
+      <c r="D848" t="s">
+        <v>11</v>
+      </c>
+      <c r="E848">
+        <v>6</v>
+      </c>
+      <c r="F848" s="3">
+        <v>3.2915999999999999</v>
+      </c>
+      <c r="G848" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="849" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A849" t="s">
+        <v>5</v>
+      </c>
+      <c r="B849" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C849" t="s">
+        <v>34</v>
+      </c>
+      <c r="D849" t="s">
+        <v>11</v>
+      </c>
+      <c r="E849">
+        <v>6</v>
+      </c>
+      <c r="F849" s="3">
+        <v>3.2593999999999999</v>
+      </c>
+      <c r="G849" s="3">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="850" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A850" t="s">
+        <v>5</v>
+      </c>
+      <c r="B850" s="4">
+        <v>43016</v>
+      </c>
+      <c r="C850" t="s">
+        <v>34</v>
+      </c>
+      <c r="D850" t="s">
+        <v>11</v>
+      </c>
+      <c r="E850">
+        <v>6</v>
+      </c>
+      <c r="F850" s="3">
+        <v>3.1947000000000001</v>
+      </c>
+      <c r="G850" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="851" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A851" t="s">
+        <v>5</v>
+      </c>
+      <c r="B851" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C851" t="s">
+        <v>35</v>
+      </c>
+      <c r="D851" t="s">
+        <v>6</v>
+      </c>
+      <c r="E851">
+        <v>1</v>
+      </c>
+      <c r="F851" s="3">
+        <v>3.0426000000000002</v>
+      </c>
+      <c r="G851" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="852" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A852" t="s">
+        <v>5</v>
+      </c>
+      <c r="B852" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C852" t="s">
+        <v>35</v>
+      </c>
+      <c r="D852" t="s">
+        <v>6</v>
+      </c>
+      <c r="E852">
+        <v>1</v>
+      </c>
+      <c r="F852" s="3">
+        <v>3.024</v>
+      </c>
+      <c r="G852" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="853" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A853" t="s">
+        <v>5</v>
+      </c>
+      <c r="B853" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C853" t="s">
+        <v>35</v>
+      </c>
+      <c r="D853" t="s">
+        <v>6</v>
+      </c>
+      <c r="E853">
+        <v>1</v>
+      </c>
+      <c r="F853" s="3">
+        <v>3.0103</v>
+      </c>
+      <c r="G853" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="854" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A854" t="s">
+        <v>5</v>
+      </c>
+      <c r="B854" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C854" t="s">
+        <v>35</v>
+      </c>
+      <c r="D854" t="s">
+        <v>6</v>
+      </c>
+      <c r="E854">
+        <v>1</v>
+      </c>
+      <c r="F854" s="3">
+        <v>2.9942000000000002</v>
+      </c>
+      <c r="G854" s="3">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="855" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A855" t="s">
+        <v>5</v>
+      </c>
+      <c r="B855" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C855" t="s">
+        <v>35</v>
+      </c>
+      <c r="D855" t="s">
+        <v>6</v>
+      </c>
+      <c r="E855">
+        <v>1</v>
+      </c>
+      <c r="F855" s="3">
+        <v>2.9786000000000001</v>
+      </c>
+      <c r="G855" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="856" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A856" t="s">
+        <v>5</v>
+      </c>
+      <c r="B856" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C856" t="s">
+        <v>35</v>
+      </c>
+      <c r="D856" t="s">
+        <v>6</v>
+      </c>
+      <c r="E856">
+        <v>1</v>
+      </c>
+      <c r="F856" s="3">
+        <v>2.9647999999999999</v>
+      </c>
+      <c r="G856" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="857" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A857" t="s">
+        <v>5</v>
+      </c>
+      <c r="B857" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C857" t="s">
+        <v>35</v>
+      </c>
+      <c r="D857" t="s">
+        <v>6</v>
+      </c>
+      <c r="E857">
+        <v>1</v>
+      </c>
+      <c r="F857" s="3">
+        <v>2.9525000000000001</v>
+      </c>
+      <c r="G857" s="3">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="858" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A858" t="s">
+        <v>5</v>
+      </c>
+      <c r="B858" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C858" t="s">
+        <v>35</v>
+      </c>
+      <c r="D858" t="s">
+        <v>6</v>
+      </c>
+      <c r="E858">
+        <v>1</v>
+      </c>
+      <c r="F858" s="3">
+        <v>2.9348999999999998</v>
+      </c>
+      <c r="G858" s="3">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="859" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A859" t="s">
+        <v>5</v>
+      </c>
+      <c r="B859" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C859" t="s">
+        <v>35</v>
+      </c>
+      <c r="D859" t="s">
+        <v>6</v>
+      </c>
+      <c r="E859">
+        <v>1</v>
+      </c>
+      <c r="F859" s="3">
+        <v>2.9190999999999998</v>
+      </c>
+      <c r="G859" s="3">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="860" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A860" t="s">
+        <v>5</v>
+      </c>
+      <c r="B860" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C860" t="s">
+        <v>35</v>
+      </c>
+      <c r="D860" t="s">
+        <v>6</v>
+      </c>
+      <c r="E860">
+        <v>1</v>
+      </c>
+      <c r="F860" s="3">
+        <v>2.9051999999999998</v>
+      </c>
+      <c r="G860" s="3">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="861" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A861" t="s">
+        <v>5</v>
+      </c>
+      <c r="B861" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C861" t="s">
+        <v>35</v>
+      </c>
+      <c r="D861" t="s">
+        <v>6</v>
+      </c>
+      <c r="E861">
+        <v>1</v>
+      </c>
+      <c r="F861" s="3">
+        <v>2.8767</v>
+      </c>
+      <c r="G861" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="862" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A862" t="s">
+        <v>5</v>
+      </c>
+      <c r="B862" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C862" t="s">
+        <v>35</v>
+      </c>
+      <c r="D862" t="s">
+        <v>6</v>
+      </c>
+      <c r="E862">
+        <v>1</v>
+      </c>
+      <c r="F862" s="3">
+        <v>2.8380000000000001</v>
+      </c>
+      <c r="G862" s="3">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="863" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A863" t="s">
+        <v>5</v>
+      </c>
+      <c r="B863" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C863" t="s">
+        <v>35</v>
+      </c>
+      <c r="D863" t="s">
+        <v>6</v>
+      </c>
+      <c r="E863">
+        <v>2</v>
+      </c>
+      <c r="F863" s="3">
+        <v>2.1299000000000001</v>
+      </c>
+      <c r="G863" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="864" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A864" t="s">
+        <v>5</v>
+      </c>
+      <c r="B864" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C864" t="s">
+        <v>35</v>
+      </c>
+      <c r="D864" t="s">
+        <v>6</v>
+      </c>
+      <c r="E864">
+        <v>2</v>
+      </c>
+      <c r="F864" s="3">
+        <v>2.1084000000000001</v>
+      </c>
+      <c r="G864" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="865" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A865" t="s">
+        <v>5</v>
+      </c>
+      <c r="B865" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C865" t="s">
+        <v>35</v>
+      </c>
+      <c r="D865" t="s">
+        <v>6</v>
+      </c>
+      <c r="E865">
+        <v>2</v>
+      </c>
+      <c r="F865" s="3">
+        <v>2.0968</v>
+      </c>
+      <c r="G865" s="3">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="866" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A866" t="s">
+        <v>5</v>
+      </c>
+      <c r="B866" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C866" t="s">
+        <v>35</v>
+      </c>
+      <c r="D866" t="s">
+        <v>6</v>
+      </c>
+      <c r="E866">
+        <v>2</v>
+      </c>
+      <c r="F866" s="3">
+        <v>2.0851999999999999</v>
+      </c>
+      <c r="G866" s="3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="867" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A867" t="s">
+        <v>5</v>
+      </c>
+      <c r="B867" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C867" t="s">
+        <v>35</v>
+      </c>
+      <c r="D867" t="s">
+        <v>6</v>
+      </c>
+      <c r="E867">
+        <v>2</v>
+      </c>
+      <c r="F867" s="3">
+        <v>2.0773000000000001</v>
+      </c>
+      <c r="G867" s="3">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="868" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A868" t="s">
+        <v>5</v>
+      </c>
+      <c r="B868" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C868" t="s">
+        <v>35</v>
+      </c>
+      <c r="D868" t="s">
+        <v>6</v>
+      </c>
+      <c r="E868">
+        <v>2</v>
+      </c>
+      <c r="F868" s="3">
+        <v>2.0659999999999998</v>
+      </c>
+      <c r="G868" s="3">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="869" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A869" t="s">
+        <v>5</v>
+      </c>
+      <c r="B869" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C869" t="s">
+        <v>35</v>
+      </c>
+      <c r="D869" t="s">
+        <v>6</v>
+      </c>
+      <c r="E869">
+        <v>2</v>
+      </c>
+      <c r="F869" s="3">
+        <v>2.0562999999999998</v>
+      </c>
+      <c r="G869" s="3">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="870" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A870" t="s">
+        <v>5</v>
+      </c>
+      <c r="B870" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C870" t="s">
+        <v>35</v>
+      </c>
+      <c r="D870" t="s">
+        <v>6</v>
+      </c>
+      <c r="E870">
+        <v>2</v>
+      </c>
+      <c r="F870" s="3">
+        <v>2.0486</v>
+      </c>
+      <c r="G870" s="3">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="871" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A871" t="s">
+        <v>5</v>
+      </c>
+      <c r="B871" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C871" t="s">
+        <v>35</v>
+      </c>
+      <c r="D871" t="s">
+        <v>6</v>
+      </c>
+      <c r="E871">
+        <v>2</v>
+      </c>
+      <c r="F871" s="3">
+        <v>2.0381</v>
+      </c>
+      <c r="G871" s="3">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="872" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A872" t="s">
+        <v>5</v>
+      </c>
+      <c r="B872" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C872" t="s">
+        <v>35</v>
+      </c>
+      <c r="D872" t="s">
+        <v>6</v>
+      </c>
+      <c r="E872">
+        <v>2</v>
+      </c>
+      <c r="F872" s="3">
+        <v>2.0268999999999999</v>
+      </c>
+      <c r="G872" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="873" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A873" t="s">
+        <v>5</v>
+      </c>
+      <c r="B873" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C873" t="s">
+        <v>35</v>
+      </c>
+      <c r="D873" t="s">
+        <v>6</v>
+      </c>
+      <c r="E873">
+        <v>2</v>
+      </c>
+      <c r="F873" s="3">
+        <v>2.0154999999999998</v>
+      </c>
+      <c r="G873" s="3">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="874" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A874" t="s">
+        <v>5</v>
+      </c>
+      <c r="B874" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C874" t="s">
+        <v>35</v>
+      </c>
+      <c r="D874" t="s">
+        <v>6</v>
+      </c>
+      <c r="E874">
+        <v>2</v>
+      </c>
+      <c r="F874" s="3">
+        <v>1.9818</v>
+      </c>
+      <c r="G874" s="3">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="875" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A875" t="s">
+        <v>5</v>
+      </c>
+      <c r="B875" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C875" t="s">
+        <v>35</v>
+      </c>
+      <c r="D875" t="s">
+        <v>6</v>
+      </c>
+      <c r="E875">
+        <v>2</v>
+      </c>
+      <c r="F875" s="3">
+        <v>1.9530000000000001</v>
+      </c>
+      <c r="G875" s="3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="876" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A876" t="s">
+        <v>5</v>
+      </c>
+      <c r="B876" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C876" t="s">
+        <v>35</v>
+      </c>
+      <c r="D876" t="s">
+        <v>6</v>
+      </c>
+      <c r="E876">
+        <v>3</v>
+      </c>
+      <c r="F876" s="3">
+        <v>2.4729000000000001</v>
+      </c>
+      <c r="G876" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="877" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A877" t="s">
+        <v>5</v>
+      </c>
+      <c r="B877" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C877" t="s">
+        <v>35</v>
+      </c>
+      <c r="D877" t="s">
+        <v>6</v>
+      </c>
+      <c r="E877">
+        <v>3</v>
+      </c>
+      <c r="F877" s="3">
+        <v>2.4624000000000001</v>
+      </c>
+      <c r="G877" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="878" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A878" t="s">
+        <v>5</v>
+      </c>
+      <c r="B878" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C878" t="s">
+        <v>35</v>
+      </c>
+      <c r="D878" t="s">
+        <v>6</v>
+      </c>
+      <c r="E878">
+        <v>3</v>
+      </c>
+      <c r="F878" s="3">
+        <v>2.4483999999999999</v>
+      </c>
+      <c r="G878" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="879" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A879" t="s">
+        <v>5</v>
+      </c>
+      <c r="B879" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C879" t="s">
+        <v>35</v>
+      </c>
+      <c r="D879" t="s">
+        <v>6</v>
+      </c>
+      <c r="E879">
+        <v>3</v>
+      </c>
+      <c r="F879" s="3">
+        <v>2.4409999999999998</v>
+      </c>
+      <c r="G879" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="880" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A880" t="s">
+        <v>5</v>
+      </c>
+      <c r="B880" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C880" t="s">
+        <v>35</v>
+      </c>
+      <c r="D880" t="s">
+        <v>6</v>
+      </c>
+      <c r="E880">
+        <v>3</v>
+      </c>
+      <c r="F880" s="3">
+        <v>2.4287999999999998</v>
+      </c>
+      <c r="G880" s="3">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="881" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A881" t="s">
+        <v>5</v>
+      </c>
+      <c r="B881" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C881" t="s">
+        <v>35</v>
+      </c>
+      <c r="D881" t="s">
+        <v>6</v>
+      </c>
+      <c r="E881">
+        <v>3</v>
+      </c>
+      <c r="F881" s="3">
+        <v>2.4161999999999999</v>
+      </c>
+      <c r="G881" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="882" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A882" t="s">
+        <v>5</v>
+      </c>
+      <c r="B882" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C882" t="s">
+        <v>35</v>
+      </c>
+      <c r="D882" t="s">
+        <v>6</v>
+      </c>
+      <c r="E882">
+        <v>3</v>
+      </c>
+      <c r="F882" s="3">
+        <v>2.4041000000000001</v>
+      </c>
+      <c r="G882" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="883" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A883" t="s">
+        <v>5</v>
+      </c>
+      <c r="B883" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C883" t="s">
+        <v>35</v>
+      </c>
+      <c r="D883" t="s">
+        <v>6</v>
+      </c>
+      <c r="E883">
+        <v>3</v>
+      </c>
+      <c r="F883" s="3">
+        <v>2.3935</v>
+      </c>
+      <c r="G883" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="884" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A884" t="s">
+        <v>5</v>
+      </c>
+      <c r="B884" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C884" t="s">
+        <v>35</v>
+      </c>
+      <c r="D884" t="s">
+        <v>6</v>
+      </c>
+      <c r="E884">
+        <v>3</v>
+      </c>
+      <c r="F884" s="3">
+        <v>2.3654999999999999</v>
+      </c>
+      <c r="G884" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="885" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A885" t="s">
+        <v>5</v>
+      </c>
+      <c r="B885" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C885" t="s">
+        <v>35</v>
+      </c>
+      <c r="D885" t="s">
+        <v>6</v>
+      </c>
+      <c r="E885">
+        <v>3</v>
+      </c>
+      <c r="F885" s="3">
+        <v>2.3567999999999998</v>
+      </c>
+      <c r="G885" s="3">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="886" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A886" t="s">
+        <v>5</v>
+      </c>
+      <c r="B886" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C886" t="s">
+        <v>35</v>
+      </c>
+      <c r="D886" t="s">
+        <v>6</v>
+      </c>
+      <c r="E886">
+        <v>3</v>
+      </c>
+      <c r="F886" s="3">
+        <v>2.3308</v>
+      </c>
+      <c r="G886" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="887" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A887" t="s">
+        <v>5</v>
+      </c>
+      <c r="B887" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C887" t="s">
+        <v>35</v>
+      </c>
+      <c r="D887" t="s">
+        <v>6</v>
+      </c>
+      <c r="E887">
+        <v>3</v>
+      </c>
+      <c r="F887" s="3">
+        <v>2.2746</v>
+      </c>
+      <c r="G887" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="888" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A888" t="s">
+        <v>5</v>
+      </c>
+      <c r="B888" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C888" t="s">
+        <v>35</v>
+      </c>
+      <c r="D888" t="s">
+        <v>6</v>
+      </c>
+      <c r="E888">
+        <v>4</v>
+      </c>
+      <c r="F888" s="3">
+        <v>1.6946000000000001</v>
+      </c>
+      <c r="G888" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="889" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A889" t="s">
+        <v>5</v>
+      </c>
+      <c r="B889" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C889" t="s">
+        <v>35</v>
+      </c>
+      <c r="D889" t="s">
+        <v>6</v>
+      </c>
+      <c r="E889">
+        <v>4</v>
+      </c>
+      <c r="F889" s="3">
+        <v>1.6893</v>
+      </c>
+      <c r="G889" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="890" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A890" t="s">
+        <v>5</v>
+      </c>
+      <c r="B890" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C890" t="s">
+        <v>35</v>
+      </c>
+      <c r="D890" t="s">
+        <v>6</v>
+      </c>
+      <c r="E890">
+        <v>4</v>
+      </c>
+      <c r="F890" s="3">
+        <v>1.6838</v>
+      </c>
+      <c r="G890" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="891" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A891" t="s">
+        <v>5</v>
+      </c>
+      <c r="B891" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C891" t="s">
+        <v>35</v>
+      </c>
+      <c r="D891" t="s">
+        <v>6</v>
+      </c>
+      <c r="E891">
+        <v>4</v>
+      </c>
+      <c r="F891" s="3">
+        <v>1.6771</v>
+      </c>
+      <c r="G891" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="892" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A892" t="s">
+        <v>5</v>
+      </c>
+      <c r="B892" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C892" t="s">
+        <v>35</v>
+      </c>
+      <c r="D892" t="s">
+        <v>6</v>
+      </c>
+      <c r="E892">
+        <v>4</v>
+      </c>
+      <c r="F892" s="3">
+        <v>1.6721999999999999</v>
+      </c>
+      <c r="G892" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="893" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A893" t="s">
+        <v>5</v>
+      </c>
+      <c r="B893" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C893" t="s">
+        <v>35</v>
+      </c>
+      <c r="D893" t="s">
+        <v>6</v>
+      </c>
+      <c r="E893">
+        <v>4</v>
+      </c>
+      <c r="F893" s="3">
+        <v>1.6698</v>
+      </c>
+      <c r="G893" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="894" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A894" t="s">
+        <v>5</v>
+      </c>
+      <c r="B894" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C894" t="s">
+        <v>35</v>
+      </c>
+      <c r="D894" t="s">
+        <v>6</v>
+      </c>
+      <c r="E894">
+        <v>4</v>
+      </c>
+      <c r="F894" s="3">
+        <v>1.6433</v>
+      </c>
+      <c r="G894" s="3">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="895" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A895" t="s">
+        <v>5</v>
+      </c>
+      <c r="B895" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C895" t="s">
+        <v>35</v>
+      </c>
+      <c r="D895" t="s">
+        <v>6</v>
+      </c>
+      <c r="E895">
+        <v>4</v>
+      </c>
+      <c r="F895" s="3">
+        <v>1.6294999999999999</v>
+      </c>
+      <c r="G895" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="896" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A896" t="s">
+        <v>5</v>
+      </c>
+      <c r="B896" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C896" t="s">
+        <v>35</v>
+      </c>
+      <c r="D896" t="s">
+        <v>6</v>
+      </c>
+      <c r="E896">
+        <v>4</v>
+      </c>
+      <c r="F896" s="3">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="G896" s="3">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="897" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A897" t="s">
+        <v>5</v>
+      </c>
+      <c r="B897" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C897" t="s">
+        <v>35</v>
+      </c>
+      <c r="D897" t="s">
+        <v>6</v>
+      </c>
+      <c r="E897">
+        <v>5</v>
+      </c>
+      <c r="F897" s="3">
+        <v>2.3755000000000002</v>
+      </c>
+      <c r="G897" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="898" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A898" t="s">
+        <v>5</v>
+      </c>
+      <c r="B898" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C898" t="s">
+        <v>35</v>
+      </c>
+      <c r="D898" t="s">
+        <v>6</v>
+      </c>
+      <c r="E898">
+        <v>5</v>
+      </c>
+      <c r="F898" s="3">
+        <v>2.3622000000000001</v>
+      </c>
+      <c r="G898" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="899" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A899" t="s">
+        <v>5</v>
+      </c>
+      <c r="B899" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C899" t="s">
+        <v>35</v>
+      </c>
+      <c r="D899" t="s">
+        <v>6</v>
+      </c>
+      <c r="E899">
+        <v>5</v>
+      </c>
+      <c r="F899" s="3">
+        <v>2.3512</v>
+      </c>
+      <c r="G899" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="900" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A900" t="s">
+        <v>5</v>
+      </c>
+      <c r="B900" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C900" t="s">
+        <v>35</v>
+      </c>
+      <c r="D900" t="s">
+        <v>6</v>
+      </c>
+      <c r="E900">
+        <v>5</v>
+      </c>
+      <c r="F900" s="3">
+        <v>2.3412000000000002</v>
+      </c>
+      <c r="G900" s="3">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="901" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A901" t="s">
+        <v>5</v>
+      </c>
+      <c r="B901" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C901" t="s">
+        <v>35</v>
+      </c>
+      <c r="D901" t="s">
+        <v>6</v>
+      </c>
+      <c r="E901">
+        <v>5</v>
+      </c>
+      <c r="F901" s="3">
+        <v>2.3357999999999999</v>
+      </c>
+      <c r="G901" s="3">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="902" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A902" t="s">
+        <v>5</v>
+      </c>
+      <c r="B902" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C902" t="s">
+        <v>35</v>
+      </c>
+      <c r="D902" t="s">
+        <v>6</v>
+      </c>
+      <c r="E902">
+        <v>5</v>
+      </c>
+      <c r="F902" s="3">
+        <v>2.3254999999999999</v>
+      </c>
+      <c r="G902" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="903" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A903" t="s">
+        <v>5</v>
+      </c>
+      <c r="B903" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C903" t="s">
+        <v>35</v>
+      </c>
+      <c r="D903" t="s">
+        <v>6</v>
+      </c>
+      <c r="E903">
+        <v>5</v>
+      </c>
+      <c r="F903" s="3">
+        <v>2.319</v>
+      </c>
+      <c r="G903" s="3">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="904" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A904" t="s">
+        <v>5</v>
+      </c>
+      <c r="B904" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C904" t="s">
+        <v>35</v>
+      </c>
+      <c r="D904" t="s">
+        <v>6</v>
+      </c>
+      <c r="E904">
+        <v>5</v>
+      </c>
+      <c r="F904" s="3">
+        <v>2.3046000000000002</v>
+      </c>
+      <c r="G904" s="3">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="905" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A905" t="s">
+        <v>5</v>
+      </c>
+      <c r="B905" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C905" t="s">
+        <v>35</v>
+      </c>
+      <c r="D905" t="s">
+        <v>6</v>
+      </c>
+      <c r="E905">
+        <v>5</v>
+      </c>
+      <c r="F905" s="3">
+        <v>2.2866</v>
+      </c>
+      <c r="G905" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="906" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A906" t="s">
+        <v>5</v>
+      </c>
+      <c r="B906" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C906" t="s">
+        <v>35</v>
+      </c>
+      <c r="D906" t="s">
+        <v>6</v>
+      </c>
+      <c r="E906">
+        <v>6</v>
+      </c>
+      <c r="F906" s="3">
+        <v>3.9649000000000001</v>
+      </c>
+      <c r="G906" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="907" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A907" t="s">
+        <v>5</v>
+      </c>
+      <c r="B907" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C907" t="s">
+        <v>35</v>
+      </c>
+      <c r="D907" t="s">
+        <v>6</v>
+      </c>
+      <c r="E907">
+        <v>6</v>
+      </c>
+      <c r="F907" s="3">
+        <v>3.9367000000000001</v>
+      </c>
+      <c r="G907" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="908" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A908" t="s">
+        <v>5</v>
+      </c>
+      <c r="B908" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C908" t="s">
+        <v>35</v>
+      </c>
+      <c r="D908" t="s">
+        <v>6</v>
+      </c>
+      <c r="E908">
+        <v>6</v>
+      </c>
+      <c r="F908" s="3">
+        <v>3.9251999999999998</v>
+      </c>
+      <c r="G908" s="3">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="909" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A909" t="s">
+        <v>5</v>
+      </c>
+      <c r="B909" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C909" t="s">
+        <v>35</v>
+      </c>
+      <c r="D909" t="s">
+        <v>6</v>
+      </c>
+      <c r="E909">
+        <v>6</v>
+      </c>
+      <c r="F909" s="3">
+        <v>3.9062999999999999</v>
+      </c>
+      <c r="G909" s="3">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="910" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A910" t="s">
+        <v>5</v>
+      </c>
+      <c r="B910" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C910" t="s">
+        <v>35</v>
+      </c>
+      <c r="D910" t="s">
+        <v>6</v>
+      </c>
+      <c r="E910">
+        <v>6</v>
+      </c>
+      <c r="F910" s="3">
+        <v>3.8855</v>
+      </c>
+      <c r="G910" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="911" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A911" t="s">
+        <v>5</v>
+      </c>
+      <c r="B911" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C911" t="s">
+        <v>35</v>
+      </c>
+      <c r="D911" t="s">
+        <v>6</v>
+      </c>
+      <c r="E911">
+        <v>6</v>
+      </c>
+      <c r="F911" s="3">
+        <v>3.8668</v>
+      </c>
+      <c r="G911" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="912" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A912" t="s">
+        <v>5</v>
+      </c>
+      <c r="B912" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C912" t="s">
+        <v>35</v>
+      </c>
+      <c r="D912" t="s">
+        <v>6</v>
+      </c>
+      <c r="E912">
+        <v>6</v>
+      </c>
+      <c r="F912" s="3">
+        <v>3.8502999999999998</v>
+      </c>
+      <c r="G912" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="913" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A913" t="s">
+        <v>5</v>
+      </c>
+      <c r="B913" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C913" t="s">
+        <v>35</v>
+      </c>
+      <c r="D913" t="s">
+        <v>6</v>
+      </c>
+      <c r="E913">
+        <v>6</v>
+      </c>
+      <c r="F913" s="3">
+        <v>3.8338999999999999</v>
+      </c>
+      <c r="G913" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="914" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A914" t="s">
+        <v>5</v>
+      </c>
+      <c r="B914" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C914" t="s">
+        <v>35</v>
+      </c>
+      <c r="D914" t="s">
+        <v>6</v>
+      </c>
+      <c r="E914">
+        <v>6</v>
+      </c>
+      <c r="F914" s="3">
+        <v>3.8180999999999998</v>
+      </c>
+      <c r="G914" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="915" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A915" t="s">
+        <v>5</v>
+      </c>
+      <c r="B915" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C915" t="s">
+        <v>35</v>
+      </c>
+      <c r="D915" t="s">
+        <v>6</v>
+      </c>
+      <c r="E915">
+        <v>6</v>
+      </c>
+      <c r="F915" s="3">
+        <v>3.7991999999999999</v>
+      </c>
+      <c r="G915" s="3">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="916" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A916" t="s">
+        <v>5</v>
+      </c>
+      <c r="B916" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C916" t="s">
+        <v>35</v>
+      </c>
+      <c r="D916" t="s">
+        <v>6</v>
+      </c>
+      <c r="E916">
+        <v>6</v>
+      </c>
+      <c r="F916" s="3">
+        <v>3.7454000000000001</v>
+      </c>
+      <c r="G916" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="917" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A917" t="s">
+        <v>5</v>
+      </c>
+      <c r="B917" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C917" t="s">
+        <v>35</v>
+      </c>
+      <c r="D917" t="s">
+        <v>6</v>
+      </c>
+      <c r="E917">
+        <v>6</v>
+      </c>
+      <c r="F917" s="3">
+        <v>3.7122000000000002</v>
+      </c>
+      <c r="G917" s="3">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="918" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A918" t="s">
+        <v>5</v>
+      </c>
+      <c r="B918" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C918" t="s">
+        <v>35</v>
+      </c>
+      <c r="D918" t="s">
+        <v>6</v>
+      </c>
+      <c r="E918">
+        <v>6</v>
+      </c>
+      <c r="F918" s="3">
+        <v>3.633</v>
+      </c>
+      <c r="G918" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="919" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A919" t="s">
+        <v>5</v>
+      </c>
+      <c r="B919" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C919" t="s">
+        <v>37</v>
+      </c>
+      <c r="D919" t="s">
+        <v>11</v>
+      </c>
+      <c r="E919">
+        <v>1</v>
+      </c>
+      <c r="F919" s="3">
+        <v>0.82689999999999997</v>
+      </c>
+      <c r="G919" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="920" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A920" t="s">
+        <v>5</v>
+      </c>
+      <c r="B920" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C920" t="s">
+        <v>37</v>
+      </c>
+      <c r="D920" t="s">
+        <v>11</v>
+      </c>
+      <c r="E920">
+        <v>1</v>
+      </c>
+      <c r="F920" s="3">
+        <v>0.81220000000000003</v>
+      </c>
+      <c r="G920" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="921" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A921" t="s">
+        <v>5</v>
+      </c>
+      <c r="B921" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C921" t="s">
+        <v>37</v>
+      </c>
+      <c r="D921" t="s">
+        <v>11</v>
+      </c>
+      <c r="E921">
+        <v>1</v>
+      </c>
+      <c r="F921" s="3">
+        <v>0.80279999999999996</v>
+      </c>
+      <c r="G921" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="922" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A922" t="s">
+        <v>5</v>
+      </c>
+      <c r="B922" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C922" t="s">
+        <v>37</v>
+      </c>
+      <c r="D922" t="s">
+        <v>11</v>
+      </c>
+      <c r="E922">
+        <v>1</v>
+      </c>
+      <c r="F922" s="3">
+        <v>0.78990000000000005</v>
+      </c>
+      <c r="G922" s="3">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="923" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A923" t="s">
+        <v>5</v>
+      </c>
+      <c r="B923" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C923" t="s">
+        <v>37</v>
+      </c>
+      <c r="D923" t="s">
+        <v>11</v>
+      </c>
+      <c r="E923">
+        <v>1</v>
+      </c>
+      <c r="F923" s="3">
+        <v>0.7752</v>
+      </c>
+      <c r="G923" s="3">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="924" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A924" t="s">
+        <v>5</v>
+      </c>
+      <c r="B924" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C924" t="s">
+        <v>37</v>
+      </c>
+      <c r="D924" t="s">
+        <v>11</v>
+      </c>
+      <c r="E924">
+        <v>1</v>
+      </c>
+      <c r="F924" s="3">
+        <v>0.75290000000000001</v>
+      </c>
+      <c r="G924" s="3">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="925" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A925" t="s">
+        <v>5</v>
+      </c>
+      <c r="B925" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C925" t="s">
+        <v>37</v>
+      </c>
+      <c r="D925" t="s">
+        <v>11</v>
+      </c>
+      <c r="E925">
+        <v>1</v>
+      </c>
+      <c r="F925" s="3">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="G925" s="3">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="926" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A926" t="s">
+        <v>5</v>
+      </c>
+      <c r="B926" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C926" t="s">
+        <v>37</v>
+      </c>
+      <c r="D926" t="s">
+        <v>11</v>
+      </c>
+      <c r="E926">
+        <v>1</v>
+      </c>
+      <c r="F926" s="3">
+        <v>0.66410000000000002</v>
+      </c>
+      <c r="G926" s="3">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="927" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A927" t="s">
+        <v>5</v>
+      </c>
+      <c r="B927" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C927" t="s">
+        <v>37</v>
+      </c>
+      <c r="D927" t="s">
+        <v>11</v>
+      </c>
+      <c r="E927">
+        <v>2</v>
+      </c>
+      <c r="F927" s="3">
+        <v>2.4089</v>
+      </c>
+      <c r="G927" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="928" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A928" t="s">
+        <v>5</v>
+      </c>
+      <c r="B928" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C928" t="s">
+        <v>37</v>
+      </c>
+      <c r="D928" t="s">
+        <v>11</v>
+      </c>
+      <c r="E928">
+        <v>2</v>
+      </c>
+      <c r="F928" s="3">
+        <v>2.36</v>
+      </c>
+      <c r="G928" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="929" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A929" t="s">
+        <v>5</v>
+      </c>
+      <c r="B929" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C929" t="s">
+        <v>37</v>
+      </c>
+      <c r="D929" t="s">
+        <v>11</v>
+      </c>
+      <c r="E929">
+        <v>2</v>
+      </c>
+      <c r="F929" s="3">
+        <v>2.3130999999999999</v>
+      </c>
+      <c r="G929" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="930" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A930" t="s">
+        <v>5</v>
+      </c>
+      <c r="B930" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C930" t="s">
+        <v>37</v>
+      </c>
+      <c r="D930" t="s">
+        <v>11</v>
+      </c>
+      <c r="E930">
+        <v>2</v>
+      </c>
+      <c r="F930" s="3">
+        <v>2.2787000000000002</v>
+      </c>
+      <c r="G930" s="3">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="931" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A931" t="s">
+        <v>5</v>
+      </c>
+      <c r="B931" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C931" t="s">
+        <v>37</v>
+      </c>
+      <c r="D931" t="s">
+        <v>11</v>
+      </c>
+      <c r="E931">
+        <v>2</v>
+      </c>
+      <c r="F931" s="3">
+        <v>2.2418999999999998</v>
+      </c>
+      <c r="G931" s="3">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="932" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A932" t="s">
+        <v>5</v>
+      </c>
+      <c r="B932" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C932" t="s">
+        <v>37</v>
+      </c>
+      <c r="D932" t="s">
+        <v>11</v>
+      </c>
+      <c r="E932">
+        <v>2</v>
+      </c>
+      <c r="F932" s="3">
+        <v>2.1966999999999999</v>
+      </c>
+      <c r="G932" s="3">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="933" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A933" t="s">
+        <v>5</v>
+      </c>
+      <c r="B933" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C933" t="s">
+        <v>37</v>
+      </c>
+      <c r="D933" t="s">
+        <v>11</v>
+      </c>
+      <c r="E933">
+        <v>2</v>
+      </c>
+      <c r="F933" s="3">
+        <v>2.1353</v>
+      </c>
+      <c r="G933" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="934" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A934" t="s">
+        <v>5</v>
+      </c>
+      <c r="B934" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C934" t="s">
+        <v>37</v>
+      </c>
+      <c r="D934" t="s">
+        <v>11</v>
+      </c>
+      <c r="E934">
+        <v>2</v>
+      </c>
+      <c r="F934" s="3">
+        <v>2.0889000000000002</v>
+      </c>
+      <c r="G934" s="3">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="935" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A935" t="s">
+        <v>5</v>
+      </c>
+      <c r="B935" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C935" t="s">
+        <v>37</v>
+      </c>
+      <c r="D935" t="s">
+        <v>11</v>
+      </c>
+      <c r="E935">
+        <v>2</v>
+      </c>
+      <c r="F935" s="3">
+        <v>1.9901</v>
+      </c>
+      <c r="G935" s="3">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="936" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A936" t="s">
+        <v>5</v>
+      </c>
+      <c r="B936" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C936" t="s">
+        <v>37</v>
+      </c>
+      <c r="D936" t="s">
+        <v>11</v>
+      </c>
+      <c r="E936">
+        <v>2</v>
+      </c>
+      <c r="F936" s="3">
+        <v>1.6732</v>
+      </c>
+      <c r="G936" s="3">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="937" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A937" t="s">
+        <v>5</v>
+      </c>
+      <c r="B937" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C937" t="s">
+        <v>37</v>
+      </c>
+      <c r="D937" t="s">
+        <v>11</v>
+      </c>
+      <c r="E937">
+        <v>3</v>
+      </c>
+      <c r="F937" s="3">
+        <v>1.9231</v>
+      </c>
+      <c r="G937" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="938" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A938" t="s">
+        <v>5</v>
+      </c>
+      <c r="B938" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C938" t="s">
+        <v>37</v>
+      </c>
+      <c r="D938" t="s">
+        <v>11</v>
+      </c>
+      <c r="E938">
+        <v>3</v>
+      </c>
+      <c r="F938" s="3">
+        <v>1.8673999999999999</v>
+      </c>
+      <c r="G938" s="3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="939" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A939" t="s">
+        <v>5</v>
+      </c>
+      <c r="B939" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C939" t="s">
+        <v>37</v>
+      </c>
+      <c r="D939" t="s">
+        <v>11</v>
+      </c>
+      <c r="E939">
+        <v>3</v>
+      </c>
+      <c r="F939" s="3">
+        <v>1.8383</v>
+      </c>
+      <c r="G939" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="940" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A940" t="s">
+        <v>5</v>
+      </c>
+      <c r="B940" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C940" t="s">
+        <v>37</v>
+      </c>
+      <c r="D940" t="s">
+        <v>11</v>
+      </c>
+      <c r="E940">
+        <v>3</v>
+      </c>
+      <c r="F940" s="3">
+        <v>1.7787999999999999</v>
+      </c>
+      <c r="G940" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="941" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A941" t="s">
+        <v>5</v>
+      </c>
+      <c r="B941" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C941" t="s">
+        <v>37</v>
+      </c>
+      <c r="D941" t="s">
+        <v>11</v>
+      </c>
+      <c r="E941">
+        <v>3</v>
+      </c>
+      <c r="F941" s="3">
+        <v>1.7668999999999999</v>
+      </c>
+      <c r="G941" s="3">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="942" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A942" t="s">
+        <v>5</v>
+      </c>
+      <c r="B942" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C942" t="s">
+        <v>37</v>
+      </c>
+      <c r="D942" t="s">
+        <v>11</v>
+      </c>
+      <c r="E942">
+        <v>3</v>
+      </c>
+      <c r="F942" s="3">
+        <v>1.7009000000000001</v>
+      </c>
+      <c r="G942" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="943" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A943" t="s">
+        <v>5</v>
+      </c>
+      <c r="B943" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C943" t="s">
+        <v>37</v>
+      </c>
+      <c r="D943" t="s">
+        <v>11</v>
+      </c>
+      <c r="E943">
+        <v>3</v>
+      </c>
+      <c r="F943" s="3">
+        <v>1.6409</v>
+      </c>
+      <c r="G943" s="3">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="944" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A944" t="s">
+        <v>5</v>
+      </c>
+      <c r="B944" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C944" t="s">
+        <v>37</v>
+      </c>
+      <c r="D944" t="s">
+        <v>11</v>
+      </c>
+      <c r="E944">
+        <v>3</v>
+      </c>
+      <c r="F944" s="3">
+        <v>1.4319</v>
+      </c>
+      <c r="G944" s="3">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="945" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A945" t="s">
+        <v>5</v>
+      </c>
+      <c r="B945" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C945" t="s">
+        <v>37</v>
+      </c>
+      <c r="D945" t="s">
+        <v>11</v>
+      </c>
+      <c r="E945">
+        <v>5</v>
+      </c>
+      <c r="F945" s="3">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="G945" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="946" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A946" t="s">
+        <v>5</v>
+      </c>
+      <c r="B946" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C946" t="s">
+        <v>37</v>
+      </c>
+      <c r="D946" t="s">
+        <v>11</v>
+      </c>
+      <c r="E946">
+        <v>5</v>
+      </c>
+      <c r="F946" s="3">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="G946" s="3">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="947" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A947" t="s">
+        <v>5</v>
+      </c>
+      <c r="B947" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C947" t="s">
+        <v>37</v>
+      </c>
+      <c r="D947" t="s">
+        <v>11</v>
+      </c>
+      <c r="E947">
+        <v>5</v>
+      </c>
+      <c r="F947" s="3">
+        <v>0.96540000000000004</v>
+      </c>
+      <c r="G947" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="948" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A948" t="s">
+        <v>5</v>
+      </c>
+      <c r="B948" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C948" t="s">
+        <v>37</v>
+      </c>
+      <c r="D948" t="s">
+        <v>11</v>
+      </c>
+      <c r="E948">
+        <v>5</v>
+      </c>
+      <c r="F948" s="3">
+        <v>0.9546</v>
+      </c>
+      <c r="G948" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="949" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A949" t="s">
+        <v>5</v>
+      </c>
+      <c r="B949" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C949" t="s">
+        <v>37</v>
+      </c>
+      <c r="D949" t="s">
+        <v>11</v>
+      </c>
+      <c r="E949">
+        <v>5</v>
+      </c>
+      <c r="F949" s="3">
+        <v>0.94420000000000004</v>
+      </c>
+      <c r="G949" s="3">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="950" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A950" t="s">
+        <v>5</v>
+      </c>
+      <c r="B950" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C950" t="s">
+        <v>37</v>
+      </c>
+      <c r="D950" t="s">
+        <v>11</v>
+      </c>
+      <c r="E950">
+        <v>5</v>
+      </c>
+      <c r="F950" s="3">
+        <v>0.93140000000000001</v>
+      </c>
+      <c r="G950" s="3">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="951" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A951" t="s">
+        <v>5</v>
+      </c>
+      <c r="B951" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C951" t="s">
+        <v>37</v>
+      </c>
+      <c r="D951" t="s">
+        <v>11</v>
+      </c>
+      <c r="E951">
+        <v>5</v>
+      </c>
+      <c r="F951" s="3">
+        <v>0.89849999999999997</v>
+      </c>
+      <c r="G951" s="3">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="952" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A952" t="s">
+        <v>5</v>
+      </c>
+      <c r="B952" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C952" t="s">
+        <v>37</v>
+      </c>
+      <c r="D952" t="s">
+        <v>11</v>
+      </c>
+      <c r="E952">
+        <v>5</v>
+      </c>
+      <c r="F952" s="3">
+        <v>0.8448</v>
+      </c>
+      <c r="G952" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="953" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A953" t="s">
+        <v>5</v>
+      </c>
+      <c r="B953" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C953" t="s">
+        <v>37</v>
+      </c>
+      <c r="D953" t="s">
+        <v>11</v>
+      </c>
+      <c r="E953">
+        <v>6</v>
+      </c>
+      <c r="F953" s="3">
+        <v>1.7655000000000001</v>
+      </c>
+      <c r="G953" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="954" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A954" t="s">
+        <v>5</v>
+      </c>
+      <c r="B954" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C954" t="s">
+        <v>37</v>
+      </c>
+      <c r="D954" t="s">
+        <v>11</v>
+      </c>
+      <c r="E954">
+        <v>6</v>
+      </c>
+      <c r="F954" s="3">
+        <v>1.7212000000000001</v>
+      </c>
+      <c r="G954" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="955" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A955" t="s">
+        <v>5</v>
+      </c>
+      <c r="B955" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C955" t="s">
+        <v>37</v>
+      </c>
+      <c r="D955" t="s">
+        <v>11</v>
+      </c>
+      <c r="E955">
+        <v>6</v>
+      </c>
+      <c r="F955" s="3">
+        <v>1.6972</v>
+      </c>
+      <c r="G955" s="3">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="956" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A956" t="s">
+        <v>5</v>
+      </c>
+      <c r="B956" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C956" t="s">
+        <v>37</v>
+      </c>
+      <c r="D956" t="s">
+        <v>11</v>
+      </c>
+      <c r="E956">
+        <v>6</v>
+      </c>
+      <c r="F956" s="3">
+        <v>1.6868000000000001</v>
+      </c>
+      <c r="G956" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="957" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A957" t="s">
+        <v>5</v>
+      </c>
+      <c r="B957" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C957" t="s">
+        <v>37</v>
+      </c>
+      <c r="D957" t="s">
+        <v>11</v>
+      </c>
+      <c r="E957">
+        <v>6</v>
+      </c>
+      <c r="F957" s="3">
+        <v>1.6667000000000001</v>
+      </c>
+      <c r="G957" s="3">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="958" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A958" t="s">
+        <v>5</v>
+      </c>
+      <c r="B958" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C958" t="s">
+        <v>37</v>
+      </c>
+      <c r="D958" t="s">
+        <v>11</v>
+      </c>
+      <c r="E958">
+        <v>6</v>
+      </c>
+      <c r="F958" s="3">
+        <v>1.6365000000000001</v>
+      </c>
+      <c r="G958" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="959" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A959" t="s">
+        <v>5</v>
+      </c>
+      <c r="B959" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C959" t="s">
+        <v>37</v>
+      </c>
+      <c r="D959" t="s">
+        <v>11</v>
+      </c>
+      <c r="E959">
+        <v>6</v>
+      </c>
+      <c r="F959" s="3">
+        <v>1.6092</v>
+      </c>
+      <c r="G959" s="3">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="960" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A960" t="s">
+        <v>5</v>
+      </c>
+      <c r="B960" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C960" t="s">
+        <v>37</v>
+      </c>
+      <c r="D960" t="s">
+        <v>11</v>
+      </c>
+      <c r="E960">
+        <v>6</v>
+      </c>
+      <c r="F960" s="3">
+        <v>1.5758000000000001</v>
+      </c>
+      <c r="G960" s="3">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="961" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A961" t="s">
+        <v>5</v>
+      </c>
+      <c r="B961" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C961" t="s">
+        <v>37</v>
+      </c>
+      <c r="D961" t="s">
+        <v>11</v>
+      </c>
+      <c r="E961">
+        <v>6</v>
+      </c>
+      <c r="F961" s="3">
+        <v>1.5431999999999999</v>
+      </c>
+      <c r="G961" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="962" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A962" t="s">
+        <v>5</v>
+      </c>
+      <c r="B962" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C962" t="s">
+        <v>37</v>
+      </c>
+      <c r="D962" t="s">
+        <v>11</v>
+      </c>
+      <c r="E962">
+        <v>6</v>
+      </c>
+      <c r="F962" s="3">
+        <v>1.5047999999999999</v>
+      </c>
+      <c r="G962" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="963" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A963" t="s">
+        <v>5</v>
+      </c>
+      <c r="B963" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C963" t="s">
+        <v>37</v>
+      </c>
+      <c r="D963" t="s">
+        <v>11</v>
+      </c>
+      <c r="E963">
+        <v>6</v>
+      </c>
+      <c r="F963" s="3">
+        <v>1.4608000000000001</v>
+      </c>
+      <c r="G963" s="3">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="964" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A964" t="s">
+        <v>5</v>
+      </c>
+      <c r="B964" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C964" t="s">
+        <v>37</v>
+      </c>
+      <c r="D964" t="s">
+        <v>11</v>
+      </c>
+      <c r="E964">
+        <v>6</v>
+      </c>
+      <c r="F964" s="3">
+        <v>1.3933</v>
+      </c>
+      <c r="G964" s="3">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="965" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A965" t="s">
+        <v>5</v>
+      </c>
+      <c r="B965" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C965" t="s">
+        <v>37</v>
+      </c>
+      <c r="D965" t="s">
+        <v>11</v>
+      </c>
+      <c r="E965">
+        <v>6</v>
+      </c>
+      <c r="F965" s="3">
+        <v>1.3363</v>
+      </c>
+      <c r="G965" s="3">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="966" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A966" t="s">
+        <v>5</v>
+      </c>
+      <c r="B966" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C966" t="s">
+        <v>37</v>
+      </c>
+      <c r="D966" t="s">
+        <v>11</v>
+      </c>
+      <c r="E966">
+        <v>8</v>
+      </c>
+      <c r="G966" s="3"/>
+    </row>
+    <row r="967" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A967" t="s">
+        <v>5</v>
+      </c>
+      <c r="B967" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C967" t="s">
+        <v>37</v>
+      </c>
+      <c r="D967" t="s">
+        <v>11</v>
+      </c>
+      <c r="E967">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="968" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A968" t="s">
+        <v>5</v>
+      </c>
+      <c r="B968" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C968" t="s">
+        <v>37</v>
+      </c>
+      <c r="D968" t="s">
+        <v>11</v>
+      </c>
+      <c r="E968">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="969" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A969" t="s">
+        <v>5</v>
+      </c>
+      <c r="B969" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C969" t="s">
+        <v>37</v>
+      </c>
+      <c r="D969" t="s">
+        <v>11</v>
+      </c>
+      <c r="E969">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="970" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A970" t="s">
+        <v>5</v>
+      </c>
+      <c r="B970" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C970" t="s">
+        <v>37</v>
+      </c>
+      <c r="D970" t="s">
+        <v>11</v>
+      </c>
+      <c r="E970">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="971" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A971" t="s">
+        <v>5</v>
+      </c>
+      <c r="B971" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C971" t="s">
+        <v>37</v>
+      </c>
+      <c r="D971" t="s">
+        <v>11</v>
+      </c>
+      <c r="E971">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="972" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A972" t="s">
+        <v>5</v>
+      </c>
+      <c r="B972" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C972" t="s">
+        <v>37</v>
+      </c>
+      <c r="D972" t="s">
+        <v>11</v>
+      </c>
+      <c r="E972">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="973" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A973" t="s">
+        <v>5</v>
+      </c>
+      <c r="B973" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C973" t="s">
+        <v>37</v>
+      </c>
+      <c r="D973" t="s">
+        <v>11</v>
+      </c>
+      <c r="E973">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="974" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A974" t="s">
+        <v>5</v>
+      </c>
+      <c r="B974" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C974" t="s">
+        <v>37</v>
+      </c>
+      <c r="D974" t="s">
+        <v>11</v>
+      </c>
+      <c r="E974">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="975" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A975" t="s">
+        <v>5</v>
+      </c>
+      <c r="B975" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C975" t="s">
+        <v>37</v>
+      </c>
+      <c r="D975" t="s">
+        <v>11</v>
+      </c>
+      <c r="E975">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="976" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A976" t="s">
+        <v>5</v>
+      </c>
+      <c r="B976" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C976" t="s">
+        <v>37</v>
+      </c>
+      <c r="D976" t="s">
+        <v>11</v>
+      </c>
+      <c r="E976">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="977" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A977" t="s">
+        <v>5</v>
+      </c>
+      <c r="B977" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C977" t="s">
+        <v>37</v>
+      </c>
+      <c r="D977" t="s">
+        <v>11</v>
+      </c>
+      <c r="E977">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="978" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A978" t="s">
+        <v>5</v>
+      </c>
+      <c r="B978" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C978" t="s">
+        <v>37</v>
+      </c>
+      <c r="D978" t="s">
+        <v>11</v>
+      </c>
+      <c r="E978">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="979" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A979" t="s">
+        <v>5</v>
+      </c>
+      <c r="B979" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C979" t="s">
+        <v>37</v>
+      </c>
+      <c r="D979" t="s">
+        <v>11</v>
+      </c>
+      <c r="E979">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="980" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A980" t="s">
+        <v>5</v>
+      </c>
+      <c r="B980" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C980" t="s">
+        <v>37</v>
+      </c>
+      <c r="D980" t="s">
+        <v>11</v>
+      </c>
+      <c r="E980">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="981" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A981" t="s">
+        <v>5</v>
+      </c>
+      <c r="B981" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C981" t="s">
+        <v>37</v>
+      </c>
+      <c r="D981" t="s">
+        <v>11</v>
+      </c>
+      <c r="E981">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="982" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A982" t="s">
+        <v>5</v>
+      </c>
+      <c r="B982" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C982" t="s">
+        <v>37</v>
+      </c>
+      <c r="D982" t="s">
+        <v>11</v>
+      </c>
+      <c r="E982">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="983" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A983" t="s">
+        <v>5</v>
+      </c>
+      <c r="B983" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C983" t="s">
+        <v>37</v>
+      </c>
+      <c r="D983" t="s">
+        <v>11</v>
+      </c>
+      <c r="E983">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="984" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A984" t="s">
+        <v>5</v>
+      </c>
+      <c r="B984" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C984" t="s">
+        <v>37</v>
+      </c>
+      <c r="D984" t="s">
+        <v>11</v>
+      </c>
+      <c r="E984">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="985" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A985" t="s">
+        <v>5</v>
+      </c>
+      <c r="B985" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C985" t="s">
+        <v>37</v>
+      </c>
+      <c r="D985" t="s">
+        <v>11</v>
+      </c>
+      <c r="E985">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="986" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A986" t="s">
+        <v>5</v>
+      </c>
+      <c r="B986" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C986" t="s">
+        <v>37</v>
+      </c>
+      <c r="D986" t="s">
+        <v>11</v>
+      </c>
+      <c r="E986">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="987" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A987" t="s">
+        <v>5</v>
+      </c>
+      <c r="B987" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C987" t="s">
+        <v>37</v>
+      </c>
+      <c r="D987" t="s">
+        <v>11</v>
+      </c>
+      <c r="E987">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="988" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A988" t="s">
+        <v>5</v>
+      </c>
+      <c r="B988" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C988" t="s">
+        <v>37</v>
+      </c>
+      <c r="D988" t="s">
+        <v>11</v>
+      </c>
+      <c r="E988">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/raw_data/pv_curves.xlsx
+++ b/raw_data/pv_curves.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3497" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3780" uniqueCount="40">
   <si>
     <t>species</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>thelypteris_nicaraguensis</t>
+  </si>
+  <si>
+    <t>elaphoglossum_latifolia</t>
+  </si>
+  <si>
+    <t>18/7/2017</t>
   </si>
 </sst>
 </file>
@@ -500,18 +506,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P988"/>
+  <dimension ref="A1:P1057"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A948" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E967" sqref="E967"/>
+      <pane ySplit="1" topLeftCell="A967" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I981" sqref="I981"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
@@ -24681,9 +24687,14 @@
         <v>11</v>
       </c>
       <c r="E966">
-        <v>8</v>
-      </c>
-      <c r="G966" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="F966" s="3">
+        <v>0.91649999999999998</v>
+      </c>
+      <c r="G966" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="967" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A967" t="s">
@@ -24699,7 +24710,13 @@
         <v>11</v>
       </c>
       <c r="E967">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="F967" s="3">
+        <v>0.89529999999999998</v>
+      </c>
+      <c r="G967" s="3">
+        <v>2.8</v>
       </c>
     </row>
     <row r="968" spans="1:7" x14ac:dyDescent="0.25">
@@ -24716,7 +24733,13 @@
         <v>11</v>
       </c>
       <c r="E968">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="F968" s="3">
+        <v>0.88360000000000005</v>
+      </c>
+      <c r="G968" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="969" spans="1:7" x14ac:dyDescent="0.25">
@@ -24733,7 +24756,13 @@
         <v>11</v>
       </c>
       <c r="E969">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="F969" s="3">
+        <v>0.87549999999999994</v>
+      </c>
+      <c r="G969" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="970" spans="1:7" x14ac:dyDescent="0.25">
@@ -24750,7 +24779,13 @@
         <v>11</v>
       </c>
       <c r="E970">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="F970" s="3">
+        <v>0.86509999999999998</v>
+      </c>
+      <c r="G970" s="3">
+        <v>13</v>
       </c>
     </row>
     <row r="971" spans="1:7" x14ac:dyDescent="0.25">
@@ -24767,7 +24802,13 @@
         <v>11</v>
       </c>
       <c r="E971">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="F971" s="3">
+        <v>0.84609999999999996</v>
+      </c>
+      <c r="G971" s="3">
+        <v>13.9</v>
       </c>
     </row>
     <row r="972" spans="1:7" x14ac:dyDescent="0.25">
@@ -24784,7 +24825,13 @@
         <v>11</v>
       </c>
       <c r="E972">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="F972" s="3">
+        <v>0.82769999999999999</v>
+      </c>
+      <c r="G972" s="3">
+        <v>15</v>
       </c>
     </row>
     <row r="973" spans="1:7" x14ac:dyDescent="0.25">
@@ -24801,7 +24848,13 @@
         <v>11</v>
       </c>
       <c r="E973">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="F973" s="3">
+        <v>0.79810000000000003</v>
+      </c>
+      <c r="G973" s="3">
+        <v>15</v>
       </c>
     </row>
     <row r="974" spans="1:7" x14ac:dyDescent="0.25">
@@ -24818,7 +24871,13 @@
         <v>11</v>
       </c>
       <c r="E974">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="F974" s="3">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="G974" s="3">
+        <v>17</v>
       </c>
     </row>
     <row r="975" spans="1:7" x14ac:dyDescent="0.25">
@@ -24835,7 +24894,13 @@
         <v>11</v>
       </c>
       <c r="E975">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="F975" s="3">
+        <v>0.69220000000000004</v>
+      </c>
+      <c r="G975" s="3">
+        <v>18.5</v>
       </c>
     </row>
     <row r="976" spans="1:7" x14ac:dyDescent="0.25">
@@ -24843,220 +24908,1885 @@
         <v>5</v>
       </c>
       <c r="B976" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C976" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D976" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E976">
+        <v>1</v>
+      </c>
+      <c r="F976" s="3">
+        <v>0.93020000000000003</v>
+      </c>
+      <c r="G976" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="977" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A977" t="s">
+        <v>5</v>
+      </c>
+      <c r="B977" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C977" t="s">
+        <v>38</v>
+      </c>
+      <c r="D977" t="s">
+        <v>6</v>
+      </c>
+      <c r="E977">
+        <v>1</v>
+      </c>
+      <c r="F977" s="3">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="G977" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="978" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A978" t="s">
+        <v>5</v>
+      </c>
+      <c r="B978" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C978" t="s">
+        <v>38</v>
+      </c>
+      <c r="D978" t="s">
+        <v>6</v>
+      </c>
+      <c r="E978">
+        <v>1</v>
+      </c>
+      <c r="F978" s="3">
+        <v>0.92510000000000003</v>
+      </c>
+      <c r="G978" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="979" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A979" t="s">
+        <v>5</v>
+      </c>
+      <c r="B979" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C979" t="s">
+        <v>38</v>
+      </c>
+      <c r="D979" t="s">
+        <v>6</v>
+      </c>
+      <c r="E979">
+        <v>1</v>
+      </c>
+      <c r="F979" s="3">
+        <v>0.92330000000000001</v>
+      </c>
+      <c r="G979" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="980" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A980" t="s">
+        <v>5</v>
+      </c>
+      <c r="B980" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C980" t="s">
+        <v>38</v>
+      </c>
+      <c r="D980" t="s">
+        <v>6</v>
+      </c>
+      <c r="E980">
+        <v>1</v>
+      </c>
+      <c r="F980" s="3">
+        <v>0.9214</v>
+      </c>
+      <c r="G980" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="981" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A981" t="s">
+        <v>5</v>
+      </c>
+      <c r="B981" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C981" t="s">
+        <v>38</v>
+      </c>
+      <c r="D981" t="s">
+        <v>6</v>
+      </c>
+      <c r="E981">
+        <v>1</v>
+      </c>
+      <c r="F981" s="3">
+        <v>0.92</v>
+      </c>
+      <c r="G981" s="3">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="982" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A982" t="s">
+        <v>5</v>
+      </c>
+      <c r="B982" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C982" t="s">
+        <v>38</v>
+      </c>
+      <c r="D982" t="s">
+        <v>6</v>
+      </c>
+      <c r="E982">
+        <v>1</v>
+      </c>
+      <c r="F982" s="3">
+        <v>0.9194</v>
+      </c>
+      <c r="G982" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="983" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A983" t="s">
+        <v>5</v>
+      </c>
+      <c r="B983" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C983" t="s">
+        <v>38</v>
+      </c>
+      <c r="D983" t="s">
+        <v>6</v>
+      </c>
+      <c r="E983">
+        <v>1</v>
+      </c>
+      <c r="F983" s="3">
+        <v>0.91779999999999995</v>
+      </c>
+      <c r="G983" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="984" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A984" t="s">
+        <v>5</v>
+      </c>
+      <c r="B984" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C984" t="s">
+        <v>38</v>
+      </c>
+      <c r="D984" t="s">
+        <v>6</v>
+      </c>
+      <c r="E984">
+        <v>1</v>
+      </c>
+      <c r="F984" s="3">
+        <v>0.91239999999999999</v>
+      </c>
+      <c r="G984" s="3">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="985" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A985" t="s">
+        <v>5</v>
+      </c>
+      <c r="B985" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C985" t="s">
+        <v>38</v>
+      </c>
+      <c r="D985" t="s">
+        <v>6</v>
+      </c>
+      <c r="E985">
+        <v>1</v>
+      </c>
+      <c r="F985" s="3">
+        <v>0.90549999999999997</v>
+      </c>
+      <c r="G985" s="3">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="986" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A986" t="s">
+        <v>5</v>
+      </c>
+      <c r="B986" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C986" t="s">
+        <v>38</v>
+      </c>
+      <c r="D986" t="s">
+        <v>6</v>
+      </c>
+      <c r="E986">
+        <v>1</v>
+      </c>
+      <c r="F986" s="3">
+        <v>0.89690000000000003</v>
+      </c>
+      <c r="G986" s="3">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="987" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A987" t="s">
+        <v>5</v>
+      </c>
+      <c r="B987" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C987" t="s">
+        <v>38</v>
+      </c>
+      <c r="D987" t="s">
+        <v>6</v>
+      </c>
+      <c r="E987">
+        <v>1</v>
+      </c>
+      <c r="F987" s="3">
+        <v>0.88970000000000005</v>
+      </c>
+      <c r="G987" s="3">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="988" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A988" t="s">
+        <v>5</v>
+      </c>
+      <c r="B988" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C988" t="s">
+        <v>38</v>
+      </c>
+      <c r="D988" t="s">
+        <v>6</v>
+      </c>
+      <c r="E988">
+        <v>2</v>
+      </c>
+      <c r="F988" s="3">
+        <v>1.3132999999999999</v>
+      </c>
+      <c r="G988" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="989" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A989" t="s">
+        <v>5</v>
+      </c>
+      <c r="B989" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C989" t="s">
+        <v>38</v>
+      </c>
+      <c r="D989" t="s">
+        <v>6</v>
+      </c>
+      <c r="E989">
+        <v>2</v>
+      </c>
+      <c r="F989" s="3">
+        <v>1.3083</v>
+      </c>
+      <c r="G989" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="990" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A990" t="s">
+        <v>5</v>
+      </c>
+      <c r="B990" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C990" t="s">
+        <v>38</v>
+      </c>
+      <c r="D990" t="s">
+        <v>6</v>
+      </c>
+      <c r="E990">
+        <v>2</v>
+      </c>
+      <c r="F990" s="3">
+        <v>1.3052999999999999</v>
+      </c>
+      <c r="G990" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="991" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A991" t="s">
+        <v>5</v>
+      </c>
+      <c r="B991" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C991" t="s">
+        <v>38</v>
+      </c>
+      <c r="D991" t="s">
+        <v>6</v>
+      </c>
+      <c r="E991">
+        <v>2</v>
+      </c>
+      <c r="F991" s="3">
+        <v>1.3009999999999999</v>
+      </c>
+      <c r="G991" s="3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="992" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A992" t="s">
+        <v>5</v>
+      </c>
+      <c r="B992" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C992" t="s">
+        <v>38</v>
+      </c>
+      <c r="D992" t="s">
+        <v>6</v>
+      </c>
+      <c r="E992">
+        <v>2</v>
+      </c>
+      <c r="F992" s="3">
+        <v>1.2981</v>
+      </c>
+      <c r="G992" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="993" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A993" t="s">
+        <v>5</v>
+      </c>
+      <c r="B993" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C993" t="s">
+        <v>38</v>
+      </c>
+      <c r="D993" t="s">
+        <v>6</v>
+      </c>
+      <c r="E993">
+        <v>2</v>
+      </c>
+      <c r="F993" s="3">
+        <v>1.2949999999999999</v>
+      </c>
+      <c r="G993" s="3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="994" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A994" t="s">
+        <v>5</v>
+      </c>
+      <c r="B994" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C994" t="s">
+        <v>38</v>
+      </c>
+      <c r="D994" t="s">
+        <v>6</v>
+      </c>
+      <c r="E994">
+        <v>2</v>
+      </c>
+      <c r="F994" s="3">
+        <v>1.2922</v>
+      </c>
+      <c r="G994" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="995" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A995" t="s">
+        <v>5</v>
+      </c>
+      <c r="B995" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C995" t="s">
+        <v>38</v>
+      </c>
+      <c r="D995" t="s">
+        <v>6</v>
+      </c>
+      <c r="E995">
+        <v>2</v>
+      </c>
+      <c r="F995" s="3">
+        <v>1.2895000000000001</v>
+      </c>
+      <c r="G995" s="3">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="996" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A996" t="s">
+        <v>5</v>
+      </c>
+      <c r="B996" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C996" t="s">
+        <v>38</v>
+      </c>
+      <c r="D996" t="s">
+        <v>6</v>
+      </c>
+      <c r="E996">
+        <v>2</v>
+      </c>
+      <c r="F996" s="3">
+        <v>1.2862</v>
+      </c>
+      <c r="G996" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="997" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A997" t="s">
+        <v>5</v>
+      </c>
+      <c r="B997" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C997" t="s">
+        <v>38</v>
+      </c>
+      <c r="D997" t="s">
+        <v>6</v>
+      </c>
+      <c r="E997">
+        <v>2</v>
+      </c>
+      <c r="F997" s="3">
+        <v>1.2836000000000001</v>
+      </c>
+      <c r="G997" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="998" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A998" t="s">
+        <v>5</v>
+      </c>
+      <c r="B998" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C998" t="s">
+        <v>38</v>
+      </c>
+      <c r="D998" t="s">
+        <v>6</v>
+      </c>
+      <c r="E998">
+        <v>2</v>
+      </c>
+      <c r="F998" s="3">
+        <v>1.2810999999999999</v>
+      </c>
+      <c r="G998" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="999" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A999" t="s">
+        <v>5</v>
+      </c>
+      <c r="B999" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C999" t="s">
+        <v>38</v>
+      </c>
+      <c r="D999" t="s">
+        <v>6</v>
+      </c>
+      <c r="E999">
+        <v>2</v>
+      </c>
+      <c r="F999" s="3">
+        <v>1.2705</v>
+      </c>
+      <c r="G999" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1000" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1000" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1000" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1000">
+        <v>2</v>
+      </c>
+      <c r="F1000" s="3">
+        <v>1.2649999999999999</v>
+      </c>
+      <c r="G1000" s="3">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1001" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1001" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1001" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1001">
+        <v>2</v>
+      </c>
+      <c r="F1001" s="3">
+        <v>1.2326999999999999</v>
+      </c>
+      <c r="G1001" s="3">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1002" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1002" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1002" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1002">
+        <v>2</v>
+      </c>
+      <c r="F1002" s="3">
+        <v>1.2209000000000001</v>
+      </c>
+      <c r="G1002" s="3">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1003" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1003" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1003" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1003">
+        <v>2</v>
+      </c>
+      <c r="F1003" s="3">
+        <v>1.2108000000000001</v>
+      </c>
+      <c r="G1003" s="3">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1004" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1004" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1004" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1004">
+        <v>3</v>
+      </c>
+      <c r="F1004" s="3">
+        <v>1.8383</v>
+      </c>
+      <c r="G1004" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1005" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1005" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1005" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1005">
+        <v>3</v>
+      </c>
+      <c r="F1005" s="3">
+        <v>1.8262</v>
+      </c>
+      <c r="G1005" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1006" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1006" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1006" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1006">
+        <v>3</v>
+      </c>
+      <c r="F1006" s="3">
+        <v>1.8199000000000001</v>
+      </c>
+      <c r="G1006" s="3">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1007" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1007" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1007" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1007">
+        <v>3</v>
+      </c>
+      <c r="F1007" s="3">
+        <v>1.8166</v>
+      </c>
+      <c r="G1007" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1008" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1008" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1008" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1008">
+        <v>3</v>
+      </c>
+      <c r="F1008" s="3">
+        <v>1.8142</v>
+      </c>
+      <c r="G1008" s="3">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1009" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1009" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1009" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1009">
+        <v>3</v>
+      </c>
+      <c r="F1009" s="3">
+        <v>1.8136000000000001</v>
+      </c>
+      <c r="G1009" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1010" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1010" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1010" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1010">
+        <v>3</v>
+      </c>
+      <c r="F1010" s="3">
+        <v>1.8078000000000001</v>
+      </c>
+      <c r="G1010" s="3">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1011" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1011" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1011" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1011">
+        <v>3</v>
+      </c>
+      <c r="F1011" s="3">
+        <v>1.8053999999999999</v>
+      </c>
+      <c r="G1011" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1012" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1012" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1012" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1012" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1012">
+        <v>3</v>
+      </c>
+      <c r="F1012" s="3">
+        <v>1.8026</v>
+      </c>
+      <c r="G1012" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1013" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1013" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1013" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1013" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1013">
+        <v>3</v>
+      </c>
+      <c r="F1013" s="3">
+        <v>1.7979000000000001</v>
+      </c>
+      <c r="G1013" s="3">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1014" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1014" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1014" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1014">
+        <v>3</v>
+      </c>
+      <c r="F1014" s="3">
+        <v>1.788</v>
+      </c>
+      <c r="G1014" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1015" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1015" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1015" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1015">
+        <v>4</v>
+      </c>
+      <c r="F1015" s="3">
+        <v>1.7586999999999999</v>
+      </c>
+      <c r="G1015" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1016" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1016" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1016" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1016" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1016">
+        <v>4</v>
+      </c>
+      <c r="F1016" s="3">
+        <v>1.7538</v>
+      </c>
+      <c r="G1016" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1017" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1017" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1017" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1017" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1017">
+        <v>4</v>
+      </c>
+      <c r="F1017" s="3">
+        <v>1.7464</v>
+      </c>
+      <c r="G1017" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1018" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1018" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1018" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1018" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1018">
+        <v>4</v>
+      </c>
+      <c r="F1018" s="3">
+        <v>1.7438</v>
+      </c>
+      <c r="G1018" s="3">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1019" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1019" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1019" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1019" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1019">
+        <v>4</v>
+      </c>
+      <c r="F1019" s="3">
+        <v>1.7398</v>
+      </c>
+      <c r="G1019" s="3">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1020" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1020" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1020" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1020" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1020">
+        <v>4</v>
+      </c>
+      <c r="F1020" s="3">
+        <v>1.7375</v>
+      </c>
+      <c r="G1020" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1021" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1021" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1021" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1021" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1021">
+        <v>4</v>
+      </c>
+      <c r="F1021" s="3">
+        <v>1.7342</v>
+      </c>
+      <c r="G1021" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1022" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1022" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1022" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1022" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1022">
+        <v>4</v>
+      </c>
+      <c r="F1022" s="3">
+        <v>1.7312000000000001</v>
+      </c>
+      <c r="G1022" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1023" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1023" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1023" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1023" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1023">
+        <v>4</v>
+      </c>
+      <c r="F1023" s="3">
+        <v>1.7283999999999999</v>
+      </c>
+      <c r="G1023" s="3">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1024" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1024" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1024" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1024" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1024">
+        <v>4</v>
+      </c>
+      <c r="F1024" s="3">
+        <v>1.7237</v>
+      </c>
+      <c r="G1024" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="977" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A977" t="s">
-        <v>5</v>
-      </c>
-      <c r="B977" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C977" t="s">
-        <v>37</v>
-      </c>
-      <c r="D977" t="s">
-        <v>11</v>
-      </c>
-      <c r="E977">
+    <row r="1025" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1025" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1025" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1025" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1025" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1025">
+        <v>4</v>
+      </c>
+      <c r="F1025" s="3">
+        <v>1.7191000000000001</v>
+      </c>
+      <c r="G1025" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1026" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1026" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1026" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1026" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1026">
+        <v>4</v>
+      </c>
+      <c r="F1026" s="3">
+        <v>1.7084999999999999</v>
+      </c>
+      <c r="G1026" s="3">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1027" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1027" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1027" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1027" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1027">
+        <v>4</v>
+      </c>
+      <c r="F1027" s="3">
+        <v>1.7010000000000001</v>
+      </c>
+      <c r="G1027" s="3">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1028" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1028" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1028" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1028" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1028">
+        <v>4</v>
+      </c>
+      <c r="F1028" s="3">
+        <v>1.6890000000000001</v>
+      </c>
+      <c r="G1028" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1029" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1029" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1029" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1029" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1029">
+        <v>4</v>
+      </c>
+      <c r="F1029" s="3">
+        <v>1.6819999999999999</v>
+      </c>
+      <c r="G1029" s="3">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1030" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1030" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1030" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1030">
+        <v>4</v>
+      </c>
+      <c r="F1030" s="3">
+        <v>1.6636</v>
+      </c>
+      <c r="G1030" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1031" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1031" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1031" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1031" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1031">
+        <v>5</v>
+      </c>
+      <c r="F1031" s="3">
+        <v>2.3096000000000001</v>
+      </c>
+      <c r="G1031" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1032" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1032" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1032" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1032" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1032">
+        <v>5</v>
+      </c>
+      <c r="F1032" s="3">
+        <v>2.2900999999999998</v>
+      </c>
+      <c r="G1032" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1033" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1033" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1033" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1033" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1033">
+        <v>5</v>
+      </c>
+      <c r="F1033" s="3">
+        <v>2.2856000000000001</v>
+      </c>
+      <c r="G1033" s="3">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1034" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1034" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1034" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1034">
+        <v>5</v>
+      </c>
+      <c r="F1034" s="3">
+        <v>2.2827000000000002</v>
+      </c>
+      <c r="G1034" s="3">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1035" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1035" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1035" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1035" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1035">
+        <v>5</v>
+      </c>
+      <c r="F1035" s="3">
+        <v>2.2808000000000002</v>
+      </c>
+      <c r="G1035" s="3">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1036" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1036" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1036" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1036" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1036">
+        <v>5</v>
+      </c>
+      <c r="F1036" s="3">
+        <v>2.2787000000000002</v>
+      </c>
+      <c r="G1036" s="3">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1037" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1037" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1037" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1037" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1037">
+        <v>5</v>
+      </c>
+      <c r="F1037" s="3">
+        <v>2.2764000000000002</v>
+      </c>
+      <c r="G1037" s="3">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1038" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1038" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1038" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1038" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1038">
+        <v>5</v>
+      </c>
+      <c r="F1038" s="3">
+        <v>2.2751999999999999</v>
+      </c>
+      <c r="G1038" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1039" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1039" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1039" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1039" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1039">
+        <v>5</v>
+      </c>
+      <c r="F1039" s="3">
+        <v>2.2746</v>
+      </c>
+      <c r="G1039" s="3">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1040" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1040" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1040" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1040" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1040">
+        <v>5</v>
+      </c>
+      <c r="F1040" s="3">
+        <v>2.2692999999999999</v>
+      </c>
+      <c r="G1040" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="978" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A978" t="s">
-        <v>5</v>
-      </c>
-      <c r="B978" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C978" t="s">
-        <v>37</v>
-      </c>
-      <c r="D978" t="s">
-        <v>11</v>
-      </c>
-      <c r="E978">
+    <row r="1041" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1041" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1041" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1041" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1041">
+        <v>5</v>
+      </c>
+      <c r="F1041" s="3">
+        <v>2.2667000000000002</v>
+      </c>
+      <c r="G1041" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="979" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A979" t="s">
-        <v>5</v>
-      </c>
-      <c r="B979" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C979" t="s">
-        <v>37</v>
-      </c>
-      <c r="D979" t="s">
-        <v>11</v>
-      </c>
-      <c r="E979">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="980" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A980" t="s">
-        <v>5</v>
-      </c>
-      <c r="B980" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C980" t="s">
-        <v>37</v>
-      </c>
-      <c r="D980" t="s">
-        <v>11</v>
-      </c>
-      <c r="E980">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="981" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A981" t="s">
-        <v>5</v>
-      </c>
-      <c r="B981" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C981" t="s">
-        <v>37</v>
-      </c>
-      <c r="D981" t="s">
-        <v>11</v>
-      </c>
-      <c r="E981">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="982" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A982" t="s">
-        <v>5</v>
-      </c>
-      <c r="B982" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C982" t="s">
-        <v>37</v>
-      </c>
-      <c r="D982" t="s">
-        <v>11</v>
-      </c>
-      <c r="E982">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="983" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A983" t="s">
-        <v>5</v>
-      </c>
-      <c r="B983" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C983" t="s">
-        <v>37</v>
-      </c>
-      <c r="D983" t="s">
-        <v>11</v>
-      </c>
-      <c r="E983">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="984" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A984" t="s">
-        <v>5</v>
-      </c>
-      <c r="B984" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C984" t="s">
-        <v>37</v>
-      </c>
-      <c r="D984" t="s">
-        <v>11</v>
-      </c>
-      <c r="E984">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="985" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A985" t="s">
-        <v>5</v>
-      </c>
-      <c r="B985" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C985" t="s">
-        <v>37</v>
-      </c>
-      <c r="D985" t="s">
-        <v>11</v>
-      </c>
-      <c r="E985">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="986" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A986" t="s">
-        <v>5</v>
-      </c>
-      <c r="B986" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C986" t="s">
-        <v>37</v>
-      </c>
-      <c r="D986" t="s">
-        <v>11</v>
-      </c>
-      <c r="E986">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="987" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A987" t="s">
-        <v>5</v>
-      </c>
-      <c r="B987" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C987" t="s">
-        <v>37</v>
-      </c>
-      <c r="D987" t="s">
-        <v>11</v>
-      </c>
-      <c r="E987">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="988" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A988" t="s">
-        <v>5</v>
-      </c>
-      <c r="B988" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C988" t="s">
-        <v>37</v>
-      </c>
-      <c r="D988" t="s">
-        <v>11</v>
-      </c>
-      <c r="E988">
-        <v>8</v>
+    <row r="1042" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1042" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1042" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1042" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1042" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1042">
+        <v>5</v>
+      </c>
+      <c r="F1042" s="3">
+        <v>2.2589999999999999</v>
+      </c>
+      <c r="G1042" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1043" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1043" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1043" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1043" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1043">
+        <v>5</v>
+      </c>
+      <c r="F1043" s="3">
+        <v>2.2469999999999999</v>
+      </c>
+      <c r="G1043" s="3">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1044" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1044" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1044" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1044" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1044">
+        <v>5</v>
+      </c>
+      <c r="F1044" s="3">
+        <v>2.2357</v>
+      </c>
+      <c r="G1044" s="3">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1045" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1045" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1045" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1045" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1045">
+        <v>5</v>
+      </c>
+      <c r="F1045" s="3">
+        <v>2.2610000000000001</v>
+      </c>
+      <c r="G1045" s="3">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1046" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1046" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1046" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1046">
+        <v>6</v>
+      </c>
+      <c r="F1046" s="3">
+        <v>1.8929</v>
+      </c>
+      <c r="G1046" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1047" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1047" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1047" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1047" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1047">
+        <v>6</v>
+      </c>
+      <c r="F1047" s="3">
+        <v>1.8852</v>
+      </c>
+      <c r="G1047" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1048" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1048" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1048" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1048" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1048">
+        <v>6</v>
+      </c>
+      <c r="F1048" s="3">
+        <v>1.8764000000000001</v>
+      </c>
+      <c r="G1048" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1049" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1049" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1049" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1049" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1049">
+        <v>6</v>
+      </c>
+      <c r="F1049" s="3">
+        <v>1.8697999999999999</v>
+      </c>
+      <c r="G1049" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1050" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1050" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1050" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1050" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1050">
+        <v>6</v>
+      </c>
+      <c r="F1050" s="3">
+        <v>1.8615999999999999</v>
+      </c>
+      <c r="G1050" s="3">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1051" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1051" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1051" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1051" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1051">
+        <v>6</v>
+      </c>
+      <c r="F1051" s="3">
+        <v>1.8565</v>
+      </c>
+      <c r="G1051" s="3">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1052" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1052" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1052" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1052" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1052">
+        <v>6</v>
+      </c>
+      <c r="F1052" s="3">
+        <v>1.8501000000000001</v>
+      </c>
+      <c r="G1052" s="3">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1053" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1053" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1053" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1053" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1053">
+        <v>6</v>
+      </c>
+      <c r="F1053" s="3">
+        <v>1.8376999999999999</v>
+      </c>
+      <c r="G1053" s="3">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1054" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1054" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1054" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1054" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1054">
+        <v>6</v>
+      </c>
+      <c r="F1054" s="3">
+        <v>1.8238000000000001</v>
+      </c>
+      <c r="G1054" s="3">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1055" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1055" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1055" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1055" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1055">
+        <v>6</v>
+      </c>
+      <c r="F1055" s="3">
+        <v>1.8089999999999999</v>
+      </c>
+      <c r="G1055" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1056" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1056" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1056" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1056" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1056">
+        <v>6</v>
+      </c>
+      <c r="F1056" s="3">
+        <v>1.7875000000000001</v>
+      </c>
+      <c r="G1056" s="3">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1057" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1057" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1057" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1057" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1057">
+        <v>6</v>
+      </c>
+      <c r="F1057" s="3">
+        <v>1.766</v>
+      </c>
+      <c r="G1057" s="3">
+        <v>13.9</v>
       </c>
     </row>
   </sheetData>

--- a/raw_data/pv_curves.xlsx
+++ b/raw_data/pv_curves.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3780" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4914" uniqueCount="45">
   <si>
     <t>species</t>
   </si>
@@ -144,6 +144,21 @@
   </si>
   <si>
     <t>18/7/2017</t>
+  </si>
+  <si>
+    <t>pecluma_pectinata</t>
+  </si>
+  <si>
+    <t>19/7/2017</t>
+  </si>
+  <si>
+    <t>elaphoglossum_herminieri</t>
+  </si>
+  <si>
+    <t>asplenium_juglandifolia</t>
+  </si>
+  <si>
+    <t>oleandra_articulata</t>
   </si>
 </sst>
 </file>
@@ -506,18 +521,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P1057"/>
+  <dimension ref="A1:P1335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A967" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I981" sqref="I981"/>
+      <pane ySplit="1" topLeftCell="A1323" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L1328" sqref="L1328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
@@ -26789,6 +26804,6400 @@
         <v>13.9</v>
       </c>
     </row>
+    <row r="1058" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1058" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1058" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1058" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1058" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1058">
+        <v>1</v>
+      </c>
+      <c r="F1058" s="3">
+        <v>4.3400000000000001E-2</v>
+      </c>
+      <c r="G1058" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1059" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1059" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1059" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1059" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1059">
+        <v>1</v>
+      </c>
+      <c r="F1059" s="3">
+        <v>0.42820000000000003</v>
+      </c>
+      <c r="G1059" s="3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1060" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1060" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1060" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1060" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1060">
+        <v>1</v>
+      </c>
+      <c r="F1060" s="3">
+        <v>0.42559999999999998</v>
+      </c>
+      <c r="G1060" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1061" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1061" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1061" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1061" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1061">
+        <v>1</v>
+      </c>
+      <c r="F1061" s="3">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="G1061" s="3">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1062" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1062" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1062" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1062" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1062">
+        <v>1</v>
+      </c>
+      <c r="F1062" s="3">
+        <v>0.4229</v>
+      </c>
+      <c r="G1062" s="3">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1063" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1063" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1063" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1063" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1063">
+        <v>1</v>
+      </c>
+      <c r="F1063" s="3">
+        <v>0.42059999999999997</v>
+      </c>
+      <c r="G1063" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1064" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1064" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1064" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1064" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1064">
+        <v>1</v>
+      </c>
+      <c r="F1064" s="3">
+        <v>0.41670000000000001</v>
+      </c>
+      <c r="G1064" s="3">
+        <v>16.54</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1065" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1065" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1065" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1065" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1065">
+        <v>1</v>
+      </c>
+      <c r="F1065" s="3">
+        <v>0.41310000000000002</v>
+      </c>
+      <c r="G1065" s="3">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1066" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1066" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1066" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1066" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1066">
+        <v>1</v>
+      </c>
+      <c r="F1066" s="3">
+        <v>0.40820000000000001</v>
+      </c>
+      <c r="G1066" s="3">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1067" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1067" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1067" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1067" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1067">
+        <v>1</v>
+      </c>
+      <c r="F1067" s="3">
+        <v>0.3886</v>
+      </c>
+      <c r="G1067" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1068" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1068" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1068" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1068" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1068">
+        <v>2</v>
+      </c>
+      <c r="F1068" s="3">
+        <v>0.57779999999999998</v>
+      </c>
+      <c r="G1068" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1069" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1069" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1069" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1069" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1069">
+        <v>2</v>
+      </c>
+      <c r="F1069" s="3">
+        <v>0.56850000000000001</v>
+      </c>
+      <c r="G1069" s="3">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1070" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1070" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1070" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1070" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1070">
+        <v>2</v>
+      </c>
+      <c r="F1070" s="3">
+        <v>0.5645</v>
+      </c>
+      <c r="G1070" s="3">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1071" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1071" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1071" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1071" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1071">
+        <v>2</v>
+      </c>
+      <c r="F1071" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="G1071" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1072" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1072" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1072" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1072" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1072">
+        <v>2</v>
+      </c>
+      <c r="F1072" s="3">
+        <v>0.55840000000000001</v>
+      </c>
+      <c r="G1072" s="3">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1073" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1073" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1073" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1073" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1073">
+        <v>2</v>
+      </c>
+      <c r="F1073" s="3">
+        <v>0.55579999999999996</v>
+      </c>
+      <c r="G1073" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1074" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1074" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1074" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1074" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1074">
+        <v>2</v>
+      </c>
+      <c r="F1074" s="3">
+        <v>0.55320000000000003</v>
+      </c>
+      <c r="G1074" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1075" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1075" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1075" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1075" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1075">
+        <v>2</v>
+      </c>
+      <c r="F1075" s="3">
+        <v>0.54449999999999998</v>
+      </c>
+      <c r="G1075" s="3">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1076" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1076" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1076" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1076" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1076">
+        <v>2</v>
+      </c>
+      <c r="F1076" s="3">
+        <v>0.54010000000000002</v>
+      </c>
+      <c r="G1076" s="3">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1077" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1077" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1077" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1077" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1077">
+        <v>2</v>
+      </c>
+      <c r="F1077" s="3">
+        <v>0.53159999999999996</v>
+      </c>
+      <c r="G1077" s="3">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1078" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1078" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1078" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1078" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1078">
+        <v>3</v>
+      </c>
+      <c r="F1078" s="3">
+        <v>0.69840000000000002</v>
+      </c>
+      <c r="G1078" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1079" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1079" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1079" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1079" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1079">
+        <v>3</v>
+      </c>
+      <c r="F1079" s="3">
+        <v>0.68220000000000003</v>
+      </c>
+      <c r="G1079" s="3">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1080" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1080" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1080" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1080" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1080">
+        <v>3</v>
+      </c>
+      <c r="F1080" s="3">
+        <v>0.67730000000000001</v>
+      </c>
+      <c r="G1080" s="3">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1081" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1081" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1081" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1081" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1081">
+        <v>3</v>
+      </c>
+      <c r="F1081" s="3">
+        <v>0.67120000000000002</v>
+      </c>
+      <c r="G1081" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1082" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1082" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1082" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1082" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1082">
+        <v>3</v>
+      </c>
+      <c r="F1082" s="3">
+        <v>0.66810000000000003</v>
+      </c>
+      <c r="G1082" s="3">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1083" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1083" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1083" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1083" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1083">
+        <v>3</v>
+      </c>
+      <c r="F1083" s="3">
+        <v>0.66349999999999998</v>
+      </c>
+      <c r="G1083" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1084" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1084" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1084" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1084" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1084">
+        <v>3</v>
+      </c>
+      <c r="F1084" s="3">
+        <v>0.66</v>
+      </c>
+      <c r="G1084" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1085" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1085" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1085" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1085" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1085">
+        <v>3</v>
+      </c>
+      <c r="F1085" s="3">
+        <v>0.65029999999999999</v>
+      </c>
+      <c r="G1085" s="3">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1086" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1086" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1086" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1086" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1086">
+        <v>3</v>
+      </c>
+      <c r="F1086" s="3">
+        <v>0.6361</v>
+      </c>
+      <c r="G1086" s="3">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1087" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1087" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1087" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1087" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1087">
+        <v>3</v>
+      </c>
+      <c r="F1087" s="3">
+        <v>0.62050000000000005</v>
+      </c>
+      <c r="G1087" s="3">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1088" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1088" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1088" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1088" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1088">
+        <v>4</v>
+      </c>
+      <c r="F1088" s="3">
+        <v>0.45440000000000003</v>
+      </c>
+      <c r="G1088" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1089" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1089" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1089" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1089" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1089">
+        <v>4</v>
+      </c>
+      <c r="F1089" s="3">
+        <v>0.43030000000000002</v>
+      </c>
+      <c r="G1089" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1090" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1090" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1090" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1090" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1090">
+        <v>4</v>
+      </c>
+      <c r="F1090" s="3">
+        <v>0.41970000000000002</v>
+      </c>
+      <c r="G1090" s="3">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1091" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1091" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1091" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1091" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1091">
+        <v>4</v>
+      </c>
+      <c r="F1091" s="3">
+        <v>0.4178</v>
+      </c>
+      <c r="G1091" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1092" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1092" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1092" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1092" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1092">
+        <v>4</v>
+      </c>
+      <c r="F1092" s="3">
+        <v>0.4133</v>
+      </c>
+      <c r="G1092" s="3">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1093" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1093" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1093" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1093" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1093">
+        <v>4</v>
+      </c>
+      <c r="F1093" s="3">
+        <v>0.40579999999999999</v>
+      </c>
+      <c r="G1093" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1094" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1094" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1094" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1094" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1094">
+        <v>4</v>
+      </c>
+      <c r="F1094" s="3">
+        <v>0.4012</v>
+      </c>
+      <c r="G1094" s="3">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1095" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1095" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1095" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1095" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1095">
+        <v>4</v>
+      </c>
+      <c r="F1095" s="3">
+        <v>0.3967</v>
+      </c>
+      <c r="G1095" s="3">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1096" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1096" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1096" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1096" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1096">
+        <v>4</v>
+      </c>
+      <c r="F1096" s="3">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="G1096" s="3">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1097" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1097" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1097" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1097" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1097">
+        <v>5</v>
+      </c>
+      <c r="F1097" s="3">
+        <v>0.69289999999999996</v>
+      </c>
+      <c r="G1097" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1098" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1098" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1098" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1098" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1098">
+        <v>5</v>
+      </c>
+      <c r="F1098" s="3">
+        <v>0.68759999999999999</v>
+      </c>
+      <c r="G1098" s="3">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1099" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1099" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1099" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1099" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1099">
+        <v>5</v>
+      </c>
+      <c r="F1099" s="3">
+        <v>0.68510000000000004</v>
+      </c>
+      <c r="G1099" s="3">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1100" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1100" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1100" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1100">
+        <v>5</v>
+      </c>
+      <c r="F1100" s="3">
+        <v>0.68240000000000001</v>
+      </c>
+      <c r="G1100" s="3">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1101" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1101" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1101" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1101">
+        <v>5</v>
+      </c>
+      <c r="F1101" s="3">
+        <v>0.67869999999999997</v>
+      </c>
+      <c r="G1101" s="3">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1102" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1102" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1102" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1102">
+        <v>5</v>
+      </c>
+      <c r="F1102" s="3">
+        <v>0.67842999999999998</v>
+      </c>
+      <c r="G1102" s="3">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1103" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1103" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1103">
+        <v>5</v>
+      </c>
+      <c r="F1103" s="3">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="G1103" s="3">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1104" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1104" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1104">
+        <v>5</v>
+      </c>
+      <c r="F1104" s="3">
+        <v>0.66059999999999997</v>
+      </c>
+      <c r="G1104" s="3">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1105" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1105" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1105" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1105">
+        <v>5</v>
+      </c>
+      <c r="F1105" s="3">
+        <v>0.65090000000000003</v>
+      </c>
+      <c r="G1105" s="3">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1106" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1106" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1106">
+        <v>6</v>
+      </c>
+      <c r="F1106" s="3">
+        <v>0.56269999999999998</v>
+      </c>
+      <c r="G1106" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1107" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1107" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1107">
+        <v>6</v>
+      </c>
+      <c r="F1107" s="3">
+        <v>0.54610000000000003</v>
+      </c>
+      <c r="G1107" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1108" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1108" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1108">
+        <v>6</v>
+      </c>
+      <c r="F1108" s="3">
+        <v>0.5373</v>
+      </c>
+      <c r="G1108" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1109" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1109" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1109">
+        <v>6</v>
+      </c>
+      <c r="F1109" s="3">
+        <v>0.53120000000000001</v>
+      </c>
+      <c r="G1109" s="3">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1110" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1110" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1110">
+        <v>6</v>
+      </c>
+      <c r="F1110" s="3">
+        <v>0.52569999999999995</v>
+      </c>
+      <c r="G1110" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1111" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1111" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1111">
+        <v>6</v>
+      </c>
+      <c r="F1111" s="3">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="G1111" s="3">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1112" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1112" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1112" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1112">
+        <v>6</v>
+      </c>
+      <c r="F1112" s="3">
+        <v>0.51670000000000005</v>
+      </c>
+      <c r="G1112" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1113" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1113" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1113" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1113">
+        <v>6</v>
+      </c>
+      <c r="F1113" s="3">
+        <v>0.51129999999999998</v>
+      </c>
+      <c r="G1113" s="3">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1114" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1114" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1114" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1114">
+        <v>6</v>
+      </c>
+      <c r="F1114" s="3">
+        <v>0.50660000000000005</v>
+      </c>
+      <c r="G1114" s="3">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1115" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1115" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1115" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1115">
+        <v>6</v>
+      </c>
+      <c r="F1115" s="3">
+        <v>0.49919999999999998</v>
+      </c>
+      <c r="G1115" s="3">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1116" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1116" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1116" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1116">
+        <v>6</v>
+      </c>
+      <c r="F1116" s="3">
+        <v>0.48420000000000002</v>
+      </c>
+      <c r="G1116" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1117" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1117" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1117" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1117">
+        <v>1</v>
+      </c>
+      <c r="F1117" s="3">
+        <v>1.0571999999999999</v>
+      </c>
+      <c r="G1117" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1118" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1118" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1118" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1118">
+        <v>1</v>
+      </c>
+      <c r="F1118" s="3">
+        <v>1.0550999999999999</v>
+      </c>
+      <c r="G1118" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1119" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1119" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1119" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1119">
+        <v>1</v>
+      </c>
+      <c r="F1119" s="3">
+        <v>1.0515000000000001</v>
+      </c>
+      <c r="G1119" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1120" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1120" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1120" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1120">
+        <v>1</v>
+      </c>
+      <c r="F1120" s="3">
+        <v>1.0501</v>
+      </c>
+      <c r="G1120" s="3">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1121" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1121" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1121" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1121" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1121">
+        <v>1</v>
+      </c>
+      <c r="F1121" s="3">
+        <v>1.0458000000000001</v>
+      </c>
+      <c r="G1121" s="3">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1122" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1122" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1122" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1122">
+        <v>1</v>
+      </c>
+      <c r="F1122" s="3">
+        <v>1.0457000000000001</v>
+      </c>
+      <c r="G1122" s="3">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1123" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1123" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1123" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1123">
+        <v>1</v>
+      </c>
+      <c r="F1123" s="3">
+        <v>1.0448999999999999</v>
+      </c>
+      <c r="G1123" s="3">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1124" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1124" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1124" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1124">
+        <v>1</v>
+      </c>
+      <c r="F1124" s="3">
+        <v>1.0418000000000001</v>
+      </c>
+      <c r="G1124" s="3">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1125" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1125" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1125" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1125">
+        <v>1</v>
+      </c>
+      <c r="F1125" s="3">
+        <v>1.038</v>
+      </c>
+      <c r="G1125" s="3">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1126" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1126" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1126" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1126">
+        <v>1</v>
+      </c>
+      <c r="F1126" s="3">
+        <v>1.0333000000000001</v>
+      </c>
+      <c r="G1126" s="3">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1127" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1127" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1127" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1127" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1127">
+        <v>1</v>
+      </c>
+      <c r="F1127" s="3">
+        <v>1.0279</v>
+      </c>
+      <c r="G1127" s="3">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1128" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1128" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1128" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1128">
+        <v>1</v>
+      </c>
+      <c r="F1128" s="3">
+        <v>1.0230999999999999</v>
+      </c>
+      <c r="G1128" s="3">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1129" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1129" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1129" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1129">
+        <v>1</v>
+      </c>
+      <c r="F1129" s="3">
+        <v>1.0181</v>
+      </c>
+      <c r="G1129" s="3">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1130" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1130" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1130" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1130">
+        <v>1</v>
+      </c>
+      <c r="F1130" s="3">
+        <v>1.0079</v>
+      </c>
+      <c r="G1130" s="3">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1131" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1131" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1131" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1131">
+        <v>1</v>
+      </c>
+      <c r="F1131" s="3">
+        <v>1.006</v>
+      </c>
+      <c r="G1131" s="3">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1132" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1132" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1132" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1132">
+        <v>2</v>
+      </c>
+      <c r="F1132" s="3">
+        <v>1.3565</v>
+      </c>
+      <c r="G1132" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1133" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1133" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1133" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1133" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1133">
+        <v>2</v>
+      </c>
+      <c r="F1133" s="3">
+        <v>1.3471</v>
+      </c>
+      <c r="G1133" s="3">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1134" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1134" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1134" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1134">
+        <v>2</v>
+      </c>
+      <c r="F1134" s="3">
+        <v>1.3413999999999999</v>
+      </c>
+      <c r="G1134" s="3">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1135" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1135" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1135" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1135">
+        <v>2</v>
+      </c>
+      <c r="F1135" s="3">
+        <v>1.3358000000000001</v>
+      </c>
+      <c r="G1135" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1136" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1136" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1136" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1136">
+        <v>2</v>
+      </c>
+      <c r="F1136" s="3">
+        <v>1.3273999999999999</v>
+      </c>
+      <c r="G1136" s="3">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1137" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1137" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1137" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1137">
+        <v>2</v>
+      </c>
+      <c r="F1137" s="3">
+        <v>1.32</v>
+      </c>
+      <c r="G1137" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1138" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1138" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1138" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1138">
+        <v>2</v>
+      </c>
+      <c r="F1138" s="3">
+        <v>1.3123</v>
+      </c>
+      <c r="G1138" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1139" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1139" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1139" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1139">
+        <v>2</v>
+      </c>
+      <c r="F1139" s="3">
+        <v>1.3050999999999999</v>
+      </c>
+      <c r="G1139" s="3">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1140" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1140" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1140" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1140">
+        <v>2</v>
+      </c>
+      <c r="F1140" s="3">
+        <v>1.2945</v>
+      </c>
+      <c r="G1140" s="3">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1141" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1141" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1141" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1141">
+        <v>2</v>
+      </c>
+      <c r="F1141" s="3">
+        <v>1.2838000000000001</v>
+      </c>
+      <c r="G1141" s="3">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1142" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1142" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1142" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1142">
+        <v>2</v>
+      </c>
+      <c r="F1142" s="3">
+        <v>1.2750999999999999</v>
+      </c>
+      <c r="G1142" s="3">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1143" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1143" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1143" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1143" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1143">
+        <v>2</v>
+      </c>
+      <c r="F1143" s="3">
+        <v>1.2487999999999999</v>
+      </c>
+      <c r="G1143" s="3">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1144" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1144" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1144" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1144" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1144">
+        <v>3</v>
+      </c>
+      <c r="F1144" s="3">
+        <v>1.4823</v>
+      </c>
+      <c r="G1144" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1145" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1145" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1145" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1145" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1145">
+        <v>3</v>
+      </c>
+      <c r="F1145" s="3">
+        <v>1.4762999999999999</v>
+      </c>
+      <c r="G1145" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1146" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1146" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1146" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1146" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1146">
+        <v>3</v>
+      </c>
+      <c r="F1146" s="3">
+        <v>1.4737</v>
+      </c>
+      <c r="G1146" s="3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1147" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1147" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1147" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1147">
+        <v>3</v>
+      </c>
+      <c r="F1147" s="3">
+        <v>1.47</v>
+      </c>
+      <c r="G1147" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1148" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1148" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1148" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1148">
+        <v>3</v>
+      </c>
+      <c r="F1148" s="3">
+        <v>1.4682999999999999</v>
+      </c>
+      <c r="G1148" s="3">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1149" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1149" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1149" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1149" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1149">
+        <v>3</v>
+      </c>
+      <c r="F1149" s="3">
+        <v>1.4650000000000001</v>
+      </c>
+      <c r="G1149" s="3">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1150" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1150" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1150" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1150" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1150">
+        <v>3</v>
+      </c>
+      <c r="F1150" s="3">
+        <v>1.4595</v>
+      </c>
+      <c r="G1150" s="3">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1151" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1151" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1151" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1151" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1151">
+        <v>3</v>
+      </c>
+      <c r="F1151" s="3">
+        <v>1.4575</v>
+      </c>
+      <c r="G1151" s="3">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1152" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1152" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1152" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1152">
+        <v>3</v>
+      </c>
+      <c r="F1152" s="3">
+        <v>1.4530000000000001</v>
+      </c>
+      <c r="G1152" s="3">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1153" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1153" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1153" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1153">
+        <v>3</v>
+      </c>
+      <c r="F1153" s="3">
+        <v>1.4473</v>
+      </c>
+      <c r="G1153" s="3">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1154" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1154" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1154" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1154" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1154">
+        <v>3</v>
+      </c>
+      <c r="F1154" s="3">
+        <v>1.4440999999999999</v>
+      </c>
+      <c r="G1154" s="3">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1155" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1155" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1155" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1155" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1155">
+        <v>3</v>
+      </c>
+      <c r="F1155" s="3">
+        <v>1.4373</v>
+      </c>
+      <c r="G1155" s="3">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1156" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1156" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1156" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1156" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1156">
+        <v>3</v>
+      </c>
+      <c r="F1156" s="3">
+        <v>1.4325000000000001</v>
+      </c>
+      <c r="G1156" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1157" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1157" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1157" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1157" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1157">
+        <v>3</v>
+      </c>
+      <c r="F1157" s="3">
+        <v>1.4256</v>
+      </c>
+      <c r="G1157" s="3">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1158" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1158" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1158" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1158" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1158">
+        <v>4</v>
+      </c>
+      <c r="F1158" s="3">
+        <v>1.6361000000000001</v>
+      </c>
+      <c r="G1158" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1159" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1159" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1159" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1159" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1159">
+        <v>4</v>
+      </c>
+      <c r="F1159" s="3">
+        <v>1.6296999999999999</v>
+      </c>
+      <c r="G1159" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1160" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1160" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1160" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1160" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1160">
+        <v>4</v>
+      </c>
+      <c r="F1160" s="3">
+        <v>1.6254999999999999</v>
+      </c>
+      <c r="G1160" s="3">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1161" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1161" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1161" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1161" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1161">
+        <v>4</v>
+      </c>
+      <c r="F1161" s="3">
+        <v>1.6184000000000001</v>
+      </c>
+      <c r="G1161" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1162" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1162" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1162" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1162" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1162">
+        <v>4</v>
+      </c>
+      <c r="F1162" s="3">
+        <v>1.6134999999999999</v>
+      </c>
+      <c r="G1162" s="3">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1163" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1163" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1163" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1163" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1163">
+        <v>4</v>
+      </c>
+      <c r="F1163" s="3">
+        <v>1.6073999999999999</v>
+      </c>
+      <c r="G1163" s="3">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1164" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1164" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1164" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1164" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1164">
+        <v>4</v>
+      </c>
+      <c r="F1164" s="3">
+        <v>1.5999000000000001</v>
+      </c>
+      <c r="G1164" s="3">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1165" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1165" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1165" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1165" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1165">
+        <v>4</v>
+      </c>
+      <c r="F1165" s="3">
+        <v>1.5934999999999999</v>
+      </c>
+      <c r="G1165" s="3">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1166" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1166" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1166" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1166" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1166">
+        <v>4</v>
+      </c>
+      <c r="F1166" s="3">
+        <v>1.585</v>
+      </c>
+      <c r="G1166" s="3">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1167" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1167" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1167" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1167" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1167">
+        <v>4</v>
+      </c>
+      <c r="F1167" s="3">
+        <v>1.5811999999999999</v>
+      </c>
+      <c r="G1167" s="3">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1168" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1168" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1168" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1168" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1168">
+        <v>4</v>
+      </c>
+      <c r="F1168" s="3">
+        <v>1.5746</v>
+      </c>
+      <c r="G1168" s="3">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1169" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1169" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1169" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1169" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1169">
+        <v>4</v>
+      </c>
+      <c r="F1169" s="3">
+        <v>1.5640000000000001</v>
+      </c>
+      <c r="G1169" s="3">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1170" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1170" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1170" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1170">
+        <v>4</v>
+      </c>
+      <c r="F1170" s="3">
+        <v>1.5573999999999999</v>
+      </c>
+      <c r="G1170" s="3">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1171" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1171" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1171" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1171" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1171">
+        <v>4</v>
+      </c>
+      <c r="F1171" s="3">
+        <v>1.5477000000000001</v>
+      </c>
+      <c r="G1171" s="3">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1172" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1172" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1172" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1172">
+        <v>5</v>
+      </c>
+      <c r="F1172" s="3">
+        <v>1.6133</v>
+      </c>
+      <c r="G1172" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1173" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1173" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1173" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1173" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1173">
+        <v>5</v>
+      </c>
+      <c r="F1173" s="3">
+        <v>1.6042000000000001</v>
+      </c>
+      <c r="G1173" s="3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1174" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1174" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1174" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1174" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1174">
+        <v>5</v>
+      </c>
+      <c r="F1174" s="3">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="G1174" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1175" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1175" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1175" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1175" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1175">
+        <v>5</v>
+      </c>
+      <c r="F1175" s="3">
+        <v>1.5899000000000001</v>
+      </c>
+      <c r="G1175" s="3">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1176" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1176" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1176" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1176" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1176">
+        <v>5</v>
+      </c>
+      <c r="F1176" s="3">
+        <v>1.5825</v>
+      </c>
+      <c r="G1176" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1177" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1177" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1177" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1177" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1177">
+        <v>5</v>
+      </c>
+      <c r="F1177" s="3">
+        <v>1.5761000000000001</v>
+      </c>
+      <c r="G1177" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1178" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1178" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1178" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1178" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1178">
+        <v>5</v>
+      </c>
+      <c r="F1178" s="3">
+        <v>1.5689</v>
+      </c>
+      <c r="G1178" s="3">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1179" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1179" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1179" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1179" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1179">
+        <v>5</v>
+      </c>
+      <c r="F1179" s="3">
+        <v>1.5615000000000001</v>
+      </c>
+      <c r="G1179" s="3">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1180" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1180" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1180" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1180" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1180">
+        <v>5</v>
+      </c>
+      <c r="F1180" s="3">
+        <v>1.5535000000000001</v>
+      </c>
+      <c r="G1180" s="3">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1181" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1181" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1181" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1181" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1181">
+        <v>5</v>
+      </c>
+      <c r="F1181" s="3">
+        <v>1.5391999999999999</v>
+      </c>
+      <c r="G1181" s="3">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1182" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1182" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1182" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1182" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1182">
+        <v>6</v>
+      </c>
+      <c r="F1182" s="3">
+        <v>1.4228000000000001</v>
+      </c>
+      <c r="G1182" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1183" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1183" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1183" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1183" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1183">
+        <v>6</v>
+      </c>
+      <c r="F1183" s="3">
+        <v>1.4218</v>
+      </c>
+      <c r="G1183" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1184" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1184" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1184" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1184" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1184">
+        <v>6</v>
+      </c>
+      <c r="F1184" s="3">
+        <v>1.413</v>
+      </c>
+      <c r="G1184" s="3">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1185" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1185" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1185" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1185" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1185">
+        <v>6</v>
+      </c>
+      <c r="F1185" s="3">
+        <v>1.405</v>
+      </c>
+      <c r="G1185" s="3">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1186" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1186" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1186" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1186" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1186">
+        <v>6</v>
+      </c>
+      <c r="F1186" s="3">
+        <v>1.4006000000000001</v>
+      </c>
+      <c r="G1186" s="3">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1187" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1187" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1187" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1187" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1187">
+        <v>6</v>
+      </c>
+      <c r="F1187" s="3">
+        <v>1.3956999999999999</v>
+      </c>
+      <c r="G1187" s="3">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1188" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1188" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1188" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1188">
+        <v>6</v>
+      </c>
+      <c r="F1188" s="3">
+        <v>1.3947000000000001</v>
+      </c>
+      <c r="G1188" s="3">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1189" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1189" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1189" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1189" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1189">
+        <v>6</v>
+      </c>
+      <c r="F1189" s="3">
+        <v>1.3929</v>
+      </c>
+      <c r="G1189" s="3">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1190" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1190" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1190" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1190" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1190">
+        <v>6</v>
+      </c>
+      <c r="F1190" s="3">
+        <v>1.383</v>
+      </c>
+      <c r="G1190" s="3">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1191" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1191" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1191" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1191" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1191">
+        <v>6</v>
+      </c>
+      <c r="F1191" s="3">
+        <v>1.3805000000000001</v>
+      </c>
+      <c r="G1191" s="3">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1192" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1192" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1192" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1192" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1192">
+        <v>6</v>
+      </c>
+      <c r="F1192" s="3">
+        <v>1.3733</v>
+      </c>
+      <c r="G1192" s="3">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1193" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1193" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1193" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1193" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1193">
+        <v>6</v>
+      </c>
+      <c r="F1193" s="3">
+        <v>1.3766</v>
+      </c>
+      <c r="G1193" s="3">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1194" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1194" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1194" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1194" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1194">
+        <v>6</v>
+      </c>
+      <c r="F1194" s="3">
+        <v>1.3579000000000001</v>
+      </c>
+      <c r="G1194" s="3">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1195" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1195" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1195" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1195" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1195">
+        <v>6</v>
+      </c>
+      <c r="F1195" s="3">
+        <v>1.3528</v>
+      </c>
+      <c r="G1195" s="3">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1196" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1196" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1196" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1196" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1196">
+        <v>1</v>
+      </c>
+      <c r="F1196" s="3">
+        <v>1.5591999999999999</v>
+      </c>
+      <c r="G1196" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1197" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1197" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1197" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1197" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1197">
+        <v>1</v>
+      </c>
+      <c r="F1197" s="3">
+        <v>1.5324</v>
+      </c>
+      <c r="G1197" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1198" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1198" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1198" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1198" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1198">
+        <v>1</v>
+      </c>
+      <c r="F1198" s="3">
+        <v>1.5251999999999999</v>
+      </c>
+      <c r="G1198" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1199" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1199" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1199" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1199" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1199">
+        <v>1</v>
+      </c>
+      <c r="F1199" s="3">
+        <v>1.5184</v>
+      </c>
+      <c r="G1199" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1200" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1200" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1200" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1200" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1200">
+        <v>1</v>
+      </c>
+      <c r="F1200" s="3">
+        <v>1.5152000000000001</v>
+      </c>
+      <c r="G1200" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1201" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1201" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1201" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1201" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1201">
+        <v>1</v>
+      </c>
+      <c r="F1201" s="3">
+        <v>1.5108999999999999</v>
+      </c>
+      <c r="G1201" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1202" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1202" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1202" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1202" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1202">
+        <v>1</v>
+      </c>
+      <c r="F1202" s="3">
+        <v>1.5062</v>
+      </c>
+      <c r="G1202" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1203" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1203" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1203" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1203" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1203">
+        <v>1</v>
+      </c>
+      <c r="F1203" s="3">
+        <v>1.4985999999999999</v>
+      </c>
+      <c r="G1203" s="3">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1204" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1204" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1204" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1204" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1204">
+        <v>1</v>
+      </c>
+      <c r="F1204" s="3">
+        <v>1.4912000000000001</v>
+      </c>
+      <c r="G1204" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1205" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1205" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1205" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1205" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1205">
+        <v>1</v>
+      </c>
+      <c r="F1205" s="3">
+        <v>1.4864999999999999</v>
+      </c>
+      <c r="G1205" s="3">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1206" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1206" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1206" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1206" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1206">
+        <v>1</v>
+      </c>
+      <c r="F1206" s="3">
+        <v>1.4711000000000001</v>
+      </c>
+      <c r="G1206" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1207" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1207" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1207" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1207" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1207">
+        <v>1</v>
+      </c>
+      <c r="F1207" s="3">
+        <v>1.4631000000000001</v>
+      </c>
+      <c r="G1207" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1208" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1208" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1208" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1208" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1208">
+        <v>1</v>
+      </c>
+      <c r="F1208" s="3">
+        <v>1.4520999999999999</v>
+      </c>
+      <c r="G1208" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1209" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1209" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1209" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1209" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1209">
+        <v>1</v>
+      </c>
+      <c r="F1209" s="3">
+        <v>1.4396</v>
+      </c>
+      <c r="G1209" s="3">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1210" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1210" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1210" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1210" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1210">
+        <v>1</v>
+      </c>
+      <c r="F1210" s="3">
+        <v>1.4213</v>
+      </c>
+      <c r="G1210" s="3">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1211" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1211" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1211" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1211" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1211">
+        <v>1</v>
+      </c>
+      <c r="F1211" s="3">
+        <v>1.4054</v>
+      </c>
+      <c r="G1211" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1212" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1212" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1212" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1212" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1212">
+        <v>1</v>
+      </c>
+      <c r="F1212" s="3">
+        <v>1.3460000000000001</v>
+      </c>
+      <c r="G1212" s="3">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1213" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1213" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1213" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1213" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1213">
+        <v>1</v>
+      </c>
+      <c r="F1213" s="3">
+        <v>1.1806000000000001</v>
+      </c>
+      <c r="G1213" s="3">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1214" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1214" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1214" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1214" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1214">
+        <v>2</v>
+      </c>
+      <c r="F1214" s="3">
+        <v>1.0892999999999999</v>
+      </c>
+      <c r="G1214" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1215" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1215" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1215" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1215" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1215">
+        <v>2</v>
+      </c>
+      <c r="F1215" s="3">
+        <v>1.0859000000000001</v>
+      </c>
+      <c r="G1215" s="3">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1216" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1216" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1216" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1216" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1216">
+        <v>2</v>
+      </c>
+      <c r="F1216" s="3">
+        <v>1.0822000000000001</v>
+      </c>
+      <c r="G1216" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1217" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1217" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1217" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1217" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1217">
+        <v>2</v>
+      </c>
+      <c r="F1217" s="3">
+        <v>1.0777000000000001</v>
+      </c>
+      <c r="G1217" s="3">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1218" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1218" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1218" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1218" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1218">
+        <v>2</v>
+      </c>
+      <c r="F1218" s="3">
+        <v>1.0716000000000001</v>
+      </c>
+      <c r="G1218" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1219" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1219" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1219" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1219" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1219">
+        <v>2</v>
+      </c>
+      <c r="F1219" s="3">
+        <v>1.0664</v>
+      </c>
+      <c r="G1219" s="3">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1220" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1220" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1220" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1220" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1220">
+        <v>2</v>
+      </c>
+      <c r="F1220" s="3">
+        <v>1.0760000000000001</v>
+      </c>
+      <c r="G1220" s="3">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1221" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1221" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1221" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1221" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1221">
+        <v>2</v>
+      </c>
+      <c r="F1221" s="3">
+        <v>1.0815999999999999</v>
+      </c>
+      <c r="G1221" s="3">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1222" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1222" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1222" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1222" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1222">
+        <v>2</v>
+      </c>
+      <c r="F1222" s="3">
+        <v>1.0725</v>
+      </c>
+      <c r="G1222" s="3">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1223" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1223" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1223" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1223" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1223">
+        <v>2</v>
+      </c>
+      <c r="F1223" s="3">
+        <v>1.0451999999999999</v>
+      </c>
+      <c r="G1223" s="3">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1224" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1224" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1224" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1224" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1224">
+        <v>2</v>
+      </c>
+      <c r="F1224" s="3">
+        <v>1.0121</v>
+      </c>
+      <c r="G1224" s="3">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1225" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1225" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1225" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1225" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1225">
+        <v>2</v>
+      </c>
+      <c r="F1225" s="3">
+        <v>0.94810000000000005</v>
+      </c>
+      <c r="G1225" s="3">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1226" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1226" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1226" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1226" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1226">
+        <v>3</v>
+      </c>
+      <c r="F1226" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="G1226" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1227" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1227" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1227" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1227" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1227">
+        <v>3</v>
+      </c>
+      <c r="F1227" s="3">
+        <v>1.4901</v>
+      </c>
+      <c r="G1227" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1228" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1228" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1228" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1228" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1228">
+        <v>3</v>
+      </c>
+      <c r="F1228" s="3">
+        <v>1.4856</v>
+      </c>
+      <c r="G1228" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1229" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1229" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1229" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1229" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1229">
+        <v>3</v>
+      </c>
+      <c r="F1229" s="3">
+        <v>1.4811000000000001</v>
+      </c>
+      <c r="G1229" s="3">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1230" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1230" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1230" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1230" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1230">
+        <v>3</v>
+      </c>
+      <c r="F1230" s="3">
+        <v>1.4742999999999999</v>
+      </c>
+      <c r="G1230" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1231" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1231" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1231" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1231" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1231">
+        <v>3</v>
+      </c>
+      <c r="F1231" s="3">
+        <v>1.4673</v>
+      </c>
+      <c r="G1231" s="3">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1232" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1232" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1232" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1232" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1232">
+        <v>3</v>
+      </c>
+      <c r="F1232" s="3">
+        <v>1.4556</v>
+      </c>
+      <c r="G1232" s="3">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1233" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1233" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1233" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1233" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1233">
+        <v>3</v>
+      </c>
+      <c r="F1233" s="3">
+        <v>1.4461999999999999</v>
+      </c>
+      <c r="G1233" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1234" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1234" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1234" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1234" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1234">
+        <v>3</v>
+      </c>
+      <c r="F1234" s="3">
+        <v>1.4334</v>
+      </c>
+      <c r="G1234" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1235" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1235" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1235" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1235" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1235">
+        <v>3</v>
+      </c>
+      <c r="F1235" s="3">
+        <v>1.4226000000000001</v>
+      </c>
+      <c r="G1235" s="3">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1236" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1236" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1236" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1236" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1236">
+        <v>3</v>
+      </c>
+      <c r="F1236" s="3">
+        <v>1.4131</v>
+      </c>
+      <c r="G1236" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1237" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1237" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1237" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1237" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1237">
+        <v>3</v>
+      </c>
+      <c r="F1237" s="3">
+        <v>1.4013</v>
+      </c>
+      <c r="G1237" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1238" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1238" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1238" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1238" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1238">
+        <v>3</v>
+      </c>
+      <c r="F1238" s="3">
+        <v>1.3498000000000001</v>
+      </c>
+      <c r="G1238" s="3">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1239" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1239" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1239" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1239" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1239">
+        <v>3</v>
+      </c>
+      <c r="F1239" s="3">
+        <v>1.2968999999999999</v>
+      </c>
+      <c r="G1239" s="3">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1240" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1240" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1240" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1240" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1240">
+        <v>4</v>
+      </c>
+      <c r="F1240" s="3">
+        <v>0.79979999999999996</v>
+      </c>
+      <c r="G1240" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1241" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1241" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1241" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1241" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1241">
+        <v>4</v>
+      </c>
+      <c r="F1241" s="3">
+        <v>0.78839999999999999</v>
+      </c>
+      <c r="G1241" s="3">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1242" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1242" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1242" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1242" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1242">
+        <v>4</v>
+      </c>
+      <c r="F1242" s="3">
+        <v>0.77790000000000004</v>
+      </c>
+      <c r="G1242" s="3">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1243" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1243" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1243" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1243" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1243">
+        <v>4</v>
+      </c>
+      <c r="F1243" s="3">
+        <v>0.77329999999999999</v>
+      </c>
+      <c r="G1243" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1244" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1244" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1244" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1244" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1244">
+        <v>4</v>
+      </c>
+      <c r="F1244" s="3">
+        <v>0.76659999999999995</v>
+      </c>
+      <c r="G1244" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1245" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1245" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1245" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1245" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1245">
+        <v>4</v>
+      </c>
+      <c r="F1245" s="3">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="G1245" s="3">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1246" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1246" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1246" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1246" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1246">
+        <v>4</v>
+      </c>
+      <c r="F1246" s="3">
+        <v>0.752</v>
+      </c>
+      <c r="G1246" s="3">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1247" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1247" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1247" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1247" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1247">
+        <v>4</v>
+      </c>
+      <c r="F1247" s="3">
+        <v>0.74450000000000005</v>
+      </c>
+      <c r="G1247" s="3">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1248" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1248" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1248" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1248" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1248">
+        <v>4</v>
+      </c>
+      <c r="F1248" s="3">
+        <v>0.73429999999999995</v>
+      </c>
+      <c r="G1248" s="3">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1249" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1249" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1249" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1249" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1249">
+        <v>4</v>
+      </c>
+      <c r="F1249" s="3">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="G1249" s="3">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1250" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1250" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1250" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1250" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1250">
+        <v>4</v>
+      </c>
+      <c r="F1250" s="3">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="G1250" s="3">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1251" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1251" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1251" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1251" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1251">
+        <v>4</v>
+      </c>
+      <c r="F1251" s="3">
+        <v>0.70909999999999995</v>
+      </c>
+      <c r="G1251" s="3">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1252" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1252" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1252" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1252" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1252">
+        <v>4</v>
+      </c>
+      <c r="F1252" s="3">
+        <v>0.66959999999999997</v>
+      </c>
+      <c r="G1252" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1253" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1253" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1253" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1253" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1253">
+        <v>1</v>
+      </c>
+      <c r="F1253" s="3">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="G1253" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1254" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1254" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1254" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1254" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1254">
+        <v>1</v>
+      </c>
+      <c r="F1254" s="3">
+        <v>0.6492</v>
+      </c>
+      <c r="G1254" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1255" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1255" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1255" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1255" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1255">
+        <v>1</v>
+      </c>
+      <c r="F1255" s="3">
+        <v>0.64559999999999995</v>
+      </c>
+      <c r="G1255" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1256" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1256" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1256" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1256" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1256">
+        <v>1</v>
+      </c>
+      <c r="F1256" s="3">
+        <v>0.64119999999999999</v>
+      </c>
+      <c r="G1256" s="3">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1257" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1257" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1257" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1257" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1257">
+        <v>1</v>
+      </c>
+      <c r="F1257" s="3">
+        <v>0.63949999999999996</v>
+      </c>
+      <c r="G1257" s="3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1258" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1258" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1258" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1258" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1258">
+        <v>1</v>
+      </c>
+      <c r="F1258" s="3">
+        <v>0.63739999999999997</v>
+      </c>
+      <c r="G1258" s="3">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1259" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1259" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1259" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1259" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1259">
+        <v>1</v>
+      </c>
+      <c r="F1259" s="3">
+        <v>0.63590000000000002</v>
+      </c>
+      <c r="G1259" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1260" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1260" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1260" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1260" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1260">
+        <v>1</v>
+      </c>
+      <c r="F1260" s="3">
+        <v>0.63190000000000002</v>
+      </c>
+      <c r="G1260" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1261" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1261" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1261" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1261" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1261">
+        <v>1</v>
+      </c>
+      <c r="F1261" s="3">
+        <v>0.62819999999999998</v>
+      </c>
+      <c r="G1261" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1262" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1262" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1262" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1262" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1262">
+        <v>1</v>
+      </c>
+      <c r="F1262" s="3">
+        <v>0.626</v>
+      </c>
+      <c r="G1262" s="3">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1263" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1263" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1263" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1263" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1263">
+        <v>1</v>
+      </c>
+      <c r="F1263" s="3">
+        <v>0.62190000000000001</v>
+      </c>
+      <c r="G1263" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1264" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1264" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1264" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1264" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1264">
+        <v>1</v>
+      </c>
+      <c r="F1264" s="3">
+        <v>0.61580000000000001</v>
+      </c>
+      <c r="G1264" s="3">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1265" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1265" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1265" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1265" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1265">
+        <v>1</v>
+      </c>
+      <c r="F1265" s="3">
+        <v>0.60029999999999994</v>
+      </c>
+      <c r="G1265" s="3">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1266" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1266" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1266" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1266" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1266">
+        <v>1</v>
+      </c>
+      <c r="F1266" s="3">
+        <v>0.59089999999999998</v>
+      </c>
+      <c r="G1266" s="3">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1267" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1267" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1267" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1267" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1267">
+        <v>1</v>
+      </c>
+      <c r="F1267" s="3">
+        <v>0.58150000000000002</v>
+      </c>
+      <c r="G1267" s="3">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1268" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1268" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1268" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1268" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1268">
+        <v>7</v>
+      </c>
+      <c r="F1268" s="3">
+        <v>0.42570000000000002</v>
+      </c>
+      <c r="G1268" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1269" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1269" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1269" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1269" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1269">
+        <v>7</v>
+      </c>
+      <c r="F1269" s="3">
+        <v>0.42049999999999998</v>
+      </c>
+      <c r="G1269" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1270" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1270" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1270" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1270" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1270">
+        <v>7</v>
+      </c>
+      <c r="F1270" s="3">
+        <v>0.41870000000000002</v>
+      </c>
+      <c r="G1270" s="3">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1271" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1271" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1271" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1271" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1271">
+        <v>7</v>
+      </c>
+      <c r="F1271" s="3">
+        <v>0.41649999999999998</v>
+      </c>
+      <c r="G1271" s="3">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1272" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1272" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1272" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1272" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1272">
+        <v>7</v>
+      </c>
+      <c r="F1272" s="3">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="G1272" s="3">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1273" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1273" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1273" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1273" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1273">
+        <v>7</v>
+      </c>
+      <c r="F1273" s="3">
+        <v>0.4123</v>
+      </c>
+      <c r="G1273" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1274" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1274" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1274" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1274" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1274">
+        <v>7</v>
+      </c>
+      <c r="F1274" s="3">
+        <v>0.41010000000000002</v>
+      </c>
+      <c r="G1274" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1275" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1275" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1275" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1275" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1275">
+        <v>7</v>
+      </c>
+      <c r="F1275" s="3">
+        <v>0.40839999999999999</v>
+      </c>
+      <c r="G1275" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1276" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1276" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1276" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1276" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1276">
+        <v>7</v>
+      </c>
+      <c r="F1276" s="3">
+        <v>0.40610000000000002</v>
+      </c>
+      <c r="G1276" s="3">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1277" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1277" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1277" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1277" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1277">
+        <v>7</v>
+      </c>
+      <c r="F1277" s="3">
+        <v>0.40479999999999999</v>
+      </c>
+      <c r="G1277" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1278" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1278" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1278" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1278" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1278">
+        <v>7</v>
+      </c>
+      <c r="F1278" s="3">
+        <v>0.40389999999999998</v>
+      </c>
+      <c r="G1278" s="3">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1279" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1279" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1279" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1279" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1279">
+        <v>7</v>
+      </c>
+      <c r="F1279" s="3">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="G1279" s="3">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1280" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1280" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1280" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1280" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1280">
+        <v>7</v>
+      </c>
+      <c r="F1280" s="3">
+        <v>0.3987</v>
+      </c>
+      <c r="G1280" s="3">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1281" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1281" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1281" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1281" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1281">
+        <v>7</v>
+      </c>
+      <c r="F1281" s="3">
+        <v>0.37209999999999999</v>
+      </c>
+      <c r="G1281" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1282" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1282" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1282" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1282" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1282">
+        <v>3</v>
+      </c>
+      <c r="F1282" s="3">
+        <v>0.79179999999999995</v>
+      </c>
+      <c r="G1282" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1283" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1283" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1283" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1283" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1283">
+        <v>3</v>
+      </c>
+      <c r="F1283" s="3">
+        <v>0.78580000000000005</v>
+      </c>
+      <c r="G1283" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1284" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1284" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1284" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1284" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1284">
+        <v>3</v>
+      </c>
+      <c r="F1284" s="3">
+        <v>0.78259999999999996</v>
+      </c>
+      <c r="G1284" s="3">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1285" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1285" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1285" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1285" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1285">
+        <v>3</v>
+      </c>
+      <c r="F1285" s="3">
+        <v>0.78010000000000002</v>
+      </c>
+      <c r="G1285" s="3">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1286" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1286" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1286" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1286" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1286">
+        <v>3</v>
+      </c>
+      <c r="F1286" s="3">
+        <v>0.77529999999999999</v>
+      </c>
+      <c r="G1286" s="3">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1287" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1287" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1287" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1287" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1287">
+        <v>3</v>
+      </c>
+      <c r="F1287" s="3">
+        <v>0.77159999999999995</v>
+      </c>
+      <c r="G1287" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1288" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1288" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1288" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1288" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1288">
+        <v>3</v>
+      </c>
+      <c r="F1288" s="3">
+        <v>0.76780000000000004</v>
+      </c>
+      <c r="G1288" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1289" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1289" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1289" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1289" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1289">
+        <v>3</v>
+      </c>
+      <c r="F1289" s="3">
+        <v>0.76419999999999999</v>
+      </c>
+      <c r="G1289" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1290" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1290" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1290" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1290" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1290">
+        <v>3</v>
+      </c>
+      <c r="F1290" s="3">
+        <v>0.75780000000000003</v>
+      </c>
+      <c r="G1290" s="3">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1291" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1291" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1291" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1291" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1291">
+        <v>3</v>
+      </c>
+      <c r="F1291" s="3">
+        <v>0.74770000000000003</v>
+      </c>
+      <c r="G1291" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1292" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1292" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1292" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1292" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1292">
+        <v>3</v>
+      </c>
+      <c r="F1292" s="3">
+        <v>0.74529999999999996</v>
+      </c>
+      <c r="G1292" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1293" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1293" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1293" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1293" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1293">
+        <v>3</v>
+      </c>
+      <c r="F1293" s="3">
+        <v>0.73060000000000003</v>
+      </c>
+      <c r="G1293" s="3">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1294" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1294" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1294" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1294" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1294">
+        <v>3</v>
+      </c>
+      <c r="F1294" s="3">
+        <v>0.71809999999999996</v>
+      </c>
+      <c r="G1294" s="3">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1295" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1295" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1295" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1295" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1295">
+        <v>3</v>
+      </c>
+      <c r="F1295" s="3">
+        <v>0.69489999999999996</v>
+      </c>
+      <c r="G1295" s="3">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1296" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1296" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1296" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1296" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1296">
+        <v>3</v>
+      </c>
+      <c r="F1296" s="3">
+        <v>0.66379999999999995</v>
+      </c>
+      <c r="G1296" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1297" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1297" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1297" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1297" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1297">
+        <v>8</v>
+      </c>
+      <c r="F1297" s="3">
+        <v>0.3856</v>
+      </c>
+      <c r="G1297" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1298" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1298" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1298" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1298" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1298">
+        <v>8</v>
+      </c>
+      <c r="F1298" s="3">
+        <v>0.38190000000000002</v>
+      </c>
+      <c r="G1298" s="3">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1299" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1299" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1299" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1299" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1299">
+        <v>8</v>
+      </c>
+      <c r="F1299" s="3">
+        <v>0.37969999999999998</v>
+      </c>
+      <c r="G1299" s="3">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1300" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1300" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1300" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1300" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1300">
+        <v>8</v>
+      </c>
+      <c r="F1300" s="3">
+        <v>0.37780000000000002</v>
+      </c>
+      <c r="G1300" s="3">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1301" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1301" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1301" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1301" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1301">
+        <v>8</v>
+      </c>
+      <c r="F1301" s="3">
+        <v>0.37540000000000001</v>
+      </c>
+      <c r="G1301" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1302" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1302" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1302" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1302" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1302">
+        <v>8</v>
+      </c>
+      <c r="F1302" s="3">
+        <v>0.37340000000000001</v>
+      </c>
+      <c r="G1302" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1303" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1303" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1303" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1303" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1303">
+        <v>8</v>
+      </c>
+      <c r="F1303" s="3">
+        <v>0.3725</v>
+      </c>
+      <c r="G1303" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1304" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1304" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1304" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1304" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1304">
+        <v>8</v>
+      </c>
+      <c r="F1304" s="3">
+        <v>0.36969999999999997</v>
+      </c>
+      <c r="G1304" s="3">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1305" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1305" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1305" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1305" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1305">
+        <v>8</v>
+      </c>
+      <c r="F1305" s="3">
+        <v>0.36730000000000002</v>
+      </c>
+      <c r="G1305" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1306" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1306" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1306" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1306" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1306">
+        <v>8</v>
+      </c>
+      <c r="F1306" s="3">
+        <v>0.3624</v>
+      </c>
+      <c r="G1306" s="3">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1307" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1307" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1307" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1307" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1307">
+        <v>8</v>
+      </c>
+      <c r="F1307" s="3">
+        <v>0.34849999999999998</v>
+      </c>
+      <c r="G1307" s="3">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1308" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1308" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1308" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1308" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1308">
+        <v>8</v>
+      </c>
+      <c r="F1308" s="3">
+        <v>3378</v>
+      </c>
+      <c r="G1308" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1309" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1309" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1309" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1309" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1309">
+        <v>5</v>
+      </c>
+      <c r="F1309" s="3">
+        <v>0.70679999999999998</v>
+      </c>
+      <c r="G1309" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1310" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1310" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1310" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1310" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1310">
+        <v>5</v>
+      </c>
+      <c r="F1310" s="3">
+        <v>0.7036</v>
+      </c>
+      <c r="G1310" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1311" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1311" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1311" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1311" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1311">
+        <v>5</v>
+      </c>
+      <c r="F1311" s="3">
+        <v>0.69969999999999999</v>
+      </c>
+      <c r="G1311" s="3">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1312" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1312" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1312" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1312" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1312">
+        <v>5</v>
+      </c>
+      <c r="F1312" s="3">
+        <v>0.69720000000000004</v>
+      </c>
+      <c r="G1312" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1313" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1313" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1313" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1313" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1313">
+        <v>5</v>
+      </c>
+      <c r="F1313" s="3">
+        <v>0.69550000000000001</v>
+      </c>
+      <c r="G1313" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1314" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1314" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1314" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1314" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1314">
+        <v>5</v>
+      </c>
+      <c r="F1314" s="3">
+        <v>0.69289999999999996</v>
+      </c>
+      <c r="G1314" s="3">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1315" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1315" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1315" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1315" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1315">
+        <v>5</v>
+      </c>
+      <c r="F1315" s="3">
+        <v>0.68840000000000001</v>
+      </c>
+      <c r="G1315" s="3">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1316" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1316" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1316" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1316" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1316">
+        <v>5</v>
+      </c>
+      <c r="F1316" s="3">
+        <v>0.68140000000000001</v>
+      </c>
+      <c r="G1316" s="3">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1317" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1317" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1317" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1317" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1317">
+        <v>5</v>
+      </c>
+      <c r="F1317" s="3">
+        <v>0.67569999999999997</v>
+      </c>
+      <c r="G1317" s="3">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1318" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1318" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1318" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1318" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1318">
+        <v>5</v>
+      </c>
+      <c r="F1318" s="3">
+        <v>0.66920000000000002</v>
+      </c>
+      <c r="G1318" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1319" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1319" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1319" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1319" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1319">
+        <v>5</v>
+      </c>
+      <c r="F1319" s="3">
+        <v>0.66390000000000005</v>
+      </c>
+      <c r="G1319" s="3">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1320" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1320" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1320" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1320" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1320">
+        <v>5</v>
+      </c>
+      <c r="F1320" s="3">
+        <v>0.65859999999999996</v>
+      </c>
+      <c r="G1320" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1321" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1321" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1321" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1321" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1321">
+        <v>6</v>
+      </c>
+      <c r="F1321" s="3">
+        <v>0.29680000000000001</v>
+      </c>
+      <c r="G1321" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1322" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1322" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1322" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1322" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1322">
+        <v>6</v>
+      </c>
+      <c r="F1322" s="3">
+        <v>0.29070000000000001</v>
+      </c>
+      <c r="G1322" s="3">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1323" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1323" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1323" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1323" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1323">
+        <v>6</v>
+      </c>
+      <c r="F1323" s="3">
+        <v>0.2888</v>
+      </c>
+      <c r="G1323" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1324" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1324" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1324" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1324" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1324">
+        <v>6</v>
+      </c>
+      <c r="F1324" s="3">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="G1324" s="3">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1325" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1325" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1325" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1325" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1325">
+        <v>6</v>
+      </c>
+      <c r="F1325" s="3">
+        <v>0.28520000000000001</v>
+      </c>
+      <c r="G1325" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1326" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1326" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1326" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1326" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1326">
+        <v>6</v>
+      </c>
+      <c r="F1326" s="3">
+        <v>0.28370000000000001</v>
+      </c>
+      <c r="G1326" s="3">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1327" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1327" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1327" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1327" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1327">
+        <v>6</v>
+      </c>
+      <c r="F1327" s="3">
+        <v>0.28129999999999999</v>
+      </c>
+      <c r="G1327" s="3">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1328" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1328" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1328" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1328" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1328">
+        <v>6</v>
+      </c>
+      <c r="F1328" s="3">
+        <v>0.27910000000000001</v>
+      </c>
+      <c r="G1328" s="3">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1329" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1329" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1329" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1329" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1329">
+        <v>6</v>
+      </c>
+      <c r="F1329" s="3">
+        <v>0.27729999999999999</v>
+      </c>
+      <c r="G1329" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1330" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1330" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1330" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1330" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1330">
+        <v>6</v>
+      </c>
+      <c r="F1330" s="3">
+        <v>0.27579999999999999</v>
+      </c>
+      <c r="G1330" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1331" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1331" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1331" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1331" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1331">
+        <v>6</v>
+      </c>
+      <c r="F1331" s="3">
+        <v>0.27210000000000001</v>
+      </c>
+      <c r="G1331" s="3">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1332" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1332" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1332" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1332" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1332">
+        <v>6</v>
+      </c>
+      <c r="F1332" s="3">
+        <v>0.27029999999999998</v>
+      </c>
+      <c r="G1332" s="3">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1333" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1333" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1333" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1333" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1333">
+        <v>6</v>
+      </c>
+      <c r="F1333" s="3">
+        <v>0.2651</v>
+      </c>
+      <c r="G1333" s="3">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1334" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1334" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1334" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1334" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1334">
+        <v>6</v>
+      </c>
+      <c r="F1334" s="3">
+        <v>0.25969999999999999</v>
+      </c>
+      <c r="G1334" s="3">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1335" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1335" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1335" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1335" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1335">
+        <v>6</v>
+      </c>
+      <c r="F1335" s="3">
+        <v>0.24640000000000001</v>
+      </c>
+      <c r="G1335" s="3">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/raw_data/pv_curves.xlsx
+++ b/raw_data/pv_curves.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4914" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5422" uniqueCount="48">
   <si>
     <t>species</t>
   </si>
@@ -159,6 +159,15 @@
   </si>
   <si>
     <t>oleandra_articulata</t>
+  </si>
+  <si>
+    <t>pleopeltis_bradeorum</t>
+  </si>
+  <si>
+    <t>nephrolepis_rivularis</t>
+  </si>
+  <si>
+    <t>20/7/2017</t>
   </si>
 </sst>
 </file>
@@ -521,11 +530,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P1335"/>
+  <dimension ref="A1:P1460"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1323" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1328" sqref="L1328"/>
+      <pane ySplit="1" topLeftCell="A1280" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1336" sqref="B1336:B1459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33198,6 +33207,2865 @@
         <v>17.600000000000001</v>
       </c>
     </row>
+    <row r="1336" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1336" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1336" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1336" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1336" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1336">
+        <v>1</v>
+      </c>
+      <c r="F1336" s="3">
+        <v>0.67090000000000005</v>
+      </c>
+      <c r="G1336" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1337" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1337" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1337" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1337" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1337">
+        <v>1</v>
+      </c>
+      <c r="F1337" s="3">
+        <v>0.66930000000000001</v>
+      </c>
+      <c r="G1337" s="3">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1338" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1338" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1338" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1338" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1338">
+        <v>1</v>
+      </c>
+      <c r="F1338" s="3">
+        <v>0.66710000000000003</v>
+      </c>
+      <c r="G1338" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1339" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1339" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1339" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1339" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1339">
+        <v>1</v>
+      </c>
+      <c r="F1339" s="3">
+        <v>0.66449999999999998</v>
+      </c>
+      <c r="G1339" s="3">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1340" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1340" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1340" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1340" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1340">
+        <v>1</v>
+      </c>
+      <c r="F1340" s="3">
+        <v>0.66120000000000001</v>
+      </c>
+      <c r="G1340" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1341" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1341" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1341" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1341" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1341">
+        <v>1</v>
+      </c>
+      <c r="F1341" s="3">
+        <v>0.65590000000000004</v>
+      </c>
+      <c r="G1341" s="3">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1342" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1342" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1342" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1342" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1342">
+        <v>1</v>
+      </c>
+      <c r="F1342" s="3">
+        <v>0.64870000000000005</v>
+      </c>
+      <c r="G1342" s="3">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1343" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1343" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1343" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1343" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1343">
+        <v>1</v>
+      </c>
+      <c r="F1343" s="3">
+        <v>0.64559999999999995</v>
+      </c>
+      <c r="G1343" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1344" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1344" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1344" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1344" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1344">
+        <v>1</v>
+      </c>
+      <c r="F1344" s="3">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="G1344" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1345" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1345" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1345" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1345" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1345">
+        <v>2</v>
+      </c>
+      <c r="F1345" s="3">
+        <v>0.93659999999999999</v>
+      </c>
+      <c r="G1345" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1346" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1346" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1346" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1346" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1346">
+        <v>2</v>
+      </c>
+      <c r="F1346" s="3">
+        <v>0.92979999999999996</v>
+      </c>
+      <c r="G1346" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1347" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1347" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1347" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1347" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1347">
+        <v>2</v>
+      </c>
+      <c r="F1347" s="3">
+        <v>0.92569999999999997</v>
+      </c>
+      <c r="G1347" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1348" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1348" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1348" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1348" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1348">
+        <v>2</v>
+      </c>
+      <c r="F1348" s="3">
+        <v>0.92090000000000005</v>
+      </c>
+      <c r="G1348" s="3">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1349" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1349" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1349" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1349" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1349">
+        <v>2</v>
+      </c>
+      <c r="F1349" s="3">
+        <v>0.91269999999999996</v>
+      </c>
+      <c r="G1349" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1350" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1350" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1350" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1350" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1350">
+        <v>2</v>
+      </c>
+      <c r="F1350" s="3">
+        <v>0.90769999999999995</v>
+      </c>
+      <c r="G1350" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1351" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1351" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1351" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1351" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1351">
+        <v>2</v>
+      </c>
+      <c r="F1351" s="3">
+        <v>0.89249999999999996</v>
+      </c>
+      <c r="G1351" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1352" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1352" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1352" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1352" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1352">
+        <v>2</v>
+      </c>
+      <c r="F1352" s="3">
+        <v>0.87490000000000001</v>
+      </c>
+      <c r="G1352" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1353" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1353" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1353" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1353" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1353">
+        <v>2</v>
+      </c>
+      <c r="F1353" s="3">
+        <v>0.95340000000000003</v>
+      </c>
+      <c r="G1353" s="3">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1354" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1354" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1354" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1354" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1354">
+        <v>3</v>
+      </c>
+      <c r="F1354" s="3">
+        <v>0.74309999999999998</v>
+      </c>
+      <c r="G1354" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1355" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1355" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1355" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1355" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1355">
+        <v>3</v>
+      </c>
+      <c r="F1355" s="3">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="G1355" s="3">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1356" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1356" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1356" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1356" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1356">
+        <v>3</v>
+      </c>
+      <c r="F1356" s="3">
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="G1356" s="3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1357" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1357" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1357" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1357" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1357">
+        <v>3</v>
+      </c>
+      <c r="F1357" s="3">
+        <v>0.73629999999999995</v>
+      </c>
+      <c r="G1357" s="3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1358" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1358" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1358" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1358" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1358">
+        <v>3</v>
+      </c>
+      <c r="F1358" s="3">
+        <v>0.73350000000000004</v>
+      </c>
+      <c r="G1358" s="3">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1359" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1359" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1359" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1359" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1359">
+        <v>3</v>
+      </c>
+      <c r="F1359" s="3">
+        <v>0.73129999999999995</v>
+      </c>
+      <c r="G1359" s="3">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1360" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1360" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1360" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1360" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1360">
+        <v>3</v>
+      </c>
+      <c r="F1360" s="3">
+        <v>0.73029999999999995</v>
+      </c>
+      <c r="G1360" s="3">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1361" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1361" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1361" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1361" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1361">
+        <v>3</v>
+      </c>
+      <c r="F1361" s="3">
+        <v>0.72370000000000001</v>
+      </c>
+      <c r="G1361" s="3">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1362" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1362" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1362" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1362" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1362">
+        <v>3</v>
+      </c>
+      <c r="F1362" s="3">
+        <v>0.72030000000000005</v>
+      </c>
+      <c r="G1362" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1363" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1363" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1363" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1363" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1363">
+        <v>3</v>
+      </c>
+      <c r="F1363" s="3">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="G1363" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1364" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1364" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1364" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1364" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1364">
+        <v>3</v>
+      </c>
+      <c r="F1364" s="3">
+        <v>0.69779999999999998</v>
+      </c>
+      <c r="G1364" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1365" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1365" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1365" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1365" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1365">
+        <v>3</v>
+      </c>
+      <c r="F1365" s="3">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="G1365" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1366" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1366" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1366" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1366" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1366">
+        <v>3</v>
+      </c>
+      <c r="F1366" s="3">
+        <v>0.65610000000000002</v>
+      </c>
+      <c r="G1366" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1367" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1367" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1367" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1367" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1367">
+        <v>3</v>
+      </c>
+      <c r="F1367" s="3">
+        <v>0.61739999999999995</v>
+      </c>
+      <c r="G1367" s="3">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1368" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1368" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1368" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1368" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1368">
+        <v>3</v>
+      </c>
+      <c r="F1368" s="3">
+        <v>0.6028</v>
+      </c>
+      <c r="G1368" s="3">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1369" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1369" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1369" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1369" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1369">
+        <v>4</v>
+      </c>
+      <c r="F1369" s="3">
+        <v>0.76770000000000005</v>
+      </c>
+      <c r="G1369" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1370" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1370" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1370" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1370" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1370">
+        <v>4</v>
+      </c>
+      <c r="F1370" s="3">
+        <v>0.76349999999999996</v>
+      </c>
+      <c r="G1370" s="3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1371" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1371" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1371" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1371" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1371">
+        <v>4</v>
+      </c>
+      <c r="F1371" s="3">
+        <v>0.75939999999999996</v>
+      </c>
+      <c r="G1371" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1372" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1372" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1372" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1372" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1372">
+        <v>4</v>
+      </c>
+      <c r="F1372" s="3">
+        <v>0.754</v>
+      </c>
+      <c r="G1372" s="3">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1373" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1373" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1373" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1373" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1373">
+        <v>4</v>
+      </c>
+      <c r="F1373" s="3">
+        <v>0.74770000000000003</v>
+      </c>
+      <c r="G1373" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1374" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1374" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1374" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1374" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1374">
+        <v>4</v>
+      </c>
+      <c r="F1374" s="3">
+        <v>0.73939999999999995</v>
+      </c>
+      <c r="G1374" s="3">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1375" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1375" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1375" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1375" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1375">
+        <v>4</v>
+      </c>
+      <c r="F1375" s="3">
+        <v>0.72970000000000002</v>
+      </c>
+      <c r="G1375" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1376" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1376" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1376" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1376" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1376">
+        <v>4</v>
+      </c>
+      <c r="F1376" s="3">
+        <v>0.71240000000000003</v>
+      </c>
+      <c r="G1376" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1377" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1377" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1377" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1377" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1377">
+        <v>4</v>
+      </c>
+      <c r="F1377" s="3">
+        <v>0.67379999999999995</v>
+      </c>
+      <c r="G1377" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1378" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1378" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1378" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1378" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1378">
+        <v>4</v>
+      </c>
+      <c r="F1378" s="3">
+        <v>0.64959999999999996</v>
+      </c>
+      <c r="G1378" s="3">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1379" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1379" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1379" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1379" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1379">
+        <v>5</v>
+      </c>
+      <c r="F1379" s="3">
+        <v>0.72409999999999997</v>
+      </c>
+      <c r="G1379" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1380" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1380" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1380" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1380" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1380">
+        <v>5</v>
+      </c>
+      <c r="F1380" s="3">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="G1380" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1381" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1381" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1381" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1381" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1381">
+        <v>5</v>
+      </c>
+      <c r="F1381" s="3">
+        <v>0.71460000000000001</v>
+      </c>
+      <c r="G1381" s="3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1382" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1382" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1382" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1382" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1382">
+        <v>5</v>
+      </c>
+      <c r="F1382" s="3">
+        <v>0.70920000000000005</v>
+      </c>
+      <c r="G1382" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1383" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1383" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1383" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1383" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1383">
+        <v>5</v>
+      </c>
+      <c r="F1383" s="3">
+        <v>0.70289999999999997</v>
+      </c>
+      <c r="G1383" s="3">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1384" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1384" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1384" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1384" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1384">
+        <v>5</v>
+      </c>
+      <c r="F1384" s="3">
+        <v>0.69020000000000004</v>
+      </c>
+      <c r="G1384" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1385" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1385" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1385" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1385" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1385">
+        <v>5</v>
+      </c>
+      <c r="F1385" s="3">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="G1385" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1386" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1386" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1386" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1386" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1386">
+        <v>5</v>
+      </c>
+      <c r="F1386" s="3">
+        <v>0.65590000000000004</v>
+      </c>
+      <c r="G1386" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1387" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1387" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1387" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1387" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1387">
+        <v>5</v>
+      </c>
+      <c r="F1387" s="3">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="G1387" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1388" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1388" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1388" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1388" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1388">
+        <v>6</v>
+      </c>
+      <c r="F1388" s="3">
+        <v>0.67810000000000004</v>
+      </c>
+      <c r="G1388" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1389" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1389" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1389" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1389" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1389">
+        <v>6</v>
+      </c>
+      <c r="F1389" s="3">
+        <v>0.66720000000000002</v>
+      </c>
+      <c r="G1389" s="3">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1390" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1390" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1390" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1390" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1390">
+        <v>6</v>
+      </c>
+      <c r="F1390" s="3">
+        <v>0.6552</v>
+      </c>
+      <c r="G1390" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1391" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1391" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1391" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1391" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1391">
+        <v>6</v>
+      </c>
+      <c r="F1391" s="3">
+        <v>0.64810000000000001</v>
+      </c>
+      <c r="G1391" s="3">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1392" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1392" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1392" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1392" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1392">
+        <v>6</v>
+      </c>
+      <c r="F1392" s="3">
+        <v>0.63649999999999995</v>
+      </c>
+      <c r="G1392" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1393" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1393" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1393" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1393" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1393">
+        <v>6</v>
+      </c>
+      <c r="F1393" s="3">
+        <v>0.61809999999999998</v>
+      </c>
+      <c r="G1393" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1394" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1394" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1394" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1394" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1394">
+        <v>1</v>
+      </c>
+      <c r="F1394" s="3">
+        <v>0.4612</v>
+      </c>
+      <c r="G1394" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1395" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1395" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1395" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1395" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1395">
+        <v>1</v>
+      </c>
+      <c r="F1395" s="3">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="G1395" s="3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1396" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1396" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1396" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1396" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1396">
+        <v>1</v>
+      </c>
+      <c r="F1396" s="3">
+        <v>0.45350000000000001</v>
+      </c>
+      <c r="G1396" s="3">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1397" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1397" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1397" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1397" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1397">
+        <v>1</v>
+      </c>
+      <c r="F1397" s="3">
+        <v>0.45179999999999998</v>
+      </c>
+      <c r="G1397" s="3">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1398" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1398" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1398" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1398" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1398">
+        <v>1</v>
+      </c>
+      <c r="F1398" s="3">
+        <v>0.45069999999999999</v>
+      </c>
+      <c r="G1398" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1399" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1399" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1399" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1399" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1399">
+        <v>1</v>
+      </c>
+      <c r="F1399" s="3">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="G1399" s="3">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1400" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1400" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1400" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1400" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1400">
+        <v>1</v>
+      </c>
+      <c r="F1400" s="3">
+        <v>0.44679999999999997</v>
+      </c>
+      <c r="G1400" s="3">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1401" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1401" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1401" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1401" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1401">
+        <v>1</v>
+      </c>
+      <c r="F1401" s="3">
+        <v>0.44529999999999997</v>
+      </c>
+      <c r="G1401" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1402" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1402" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1402" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1402" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1402">
+        <v>1</v>
+      </c>
+      <c r="F1402" s="3">
+        <v>0.44119999999999998</v>
+      </c>
+      <c r="G1402" s="3">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1403" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1403" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1403" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1403" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1403">
+        <v>2</v>
+      </c>
+      <c r="F1403" s="3">
+        <v>0.57340000000000002</v>
+      </c>
+      <c r="G1403" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1404" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1404" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1404" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1404" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1404">
+        <v>2</v>
+      </c>
+      <c r="F1404" s="3">
+        <v>0.56940000000000002</v>
+      </c>
+      <c r="G1404" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1405" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1405" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1405" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1405" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1405">
+        <v>2</v>
+      </c>
+      <c r="F1405" s="3">
+        <v>0.56669999999999998</v>
+      </c>
+      <c r="G1405" s="3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1406" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1406" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1406" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1406" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1406">
+        <v>2</v>
+      </c>
+      <c r="F1406" s="3">
+        <v>0.56489999999999996</v>
+      </c>
+      <c r="G1406" s="3">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1407" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1407" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1407" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1407" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1407">
+        <v>2</v>
+      </c>
+      <c r="F1407" s="3">
+        <v>0.56430000000000002</v>
+      </c>
+      <c r="G1407" s="3">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1408" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1408" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1408" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1408" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1408">
+        <v>2</v>
+      </c>
+      <c r="F1408" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="G1408" s="3">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1409" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1409" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1409" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1409" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1409">
+        <v>2</v>
+      </c>
+      <c r="F1409" s="3">
+        <v>0.56010000000000004</v>
+      </c>
+      <c r="G1409" s="3">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1410" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1410" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1410" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1410" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1410">
+        <v>2</v>
+      </c>
+      <c r="F1410" s="3">
+        <v>0.5585</v>
+      </c>
+      <c r="G1410" s="3">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1411" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1411" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1411" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1411" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1411">
+        <v>2</v>
+      </c>
+      <c r="F1411" s="3">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="G1411" s="3">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1412" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1412" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1412" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1412" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1412">
+        <v>2</v>
+      </c>
+      <c r="F1412" s="3">
+        <v>0.55169999999999997</v>
+      </c>
+      <c r="G1412" s="3">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1413" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1413" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1413" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1413" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1413">
+        <v>2</v>
+      </c>
+      <c r="F1413" s="3">
+        <v>0.54490000000000005</v>
+      </c>
+      <c r="G1413" s="3">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1414" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1414" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1414" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1414" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1414">
+        <v>2</v>
+      </c>
+      <c r="F1414" s="3">
+        <v>0.54069999999999996</v>
+      </c>
+      <c r="G1414" s="3">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1415" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1415" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1415" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1415" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1415">
+        <v>2</v>
+      </c>
+      <c r="F1415" s="3">
+        <v>0.53390000000000004</v>
+      </c>
+      <c r="G1415" s="3">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1416" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1416" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1416" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1416" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1416">
+        <v>3</v>
+      </c>
+      <c r="F1416" s="3">
+        <v>0.4657</v>
+      </c>
+      <c r="G1416" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1417" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1417" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1417" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1417" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1417">
+        <v>3</v>
+      </c>
+      <c r="F1417" s="3">
+        <v>0.46239999999999998</v>
+      </c>
+      <c r="G1417" s="3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1418" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1418" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1418" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1418" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1418">
+        <v>3</v>
+      </c>
+      <c r="F1418" s="3">
+        <v>0.46139999999999998</v>
+      </c>
+      <c r="G1418" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1419" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1419" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1419" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1419" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1419">
+        <v>3</v>
+      </c>
+      <c r="F1419" s="3">
+        <v>0.4592</v>
+      </c>
+      <c r="G1419" s="3">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1420" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1420" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1420" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1420" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1420">
+        <v>3</v>
+      </c>
+      <c r="F1420" s="3">
+        <v>0.45889999999999997</v>
+      </c>
+      <c r="G1420" s="3">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1421" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1421" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1421" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1421" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1421">
+        <v>3</v>
+      </c>
+      <c r="F1421" s="3">
+        <v>0.4572</v>
+      </c>
+      <c r="G1421" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1422" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1422" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1422" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1422" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1422">
+        <v>3</v>
+      </c>
+      <c r="F1422" s="3">
+        <v>0.45429999999999998</v>
+      </c>
+      <c r="G1422" s="3">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1423" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1423" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1423" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1423" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1423">
+        <v>3</v>
+      </c>
+      <c r="F1423" s="3">
+        <v>0.4531</v>
+      </c>
+      <c r="G1423" s="3">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1424" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1424" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1424" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1424" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1424">
+        <v>3</v>
+      </c>
+      <c r="F1424" s="3">
+        <v>0.45050000000000001</v>
+      </c>
+      <c r="G1424" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1425" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1425" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1425" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1425" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1425">
+        <v>3</v>
+      </c>
+      <c r="F1425" s="3">
+        <v>0.4471</v>
+      </c>
+      <c r="G1425" s="3">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1426" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1426" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1426" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1426" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1426">
+        <v>3</v>
+      </c>
+      <c r="F1426" s="3">
+        <v>0.443</v>
+      </c>
+      <c r="G1426" s="3">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1427" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1427" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1427" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1427" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1427">
+        <v>3</v>
+      </c>
+      <c r="F1427" s="3">
+        <v>0.43890000000000001</v>
+      </c>
+      <c r="G1427" s="3">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1428" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1428" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1428" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1428" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1428">
+        <v>3</v>
+      </c>
+      <c r="F1428" s="3">
+        <v>0.436</v>
+      </c>
+      <c r="G1428" s="3">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1429" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1429" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1429" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1429" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1429">
+        <v>3</v>
+      </c>
+      <c r="F1429" s="3">
+        <v>0.43180000000000002</v>
+      </c>
+      <c r="G1429" s="3">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1430" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1430" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1430" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1430" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1430">
+        <v>4</v>
+      </c>
+      <c r="F1430" s="3">
+        <v>0.70069999999999999</v>
+      </c>
+      <c r="G1430" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1431" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1431" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1431" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1431" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1431">
+        <v>4</v>
+      </c>
+      <c r="F1431" s="3">
+        <v>0.69289999999999996</v>
+      </c>
+      <c r="G1431" s="3">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1432" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1432" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1432" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1432" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1432">
+        <v>4</v>
+      </c>
+      <c r="F1432" s="3">
+        <v>0.6895</v>
+      </c>
+      <c r="G1432" s="3">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1433" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1433" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1433" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1433" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1433">
+        <v>4</v>
+      </c>
+      <c r="F1433" s="3">
+        <v>0.68679999999999997</v>
+      </c>
+      <c r="G1433" s="3">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1434" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1434" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1434" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1434" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1434">
+        <v>4</v>
+      </c>
+      <c r="F1434" s="3">
+        <v>0.68569999999999998</v>
+      </c>
+      <c r="G1434" s="3">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1435" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1435" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1435" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1435" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1435">
+        <v>4</v>
+      </c>
+      <c r="F1435" s="3">
+        <v>0.68430000000000002</v>
+      </c>
+      <c r="G1435" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1436" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1436" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1436" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1436" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1436">
+        <v>4</v>
+      </c>
+      <c r="F1436" s="3">
+        <v>0.68189999999999995</v>
+      </c>
+      <c r="G1436" s="3">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1437" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1437" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1437" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1437" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1437">
+        <v>4</v>
+      </c>
+      <c r="F1437" s="3">
+        <v>0.67849999999999999</v>
+      </c>
+      <c r="G1437" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1438" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1438" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1438" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1438" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1438">
+        <v>4</v>
+      </c>
+      <c r="F1438" s="3">
+        <v>0.6764</v>
+      </c>
+      <c r="G1438" s="3">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1439" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1439" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1439" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1439" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1439">
+        <v>4</v>
+      </c>
+      <c r="F1439" s="3">
+        <v>0.67420000000000002</v>
+      </c>
+      <c r="G1439" s="3">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1440" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1440" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1440" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1440" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1440">
+        <v>4</v>
+      </c>
+      <c r="F1440" s="3">
+        <v>0.67090000000000005</v>
+      </c>
+      <c r="G1440" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1441" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1441" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1441" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1441" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1441">
+        <v>4</v>
+      </c>
+      <c r="F1441" s="3">
+        <v>0.66510000000000002</v>
+      </c>
+      <c r="G1441" s="3">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1442" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1442" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1442" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1442" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1442">
+        <v>5</v>
+      </c>
+      <c r="F1442" s="3">
+        <v>0.84909999999999997</v>
+      </c>
+      <c r="G1442" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1443" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1443" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1443" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1443" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1443">
+        <v>5</v>
+      </c>
+      <c r="F1443" s="3">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="G1443" s="3">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1444" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1444" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1444" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1444" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1444">
+        <v>5</v>
+      </c>
+      <c r="F1444" s="3">
+        <v>0.8417</v>
+      </c>
+      <c r="G1444" s="3">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1445" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1445" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1445" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1445" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1445">
+        <v>5</v>
+      </c>
+      <c r="F1445" s="3">
+        <v>0.83089999999999997</v>
+      </c>
+      <c r="G1445" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1446" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1446" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1446" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1446" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1446">
+        <v>5</v>
+      </c>
+      <c r="F1446" s="3">
+        <v>0.83130000000000004</v>
+      </c>
+      <c r="G1446" s="3">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1447" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1447" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1447" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1447" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1447">
+        <v>5</v>
+      </c>
+      <c r="F1447" s="3">
+        <v>0.81879999999999997</v>
+      </c>
+      <c r="G1447" s="3">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1448" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1448" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1448" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1448" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1448">
+        <v>5</v>
+      </c>
+      <c r="F1448" s="3">
+        <v>0.81379999999999997</v>
+      </c>
+      <c r="G1448" s="3">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1449" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1449" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1449" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1449" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1449">
+        <v>5</v>
+      </c>
+      <c r="F1449" s="3">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="G1449" s="3">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1450" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1450" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1450" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1450" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1450">
+        <v>5</v>
+      </c>
+      <c r="F1450" s="3">
+        <v>0.78210000000000002</v>
+      </c>
+      <c r="G1450" s="3">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1451" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1451" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1451" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1451" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1451">
+        <v>5</v>
+      </c>
+      <c r="F1451" s="3">
+        <v>0.76849999999999996</v>
+      </c>
+      <c r="G1451" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1452" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1452" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1452" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1452" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1452">
+        <v>6</v>
+      </c>
+      <c r="F1452" s="3">
+        <v>0.4083</v>
+      </c>
+      <c r="G1452" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1453" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1453" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1453" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1453" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1453">
+        <v>6</v>
+      </c>
+      <c r="F1453" s="3">
+        <v>0.40620000000000001</v>
+      </c>
+      <c r="G1453" s="3">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1454" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1454" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1454" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1454" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1454">
+        <v>6</v>
+      </c>
+      <c r="F1454" s="3">
+        <v>0.40360000000000001</v>
+      </c>
+      <c r="G1454" s="3">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1455" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1455" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1455" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1455" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1455">
+        <v>6</v>
+      </c>
+      <c r="F1455" s="3">
+        <v>0.40050000000000002</v>
+      </c>
+      <c r="G1455" s="3">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1456" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1456" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1456" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1456" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1456">
+        <v>6</v>
+      </c>
+      <c r="F1456" s="3">
+        <v>0.4002</v>
+      </c>
+      <c r="G1456" s="3">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1457" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1457" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1457" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1457" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1457">
+        <v>6</v>
+      </c>
+      <c r="F1457" s="3">
+        <v>0.39779999999999999</v>
+      </c>
+      <c r="G1457" s="3">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1458" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1458" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1458" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1458" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1458">
+        <v>6</v>
+      </c>
+      <c r="F1458" s="3">
+        <v>0.3957</v>
+      </c>
+      <c r="G1458" s="3">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1459" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1459" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1459" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1459" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1459">
+        <v>6</v>
+      </c>
+      <c r="F1459" s="3">
+        <v>0.39029999999999998</v>
+      </c>
+      <c r="G1459" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1460"/>
+      <c r="B1460" s="4"/>
+      <c r="C1460"/>
+      <c r="D1460"/>
+      <c r="E1460"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
